--- a/Otras cosas/Corners/Hoja Excel.xlsx
+++ b/Otras cosas/Corners/Hoja Excel.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Kike\Otros_RepositorioGit\Otras cosas\Corners\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29AF416-E59B-4EA2-B2CF-BBC6616FDBCE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20130" windowHeight="6555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20130" windowHeight="6555"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Virgen" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="62">
   <si>
     <t>USUARIO</t>
   </si>
@@ -149,25 +143,110 @@
 X &lt; 09 (LIVE)</t>
   </si>
   <si>
+    <t>✓ &gt; 07 (LIVE) 4c min45 /
+&lt; 12
+&lt; 12</t>
+  </si>
+  <si>
+    <t>✓ &lt; 13
+X &lt; 12
+&lt; 12</t>
+  </si>
+  <si>
     <t>X &lt; 11 (LIVE) 2corners min24 /
+✓ &lt; 13
+X &lt; 12</t>
+  </si>
+  <si>
+    <t>&lt; 12
+&lt; 12
+&lt; 11</t>
+  </si>
+  <si>
+    <t>&lt; 12
+&lt; 12
+&lt; 12</t>
+  </si>
+  <si>
+    <t>UEFA Europa League
+Apoel vs Hapoel</t>
+  </si>
+  <si>
+    <t>UEFA Europa League
+Kukesi vs Kutaisi</t>
+  </si>
+  <si>
+    <t>UEFA Europa League
+Molde vs Hibernian</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>UEFA Europa League
+Lucerna vs Olympiacos</t>
+  </si>
+  <si>
+    <t>UEFA Europa League
+LASK Linz vs Besiktas</t>
+  </si>
+  <si>
+    <t>UEFA Europa League
+Brondby vs Spartak</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>&gt; 04 (L)
+&gt; 09 (L)
+&gt; 06 (L)</t>
+  </si>
+  <si>
+    <t>UEFA Europa League
+FCSB vs Hajduk</t>
+  </si>
+  <si>
+    <t>&lt; 12
 &lt; 13
 &lt; 12</t>
   </si>
   <si>
-    <t>✓ &gt; 07 (LIVE) 4c min45 /
+    <t>UEFA Europa League
+Partizán vs Nordsjaelland</t>
+  </si>
+  <si>
+    <t>UEFA Europa League
+Egipto -  1a División</t>
+  </si>
+  <si>
+    <t>X &lt; 12
 &lt; 12
-&lt; 12</t>
+✓&lt; 13</t>
+  </si>
+  <si>
+    <t>&lt; 13
+&lt; 12
+&lt; 13</t>
+  </si>
+  <si>
+    <t>Islandia - 4 Deild
+Perú - 1a División
+Copa do Brazil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -523,37 +602,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -595,11 +653,35 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -956,7 +1038,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -988,27 +1070,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1040,24 +1104,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1233,14 +1279,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="4" customWidth="1"/>
@@ -1254,7 +1300,7 @@
     <col min="14" max="14" width="11.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1">
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -1262,47 +1308,47 @@
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="50" t="s">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" thickTop="1">
+      <c r="B2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="44"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="51"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="44"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" thickBot="1">
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="53"/>
-    </row>
-    <row r="4" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="54" t="s">
+      <c r="K3" s="45"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="46"/>
+    </row>
+    <row r="4" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
+      <c r="B4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1334,86 +1380,86 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="56" t="s">
+    <row r="5" spans="1:14" ht="20.25" thickTop="1" thickBot="1">
+      <c r="B5" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="57"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="33">
         <v>98.61</v>
       </c>
       <c r="E5" s="9">
         <f>D5+G5</f>
-        <v>97.61</v>
+        <v>97.51</v>
       </c>
       <c r="F5" s="9">
         <f>SUM(E11:E500)</f>
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="G5" s="10">
         <f>SUM(K11:K500)</f>
-        <v>-1</v>
+        <v>-1.0999999999999996</v>
       </c>
       <c r="H5" s="11">
         <f>(E5-D5)/D5</f>
-        <v>-1.0140959334753067E-2</v>
+        <v>-1.1155055268228317E-2</v>
       </c>
       <c r="I5" s="11">
         <f>(G5/F5)</f>
-        <v>-0.5</v>
+        <v>-0.14666666666666661</v>
       </c>
       <c r="K5" s="12">
         <f>COUNTIF(J11:J500,"w")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" s="13">
         <f>COUNTIF(J11:J500,"l")</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M5" s="14">
         <f>COUNTIF(J11:J500,"V")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="15">
         <f>K5/(K5+L5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="40" t="s">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" thickTop="1"/>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" thickTop="1">
+      <c r="B8" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="42"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="45"/>
-    </row>
-    <row r="10" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="58"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B9" s="59"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="61"/>
+    </row>
+    <row r="10" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
       <c r="B10" s="16" t="s">
         <v>1</v>
       </c>
@@ -1447,12 +1493,12 @@
       <c r="L10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="46" t="s">
+      <c r="M10" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="47"/>
-    </row>
-    <row r="11" spans="1:14" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N10" s="63"/>
+    </row>
+    <row r="11" spans="1:14" ht="48.75" thickTop="1" thickBot="1">
       <c r="A11" s="30" t="s">
         <v>26</v>
       </c>
@@ -1463,7 +1509,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E11" s="19">
         <v>0.5</v>
@@ -1492,17 +1538,17 @@
         <f>D5+K11</f>
         <v>98.11</v>
       </c>
-      <c r="M11" s="48"/>
-      <c r="N11" s="49"/>
-    </row>
-    <row r="12" spans="1:14" ht="48" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="64"/>
+      <c r="N11" s="65"/>
+    </row>
+    <row r="12" spans="1:14" ht="48" thickTop="1">
       <c r="B12" s="34" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="39" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="22">
@@ -1532,18 +1578,18 @@
         <f>K12+L11</f>
         <v>97.61</v>
       </c>
-      <c r="M12" s="38"/>
-      <c r="N12" s="39"/>
-    </row>
-    <row r="13" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="M12" s="41"/>
+      <c r="N12" s="42"/>
+    </row>
+    <row r="13" spans="1:14" ht="47.25">
       <c r="B13" s="34" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="63" t="s">
-        <v>36</v>
+      <c r="D13" s="39" t="s">
+        <v>41</v>
       </c>
       <c r="E13" s="22">
         <v>0.5</v>
@@ -1561,27 +1607,29 @@
         <f t="shared" si="0"/>
         <v>0.97609999999999997</v>
       </c>
-      <c r="J13" s="7"/>
+      <c r="J13" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="K13" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L13" s="22">
         <f t="shared" ref="L13:L33" si="2">K13+L12</f>
-        <v>97.61</v>
-      </c>
-      <c r="M13" s="38"/>
-      <c r="N13" s="39"/>
-    </row>
-    <row r="14" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B14" s="64" t="s">
+        <v>97.11</v>
+      </c>
+      <c r="M13" s="41"/>
+      <c r="N13" s="42"/>
+    </row>
+    <row r="14" spans="1:14" ht="47.25">
+      <c r="B14" s="40" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="63" t="s">
-        <v>41</v>
+      <c r="D14" s="39" t="s">
+        <v>40</v>
       </c>
       <c r="E14" s="22">
         <v>0.5</v>
@@ -1597,335 +1645,463 @@
       </c>
       <c r="I14" s="22">
         <f t="shared" si="0"/>
-        <v>0.97609999999999997</v>
-      </c>
-      <c r="J14" s="7"/>
+        <v>0.97109999999999996</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>52</v>
+      </c>
       <c r="K14" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="L14" s="22">
         <f t="shared" si="2"/>
-        <v>97.61</v>
-      </c>
-      <c r="M14" s="38"/>
-      <c r="N14" s="39"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="34"/>
+        <v>97.56</v>
+      </c>
+      <c r="M14" s="41"/>
+      <c r="N14" s="42"/>
+    </row>
+    <row r="15" spans="1:14" ht="47.25">
+      <c r="B15" s="40" t="s">
+        <v>45</v>
+      </c>
       <c r="C15" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="D15" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="38">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="G15" s="38">
+        <v>1</v>
+      </c>
       <c r="H15" s="25">
         <v>0.1</v>
       </c>
       <c r="I15" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="7"/>
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>53</v>
+      </c>
       <c r="K15" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L15" s="22">
         <f t="shared" si="2"/>
-        <v>97.61</v>
-      </c>
-      <c r="M15" s="38"/>
-      <c r="N15" s="39"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="34"/>
-      <c r="C16" s="37" t="s">
+        <v>97.55</v>
+      </c>
+      <c r="M15" s="41"/>
+      <c r="N15" s="42"/>
+    </row>
+    <row r="16" spans="1:14" ht="47.25">
+      <c r="B16" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="D16" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="38">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="G16" s="38">
+        <v>1</v>
+      </c>
       <c r="H16" s="25">
         <v>0.1</v>
       </c>
       <c r="I16" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="7"/>
+        <v>0.97550000000000003</v>
+      </c>
+      <c r="J16" s="38" t="s">
+        <v>52</v>
+      </c>
       <c r="K16" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L16" s="22">
         <f t="shared" si="2"/>
-        <v>97.61</v>
-      </c>
-      <c r="M16" s="38"/>
-      <c r="N16" s="39"/>
-    </row>
-    <row r="17" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="34"/>
-      <c r="C17" s="37" t="s">
+        <v>98.05</v>
+      </c>
+      <c r="M16" s="41"/>
+      <c r="N16" s="42"/>
+    </row>
+    <row r="17" spans="1:14" ht="48" thickBot="1">
+      <c r="B17" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="D17" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1.99</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1</v>
+      </c>
       <c r="H17" s="25">
         <v>0.1</v>
       </c>
       <c r="I17" s="22">
         <f>L16*(G17/100)</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="7"/>
+        <v>0.98050000000000004</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="K17" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L17" s="22">
         <f t="shared" si="2"/>
-        <v>97.61</v>
-      </c>
-      <c r="M17" s="38"/>
-      <c r="N17" s="39"/>
-    </row>
-    <row r="18" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>97.55</v>
+      </c>
+      <c r="M17" s="41"/>
+      <c r="N17" s="42"/>
+    </row>
+    <row r="18" spans="1:14" ht="48.75" thickTop="1" thickBot="1">
       <c r="A18" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="37" t="s">
+      <c r="B18" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="D18" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="38">
+        <v>2.04</v>
+      </c>
+      <c r="G18" s="38">
+        <v>1</v>
+      </c>
       <c r="H18" s="25">
         <v>0.1</v>
       </c>
       <c r="I18" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="7"/>
+        <v>0.97550000000000003</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="K18" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L18" s="22">
         <f t="shared" si="2"/>
-        <v>97.61</v>
-      </c>
-      <c r="M18" s="38"/>
-      <c r="N18" s="39"/>
-    </row>
-    <row r="19" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="34"/>
-      <c r="C19" s="37" t="s">
+        <v>97.05</v>
+      </c>
+      <c r="M18" s="41"/>
+      <c r="N18" s="42"/>
+    </row>
+    <row r="19" spans="1:14" ht="48" thickTop="1">
+      <c r="B19" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
+      <c r="D19" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="38">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="G19" s="38">
+        <v>1</v>
+      </c>
       <c r="H19" s="25">
         <v>0.1</v>
       </c>
       <c r="I19" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="7"/>
+        <v>0.97050000000000003</v>
+      </c>
+      <c r="J19" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="K19" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L19" s="22">
         <f t="shared" si="2"/>
-        <v>97.61</v>
-      </c>
-      <c r="M19" s="38"/>
-      <c r="N19" s="39"/>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="34"/>
-      <c r="C20" s="37" t="s">
+        <v>96.55</v>
+      </c>
+      <c r="M19" s="41"/>
+      <c r="N19" s="42"/>
+    </row>
+    <row r="20" spans="1:14" ht="47.25">
+      <c r="B20" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
+      <c r="D20" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="38">
+        <v>2.68</v>
+      </c>
+      <c r="G20" s="38">
+        <v>1</v>
+      </c>
       <c r="H20" s="25">
         <v>0.1</v>
       </c>
       <c r="I20" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="7"/>
+        <v>0.96550000000000002</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>52</v>
+      </c>
       <c r="K20" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="L20" s="22">
         <f t="shared" si="2"/>
-        <v>97.61</v>
-      </c>
-      <c r="M20" s="38"/>
-      <c r="N20" s="39"/>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="34"/>
-      <c r="C21" s="37" t="s">
+        <v>97.39</v>
+      </c>
+      <c r="M20" s="41"/>
+      <c r="N20" s="42"/>
+    </row>
+    <row r="21" spans="1:14" ht="47.25">
+      <c r="B21" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
+      <c r="D21" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="38">
+        <v>2.48</v>
+      </c>
+      <c r="G21" s="38">
+        <v>1</v>
+      </c>
       <c r="H21" s="25">
         <v>0.1</v>
       </c>
       <c r="I21" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="7"/>
+        <v>0.97389999999999999</v>
+      </c>
+      <c r="J21" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="K21" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L21" s="22">
         <f t="shared" si="2"/>
-        <v>97.61</v>
-      </c>
-      <c r="M21" s="38"/>
-      <c r="N21" s="39"/>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="34"/>
-      <c r="C22" s="37" t="s">
+        <v>96.89</v>
+      </c>
+      <c r="M21" s="41"/>
+      <c r="N21" s="42"/>
+    </row>
+    <row r="22" spans="1:14" ht="47.25">
+      <c r="B22" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
+      <c r="D22" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="38">
+        <v>2</v>
+      </c>
+      <c r="G22" s="38">
+        <v>1</v>
+      </c>
       <c r="H22" s="25">
         <v>0.1</v>
       </c>
       <c r="I22" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="7"/>
+        <v>0.96889999999999998</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="K22" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L22" s="22">
         <f t="shared" si="2"/>
-        <v>97.61</v>
-      </c>
-      <c r="M22" s="38"/>
-      <c r="N22" s="39"/>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="34"/>
-      <c r="C23" s="37" t="s">
+        <v>96.39</v>
+      </c>
+      <c r="M22" s="41"/>
+      <c r="N22" s="42"/>
+    </row>
+    <row r="23" spans="1:14" ht="47.25">
+      <c r="B23" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
+      <c r="D23" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="38">
+        <v>2.04</v>
+      </c>
+      <c r="G23" s="38">
+        <v>1</v>
+      </c>
       <c r="H23" s="25">
         <v>0.1</v>
       </c>
       <c r="I23" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="7"/>
+        <v>0.96389999999999998</v>
+      </c>
+      <c r="J23" s="38" t="s">
+        <v>48</v>
+      </c>
       <c r="K23" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L23" s="22">
         <f t="shared" si="2"/>
-        <v>97.61</v>
-      </c>
-      <c r="M23" s="38"/>
-      <c r="N23" s="39"/>
-    </row>
-    <row r="24" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="34"/>
-      <c r="C24" s="37" t="s">
+        <v>96.89</v>
+      </c>
+      <c r="M23" s="41"/>
+      <c r="N23" s="42"/>
+    </row>
+    <row r="24" spans="1:14" ht="48" thickBot="1">
+      <c r="B24" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
+      <c r="D24" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="38">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="G24" s="38">
+        <v>1</v>
+      </c>
       <c r="H24" s="25">
         <v>0.1</v>
       </c>
       <c r="I24" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="7"/>
+        <v>0.96889999999999998</v>
+      </c>
+      <c r="J24" s="38" t="s">
+        <v>48</v>
+      </c>
       <c r="K24" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.62000000000000011</v>
       </c>
       <c r="L24" s="22">
         <f t="shared" si="2"/>
-        <v>97.61</v>
-      </c>
-      <c r="M24" s="38"/>
-      <c r="N24" s="39"/>
-    </row>
-    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>97.51</v>
+      </c>
+      <c r="M24" s="41"/>
+      <c r="N24" s="42"/>
+    </row>
+    <row r="25" spans="1:14" ht="48.75" thickTop="1" thickBot="1">
       <c r="A25" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="37" t="s">
+      <c r="B25" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
+      <c r="D25" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="38">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="G25" s="38">
+        <v>1</v>
+      </c>
       <c r="H25" s="25">
         <v>0.1</v>
       </c>
       <c r="I25" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="7"/>
+        <v>0.97510000000000008</v>
+      </c>
+      <c r="J25" s="38"/>
       <c r="K25" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L25" s="22">
         <f t="shared" si="2"/>
-        <v>97.61</v>
-      </c>
-      <c r="M25" s="38"/>
-      <c r="N25" s="39"/>
-    </row>
-    <row r="26" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M25" s="41"/>
+      <c r="N25" s="42"/>
+    </row>
+    <row r="26" spans="1:14" ht="16.5" thickTop="1">
       <c r="B26" s="36"/>
       <c r="C26" s="37" t="s">
         <v>33</v>
@@ -1948,12 +2124,12 @@
       </c>
       <c r="L26" s="22">
         <f t="shared" si="2"/>
-        <v>97.61</v>
-      </c>
-      <c r="M26" s="38"/>
-      <c r="N26" s="39"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M26" s="41"/>
+      <c r="N26" s="42"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75">
       <c r="B27" s="34"/>
       <c r="C27" s="37" t="s">
         <v>33</v>
@@ -1976,12 +2152,12 @@
       </c>
       <c r="L27" s="22">
         <f t="shared" si="2"/>
-        <v>97.61</v>
-      </c>
-      <c r="M27" s="38"/>
-      <c r="N27" s="39"/>
-    </row>
-    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M27" s="41"/>
+      <c r="N27" s="42"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75">
       <c r="B28" s="34"/>
       <c r="C28" s="37" t="s">
         <v>33</v>
@@ -2004,12 +2180,12 @@
       </c>
       <c r="L28" s="22">
         <f t="shared" si="2"/>
-        <v>97.61</v>
-      </c>
-      <c r="M28" s="38"/>
-      <c r="N28" s="39"/>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M28" s="41"/>
+      <c r="N28" s="42"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75">
       <c r="B29" s="34"/>
       <c r="C29" s="37" t="s">
         <v>33</v>
@@ -2032,12 +2208,12 @@
       </c>
       <c r="L29" s="22">
         <f t="shared" si="2"/>
-        <v>97.61</v>
-      </c>
-      <c r="M29" s="38"/>
-      <c r="N29" s="39"/>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M29" s="41"/>
+      <c r="N29" s="42"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.75">
       <c r="B30" s="34"/>
       <c r="C30" s="37" t="s">
         <v>33</v>
@@ -2060,12 +2236,12 @@
       </c>
       <c r="L30" s="22">
         <f t="shared" si="2"/>
-        <v>97.61</v>
-      </c>
-      <c r="M30" s="38"/>
-      <c r="N30" s="39"/>
-    </row>
-    <row r="31" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>97.51</v>
+      </c>
+      <c r="M30" s="41"/>
+      <c r="N30" s="42"/>
+    </row>
+    <row r="31" spans="1:14" ht="16.5" thickBot="1">
       <c r="B31" s="34"/>
       <c r="C31" s="7"/>
       <c r="D31" s="28"/>
@@ -2086,12 +2262,12 @@
       </c>
       <c r="L31" s="22">
         <f t="shared" si="2"/>
-        <v>97.61</v>
-      </c>
-      <c r="M31" s="38"/>
-      <c r="N31" s="39"/>
-    </row>
-    <row r="32" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>97.51</v>
+      </c>
+      <c r="M31" s="41"/>
+      <c r="N31" s="42"/>
+    </row>
+    <row r="32" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
       <c r="A32" s="30" t="s">
         <v>29</v>
       </c>
@@ -2115,12 +2291,12 @@
       </c>
       <c r="L32" s="22">
         <f t="shared" si="2"/>
-        <v>97.61</v>
-      </c>
-      <c r="M32" s="38"/>
-      <c r="N32" s="39"/>
-    </row>
-    <row r="33" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M32" s="41"/>
+      <c r="N32" s="42"/>
+    </row>
+    <row r="33" spans="2:14" ht="16.5" thickTop="1">
       <c r="B33" s="34"/>
       <c r="C33" s="7"/>
       <c r="D33" s="28"/>
@@ -2141,12 +2317,12 @@
       </c>
       <c r="L33" s="22">
         <f t="shared" si="2"/>
-        <v>97.61</v>
-      </c>
-      <c r="M33" s="38"/>
-      <c r="N33" s="39"/>
-    </row>
-    <row r="34" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M33" s="41"/>
+      <c r="N33" s="42"/>
+    </row>
+    <row r="34" spans="2:14" ht="15.75">
       <c r="B34" s="34"/>
       <c r="C34" s="7"/>
       <c r="D34" s="28"/>
@@ -2167,12 +2343,12 @@
       </c>
       <c r="L34" s="22">
         <f t="shared" ref="L34:L97" si="4">K34+L33</f>
-        <v>97.61</v>
-      </c>
-      <c r="M34" s="38"/>
-      <c r="N34" s="39"/>
-    </row>
-    <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M34" s="41"/>
+      <c r="N34" s="42"/>
+    </row>
+    <row r="35" spans="2:14" ht="15.75">
       <c r="B35" s="34"/>
       <c r="C35" s="7"/>
       <c r="D35" s="28"/>
@@ -2193,12 +2369,12 @@
       </c>
       <c r="L35" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M35" s="38"/>
-      <c r="N35" s="39"/>
-    </row>
-    <row r="36" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M35" s="41"/>
+      <c r="N35" s="42"/>
+    </row>
+    <row r="36" spans="2:14" ht="15.75">
       <c r="B36" s="34"/>
       <c r="C36" s="7"/>
       <c r="D36" s="28"/>
@@ -2219,12 +2395,12 @@
       </c>
       <c r="L36" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M36" s="38"/>
-      <c r="N36" s="39"/>
-    </row>
-    <row r="37" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M36" s="41"/>
+      <c r="N36" s="42"/>
+    </row>
+    <row r="37" spans="2:14" ht="15.75">
       <c r="B37" s="34"/>
       <c r="C37" s="7"/>
       <c r="D37" s="28"/>
@@ -2245,12 +2421,12 @@
       </c>
       <c r="L37" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M37" s="38"/>
-      <c r="N37" s="39"/>
-    </row>
-    <row r="38" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M37" s="41"/>
+      <c r="N37" s="42"/>
+    </row>
+    <row r="38" spans="2:14" ht="15.75">
       <c r="B38" s="34"/>
       <c r="C38" s="7"/>
       <c r="D38" s="28"/>
@@ -2271,12 +2447,12 @@
       </c>
       <c r="L38" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M38" s="38"/>
-      <c r="N38" s="39"/>
-    </row>
-    <row r="39" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M38" s="41"/>
+      <c r="N38" s="42"/>
+    </row>
+    <row r="39" spans="2:14" ht="15.75">
       <c r="B39" s="34"/>
       <c r="C39" s="7"/>
       <c r="D39" s="28"/>
@@ -2297,12 +2473,12 @@
       </c>
       <c r="L39" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M39" s="38"/>
-      <c r="N39" s="39"/>
-    </row>
-    <row r="40" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M39" s="41"/>
+      <c r="N39" s="42"/>
+    </row>
+    <row r="40" spans="2:14" ht="15.75">
       <c r="B40" s="34"/>
       <c r="C40" s="7"/>
       <c r="D40" s="28"/>
@@ -2323,12 +2499,12 @@
       </c>
       <c r="L40" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M40" s="38"/>
-      <c r="N40" s="39"/>
-    </row>
-    <row r="41" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M40" s="41"/>
+      <c r="N40" s="42"/>
+    </row>
+    <row r="41" spans="2:14" ht="15.75">
       <c r="B41" s="34"/>
       <c r="C41" s="7"/>
       <c r="D41" s="28"/>
@@ -2349,12 +2525,12 @@
       </c>
       <c r="L41" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M41" s="38"/>
-      <c r="N41" s="39"/>
-    </row>
-    <row r="42" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M41" s="41"/>
+      <c r="N41" s="42"/>
+    </row>
+    <row r="42" spans="2:14" ht="15.75">
       <c r="B42" s="34"/>
       <c r="C42" s="7"/>
       <c r="D42" s="28"/>
@@ -2375,12 +2551,12 @@
       </c>
       <c r="L42" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M42" s="38"/>
-      <c r="N42" s="39"/>
-    </row>
-    <row r="43" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M42" s="41"/>
+      <c r="N42" s="42"/>
+    </row>
+    <row r="43" spans="2:14" ht="15.75">
       <c r="B43" s="34"/>
       <c r="C43" s="7"/>
       <c r="D43" s="28"/>
@@ -2401,12 +2577,12 @@
       </c>
       <c r="L43" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M43" s="38"/>
-      <c r="N43" s="39"/>
-    </row>
-    <row r="44" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M43" s="41"/>
+      <c r="N43" s="42"/>
+    </row>
+    <row r="44" spans="2:14" ht="15.75">
       <c r="B44" s="34"/>
       <c r="C44" s="7"/>
       <c r="D44" s="28"/>
@@ -2427,12 +2603,12 @@
       </c>
       <c r="L44" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M44" s="38"/>
-      <c r="N44" s="39"/>
-    </row>
-    <row r="45" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M44" s="41"/>
+      <c r="N44" s="42"/>
+    </row>
+    <row r="45" spans="2:14" ht="15.75">
       <c r="B45" s="34"/>
       <c r="C45" s="7"/>
       <c r="D45" s="28"/>
@@ -2453,12 +2629,12 @@
       </c>
       <c r="L45" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M45" s="38"/>
-      <c r="N45" s="39"/>
-    </row>
-    <row r="46" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M45" s="41"/>
+      <c r="N45" s="42"/>
+    </row>
+    <row r="46" spans="2:14" ht="15.75">
       <c r="B46" s="34"/>
       <c r="C46" s="7"/>
       <c r="D46" s="28"/>
@@ -2479,12 +2655,12 @@
       </c>
       <c r="L46" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M46" s="38"/>
-      <c r="N46" s="39"/>
-    </row>
-    <row r="47" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M46" s="41"/>
+      <c r="N46" s="42"/>
+    </row>
+    <row r="47" spans="2:14" ht="15.75">
       <c r="B47" s="34"/>
       <c r="C47" s="7"/>
       <c r="D47" s="28"/>
@@ -2505,12 +2681,12 @@
       </c>
       <c r="L47" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M47" s="38"/>
-      <c r="N47" s="39"/>
-    </row>
-    <row r="48" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M47" s="41"/>
+      <c r="N47" s="42"/>
+    </row>
+    <row r="48" spans="2:14" ht="15.75">
       <c r="B48" s="34"/>
       <c r="C48" s="7"/>
       <c r="D48" s="28"/>
@@ -2531,12 +2707,12 @@
       </c>
       <c r="L48" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M48" s="38"/>
-      <c r="N48" s="39"/>
-    </row>
-    <row r="49" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M48" s="41"/>
+      <c r="N48" s="42"/>
+    </row>
+    <row r="49" spans="2:14" ht="15.75">
       <c r="B49" s="34"/>
       <c r="C49" s="7"/>
       <c r="D49" s="28"/>
@@ -2557,12 +2733,12 @@
       </c>
       <c r="L49" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M49" s="38"/>
-      <c r="N49" s="39"/>
-    </row>
-    <row r="50" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M49" s="41"/>
+      <c r="N49" s="42"/>
+    </row>
+    <row r="50" spans="2:14" ht="15.75">
       <c r="B50" s="34"/>
       <c r="C50" s="7"/>
       <c r="D50" s="28"/>
@@ -2583,12 +2759,12 @@
       </c>
       <c r="L50" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M50" s="38"/>
-      <c r="N50" s="39"/>
-    </row>
-    <row r="51" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M50" s="41"/>
+      <c r="N50" s="42"/>
+    </row>
+    <row r="51" spans="2:14" ht="15.75">
       <c r="B51" s="34"/>
       <c r="C51" s="7"/>
       <c r="D51" s="28"/>
@@ -2609,12 +2785,12 @@
       </c>
       <c r="L51" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M51" s="38"/>
-      <c r="N51" s="39"/>
-    </row>
-    <row r="52" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M51" s="41"/>
+      <c r="N51" s="42"/>
+    </row>
+    <row r="52" spans="2:14" ht="15.75">
       <c r="B52" s="34"/>
       <c r="C52" s="7"/>
       <c r="D52" s="28"/>
@@ -2635,12 +2811,12 @@
       </c>
       <c r="L52" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M52" s="38"/>
-      <c r="N52" s="39"/>
-    </row>
-    <row r="53" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M52" s="41"/>
+      <c r="N52" s="42"/>
+    </row>
+    <row r="53" spans="2:14" ht="15.75">
       <c r="B53" s="34"/>
       <c r="C53" s="7"/>
       <c r="D53" s="28"/>
@@ -2661,12 +2837,12 @@
       </c>
       <c r="L53" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M53" s="38"/>
-      <c r="N53" s="39"/>
-    </row>
-    <row r="54" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M53" s="41"/>
+      <c r="N53" s="42"/>
+    </row>
+    <row r="54" spans="2:14" ht="15.75">
       <c r="B54" s="34"/>
       <c r="C54" s="7"/>
       <c r="D54" s="28"/>
@@ -2687,12 +2863,12 @@
       </c>
       <c r="L54" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M54" s="38"/>
-      <c r="N54" s="39"/>
-    </row>
-    <row r="55" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M54" s="41"/>
+      <c r="N54" s="42"/>
+    </row>
+    <row r="55" spans="2:14" ht="15.75">
       <c r="B55" s="34"/>
       <c r="C55" s="7"/>
       <c r="D55" s="28"/>
@@ -2713,12 +2889,12 @@
       </c>
       <c r="L55" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M55" s="38"/>
-      <c r="N55" s="39"/>
-    </row>
-    <row r="56" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M55" s="41"/>
+      <c r="N55" s="42"/>
+    </row>
+    <row r="56" spans="2:14" ht="15.75">
       <c r="B56" s="34"/>
       <c r="C56" s="7"/>
       <c r="D56" s="28"/>
@@ -2739,12 +2915,12 @@
       </c>
       <c r="L56" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M56" s="38"/>
-      <c r="N56" s="39"/>
-    </row>
-    <row r="57" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M56" s="41"/>
+      <c r="N56" s="42"/>
+    </row>
+    <row r="57" spans="2:14" ht="15.75">
       <c r="B57" s="34"/>
       <c r="C57" s="7"/>
       <c r="D57" s="28"/>
@@ -2765,12 +2941,12 @@
       </c>
       <c r="L57" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M57" s="38"/>
-      <c r="N57" s="39"/>
-    </row>
-    <row r="58" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M57" s="41"/>
+      <c r="N57" s="42"/>
+    </row>
+    <row r="58" spans="2:14" ht="15.75">
       <c r="B58" s="34"/>
       <c r="C58" s="7"/>
       <c r="D58" s="28"/>
@@ -2791,12 +2967,12 @@
       </c>
       <c r="L58" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M58" s="38"/>
-      <c r="N58" s="39"/>
-    </row>
-    <row r="59" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M58" s="41"/>
+      <c r="N58" s="42"/>
+    </row>
+    <row r="59" spans="2:14" ht="15.75">
       <c r="B59" s="34"/>
       <c r="C59" s="7"/>
       <c r="D59" s="28"/>
@@ -2817,12 +2993,12 @@
       </c>
       <c r="L59" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M59" s="38"/>
-      <c r="N59" s="39"/>
-    </row>
-    <row r="60" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M59" s="41"/>
+      <c r="N59" s="42"/>
+    </row>
+    <row r="60" spans="2:14" ht="15.75">
       <c r="B60" s="34"/>
       <c r="C60" s="7"/>
       <c r="D60" s="28"/>
@@ -2843,12 +3019,12 @@
       </c>
       <c r="L60" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M60" s="38"/>
-      <c r="N60" s="39"/>
-    </row>
-    <row r="61" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M60" s="41"/>
+      <c r="N60" s="42"/>
+    </row>
+    <row r="61" spans="2:14" ht="15.75">
       <c r="B61" s="34"/>
       <c r="C61" s="7"/>
       <c r="D61" s="28"/>
@@ -2869,12 +3045,12 @@
       </c>
       <c r="L61" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M61" s="38"/>
-      <c r="N61" s="39"/>
-    </row>
-    <row r="62" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M61" s="41"/>
+      <c r="N61" s="42"/>
+    </row>
+    <row r="62" spans="2:14" ht="15.75">
       <c r="B62" s="34"/>
       <c r="C62" s="7"/>
       <c r="D62" s="28"/>
@@ -2895,12 +3071,12 @@
       </c>
       <c r="L62" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M62" s="38"/>
-      <c r="N62" s="39"/>
-    </row>
-    <row r="63" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M62" s="41"/>
+      <c r="N62" s="42"/>
+    </row>
+    <row r="63" spans="2:14" ht="15.75">
       <c r="B63" s="34"/>
       <c r="C63" s="7"/>
       <c r="D63" s="28"/>
@@ -2921,12 +3097,12 @@
       </c>
       <c r="L63" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M63" s="38"/>
-      <c r="N63" s="39"/>
-    </row>
-    <row r="64" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M63" s="41"/>
+      <c r="N63" s="42"/>
+    </row>
+    <row r="64" spans="2:14" ht="15.75">
       <c r="B64" s="34"/>
       <c r="C64" s="7"/>
       <c r="D64" s="28"/>
@@ -2947,12 +3123,12 @@
       </c>
       <c r="L64" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M64" s="38"/>
-      <c r="N64" s="39"/>
-    </row>
-    <row r="65" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M64" s="41"/>
+      <c r="N64" s="42"/>
+    </row>
+    <row r="65" spans="2:14" ht="15.75">
       <c r="B65" s="34"/>
       <c r="C65" s="7"/>
       <c r="D65" s="28"/>
@@ -2973,12 +3149,12 @@
       </c>
       <c r="L65" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M65" s="38"/>
-      <c r="N65" s="39"/>
-    </row>
-    <row r="66" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M65" s="41"/>
+      <c r="N65" s="42"/>
+    </row>
+    <row r="66" spans="2:14" ht="15.75">
       <c r="B66" s="34"/>
       <c r="C66" s="7"/>
       <c r="D66" s="28"/>
@@ -2999,12 +3175,12 @@
       </c>
       <c r="L66" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M66" s="38"/>
-      <c r="N66" s="39"/>
-    </row>
-    <row r="67" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M66" s="41"/>
+      <c r="N66" s="42"/>
+    </row>
+    <row r="67" spans="2:14" ht="15.75">
       <c r="B67" s="34"/>
       <c r="C67" s="7"/>
       <c r="D67" s="28"/>
@@ -3025,12 +3201,12 @@
       </c>
       <c r="L67" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M67" s="38"/>
-      <c r="N67" s="39"/>
-    </row>
-    <row r="68" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M67" s="41"/>
+      <c r="N67" s="42"/>
+    </row>
+    <row r="68" spans="2:14" ht="15.75">
       <c r="B68" s="34"/>
       <c r="C68" s="7"/>
       <c r="D68" s="28"/>
@@ -3051,12 +3227,12 @@
       </c>
       <c r="L68" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M68" s="38"/>
-      <c r="N68" s="39"/>
-    </row>
-    <row r="69" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M68" s="41"/>
+      <c r="N68" s="42"/>
+    </row>
+    <row r="69" spans="2:14" ht="15.75">
       <c r="B69" s="34"/>
       <c r="C69" s="7"/>
       <c r="D69" s="28"/>
@@ -3077,12 +3253,12 @@
       </c>
       <c r="L69" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M69" s="38"/>
-      <c r="N69" s="39"/>
-    </row>
-    <row r="70" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M69" s="41"/>
+      <c r="N69" s="42"/>
+    </row>
+    <row r="70" spans="2:14" ht="15.75">
       <c r="B70" s="34"/>
       <c r="C70" s="7"/>
       <c r="D70" s="28"/>
@@ -3103,12 +3279,12 @@
       </c>
       <c r="L70" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M70" s="38"/>
-      <c r="N70" s="39"/>
-    </row>
-    <row r="71" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M70" s="41"/>
+      <c r="N70" s="42"/>
+    </row>
+    <row r="71" spans="2:14" ht="15.75">
       <c r="B71" s="34"/>
       <c r="C71" s="7"/>
       <c r="D71" s="28"/>
@@ -3129,12 +3305,12 @@
       </c>
       <c r="L71" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M71" s="38"/>
-      <c r="N71" s="39"/>
-    </row>
-    <row r="72" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M71" s="41"/>
+      <c r="N71" s="42"/>
+    </row>
+    <row r="72" spans="2:14" ht="15.75">
       <c r="B72" s="34"/>
       <c r="C72" s="7"/>
       <c r="D72" s="28"/>
@@ -3155,12 +3331,12 @@
       </c>
       <c r="L72" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M72" s="38"/>
-      <c r="N72" s="39"/>
-    </row>
-    <row r="73" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M72" s="41"/>
+      <c r="N72" s="42"/>
+    </row>
+    <row r="73" spans="2:14" ht="15.75">
       <c r="B73" s="34"/>
       <c r="C73" s="7"/>
       <c r="D73" s="28"/>
@@ -3181,12 +3357,12 @@
       </c>
       <c r="L73" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M73" s="38"/>
-      <c r="N73" s="39"/>
-    </row>
-    <row r="74" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M73" s="41"/>
+      <c r="N73" s="42"/>
+    </row>
+    <row r="74" spans="2:14" ht="15.75">
       <c r="B74" s="34"/>
       <c r="C74" s="7"/>
       <c r="D74" s="28"/>
@@ -3207,12 +3383,12 @@
       </c>
       <c r="L74" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M74" s="38"/>
-      <c r="N74" s="39"/>
-    </row>
-    <row r="75" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M74" s="41"/>
+      <c r="N74" s="42"/>
+    </row>
+    <row r="75" spans="2:14" ht="15.75">
       <c r="B75" s="34"/>
       <c r="C75" s="7"/>
       <c r="D75" s="28"/>
@@ -3233,12 +3409,12 @@
       </c>
       <c r="L75" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M75" s="38"/>
-      <c r="N75" s="39"/>
-    </row>
-    <row r="76" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M75" s="41"/>
+      <c r="N75" s="42"/>
+    </row>
+    <row r="76" spans="2:14" ht="15.75">
       <c r="B76" s="34"/>
       <c r="C76" s="7"/>
       <c r="D76" s="28"/>
@@ -3259,12 +3435,12 @@
       </c>
       <c r="L76" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M76" s="38"/>
-      <c r="N76" s="39"/>
-    </row>
-    <row r="77" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M76" s="41"/>
+      <c r="N76" s="42"/>
+    </row>
+    <row r="77" spans="2:14" ht="15.75">
       <c r="B77" s="34"/>
       <c r="C77" s="7"/>
       <c r="D77" s="28"/>
@@ -3285,12 +3461,12 @@
       </c>
       <c r="L77" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M77" s="38"/>
-      <c r="N77" s="39"/>
-    </row>
-    <row r="78" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M77" s="41"/>
+      <c r="N77" s="42"/>
+    </row>
+    <row r="78" spans="2:14" ht="15.75">
       <c r="B78" s="34"/>
       <c r="C78" s="7"/>
       <c r="D78" s="28"/>
@@ -3311,12 +3487,12 @@
       </c>
       <c r="L78" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M78" s="38"/>
-      <c r="N78" s="39"/>
-    </row>
-    <row r="79" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M78" s="41"/>
+      <c r="N78" s="42"/>
+    </row>
+    <row r="79" spans="2:14" ht="15.75">
       <c r="B79" s="34"/>
       <c r="C79" s="7"/>
       <c r="D79" s="28"/>
@@ -3337,12 +3513,12 @@
       </c>
       <c r="L79" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M79" s="38"/>
-      <c r="N79" s="39"/>
-    </row>
-    <row r="80" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M79" s="41"/>
+      <c r="N79" s="42"/>
+    </row>
+    <row r="80" spans="2:14" ht="15.75">
       <c r="B80" s="34"/>
       <c r="C80" s="7"/>
       <c r="D80" s="28"/>
@@ -3363,12 +3539,12 @@
       </c>
       <c r="L80" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M80" s="38"/>
-      <c r="N80" s="39"/>
-    </row>
-    <row r="81" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M80" s="41"/>
+      <c r="N80" s="42"/>
+    </row>
+    <row r="81" spans="2:14" ht="15.75">
       <c r="B81" s="34"/>
       <c r="C81" s="7"/>
       <c r="D81" s="28"/>
@@ -3389,12 +3565,12 @@
       </c>
       <c r="L81" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M81" s="38"/>
-      <c r="N81" s="39"/>
-    </row>
-    <row r="82" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M81" s="41"/>
+      <c r="N81" s="42"/>
+    </row>
+    <row r="82" spans="2:14" ht="15.75">
       <c r="B82" s="34"/>
       <c r="C82" s="7"/>
       <c r="D82" s="28"/>
@@ -3415,12 +3591,12 @@
       </c>
       <c r="L82" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M82" s="38"/>
-      <c r="N82" s="39"/>
-    </row>
-    <row r="83" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M82" s="41"/>
+      <c r="N82" s="42"/>
+    </row>
+    <row r="83" spans="2:14" ht="15.75">
       <c r="B83" s="34"/>
       <c r="C83" s="7"/>
       <c r="D83" s="28"/>
@@ -3441,12 +3617,12 @@
       </c>
       <c r="L83" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M83" s="38"/>
-      <c r="N83" s="39"/>
-    </row>
-    <row r="84" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M83" s="41"/>
+      <c r="N83" s="42"/>
+    </row>
+    <row r="84" spans="2:14" ht="15.75">
       <c r="B84" s="34"/>
       <c r="C84" s="7"/>
       <c r="D84" s="28"/>
@@ -3467,12 +3643,12 @@
       </c>
       <c r="L84" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M84" s="38"/>
-      <c r="N84" s="39"/>
-    </row>
-    <row r="85" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M84" s="41"/>
+      <c r="N84" s="42"/>
+    </row>
+    <row r="85" spans="2:14" ht="15.75">
       <c r="B85" s="34"/>
       <c r="C85" s="7"/>
       <c r="D85" s="28"/>
@@ -3493,12 +3669,12 @@
       </c>
       <c r="L85" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M85" s="38"/>
-      <c r="N85" s="39"/>
-    </row>
-    <row r="86" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M85" s="41"/>
+      <c r="N85" s="42"/>
+    </row>
+    <row r="86" spans="2:14" ht="15.75">
       <c r="B86" s="34"/>
       <c r="C86" s="7"/>
       <c r="D86" s="28"/>
@@ -3519,12 +3695,12 @@
       </c>
       <c r="L86" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M86" s="38"/>
-      <c r="N86" s="39"/>
-    </row>
-    <row r="87" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M86" s="41"/>
+      <c r="N86" s="42"/>
+    </row>
+    <row r="87" spans="2:14" ht="15.75">
       <c r="B87" s="34"/>
       <c r="C87" s="7"/>
       <c r="D87" s="28"/>
@@ -3545,12 +3721,12 @@
       </c>
       <c r="L87" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M87" s="38"/>
-      <c r="N87" s="39"/>
-    </row>
-    <row r="88" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M87" s="41"/>
+      <c r="N87" s="42"/>
+    </row>
+    <row r="88" spans="2:14" ht="15.75">
       <c r="B88" s="34"/>
       <c r="C88" s="7"/>
       <c r="D88" s="28"/>
@@ -3571,12 +3747,12 @@
       </c>
       <c r="L88" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M88" s="38"/>
-      <c r="N88" s="39"/>
-    </row>
-    <row r="89" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M88" s="41"/>
+      <c r="N88" s="42"/>
+    </row>
+    <row r="89" spans="2:14" ht="15.75">
       <c r="B89" s="34"/>
       <c r="C89" s="7"/>
       <c r="D89" s="28"/>
@@ -3597,12 +3773,12 @@
       </c>
       <c r="L89" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M89" s="38"/>
-      <c r="N89" s="39"/>
-    </row>
-    <row r="90" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M89" s="41"/>
+      <c r="N89" s="42"/>
+    </row>
+    <row r="90" spans="2:14" ht="15.75">
       <c r="B90" s="34"/>
       <c r="C90" s="7"/>
       <c r="D90" s="28"/>
@@ -3623,12 +3799,12 @@
       </c>
       <c r="L90" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M90" s="38"/>
-      <c r="N90" s="39"/>
-    </row>
-    <row r="91" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M90" s="41"/>
+      <c r="N90" s="42"/>
+    </row>
+    <row r="91" spans="2:14" ht="15.75">
       <c r="B91" s="34"/>
       <c r="C91" s="7"/>
       <c r="D91" s="28"/>
@@ -3649,12 +3825,12 @@
       </c>
       <c r="L91" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M91" s="38"/>
-      <c r="N91" s="39"/>
-    </row>
-    <row r="92" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M91" s="41"/>
+      <c r="N91" s="42"/>
+    </row>
+    <row r="92" spans="2:14" ht="15.75">
       <c r="B92" s="34"/>
       <c r="C92" s="7"/>
       <c r="D92" s="28"/>
@@ -3675,12 +3851,12 @@
       </c>
       <c r="L92" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M92" s="38"/>
-      <c r="N92" s="39"/>
-    </row>
-    <row r="93" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M92" s="41"/>
+      <c r="N92" s="42"/>
+    </row>
+    <row r="93" spans="2:14" ht="15.75">
       <c r="B93" s="34"/>
       <c r="C93" s="7"/>
       <c r="D93" s="28"/>
@@ -3701,12 +3877,12 @@
       </c>
       <c r="L93" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M93" s="38"/>
-      <c r="N93" s="39"/>
-    </row>
-    <row r="94" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M93" s="41"/>
+      <c r="N93" s="42"/>
+    </row>
+    <row r="94" spans="2:14" ht="15.75">
       <c r="B94" s="34"/>
       <c r="C94" s="7"/>
       <c r="D94" s="28"/>
@@ -3727,12 +3903,12 @@
       </c>
       <c r="L94" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M94" s="38"/>
-      <c r="N94" s="39"/>
-    </row>
-    <row r="95" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M94" s="41"/>
+      <c r="N94" s="42"/>
+    </row>
+    <row r="95" spans="2:14" ht="15.75">
       <c r="B95" s="34"/>
       <c r="C95" s="7"/>
       <c r="D95" s="28"/>
@@ -3753,12 +3929,12 @@
       </c>
       <c r="L95" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M95" s="38"/>
-      <c r="N95" s="39"/>
-    </row>
-    <row r="96" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M95" s="41"/>
+      <c r="N95" s="42"/>
+    </row>
+    <row r="96" spans="2:14" ht="15.75">
       <c r="B96" s="34"/>
       <c r="C96" s="7"/>
       <c r="D96" s="28"/>
@@ -3779,12 +3955,12 @@
       </c>
       <c r="L96" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M96" s="38"/>
-      <c r="N96" s="39"/>
-    </row>
-    <row r="97" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M96" s="41"/>
+      <c r="N96" s="42"/>
+    </row>
+    <row r="97" spans="2:14" ht="15.75">
       <c r="B97" s="34"/>
       <c r="C97" s="7"/>
       <c r="D97" s="28"/>
@@ -3805,12 +3981,12 @@
       </c>
       <c r="L97" s="22">
         <f t="shared" si="4"/>
-        <v>97.61</v>
-      </c>
-      <c r="M97" s="38"/>
-      <c r="N97" s="39"/>
-    </row>
-    <row r="98" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M97" s="41"/>
+      <c r="N97" s="42"/>
+    </row>
+    <row r="98" spans="2:14" ht="15.75">
       <c r="B98" s="34"/>
       <c r="C98" s="7"/>
       <c r="D98" s="28"/>
@@ -3831,12 +4007,12 @@
       </c>
       <c r="L98" s="22">
         <f t="shared" ref="L98:L161" si="7">K98+L97</f>
-        <v>97.61</v>
-      </c>
-      <c r="M98" s="38"/>
-      <c r="N98" s="39"/>
-    </row>
-    <row r="99" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M98" s="41"/>
+      <c r="N98" s="42"/>
+    </row>
+    <row r="99" spans="2:14" ht="15.75">
       <c r="B99" s="34"/>
       <c r="C99" s="7"/>
       <c r="D99" s="28"/>
@@ -3857,12 +4033,12 @@
       </c>
       <c r="L99" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M99" s="38"/>
-      <c r="N99" s="39"/>
-    </row>
-    <row r="100" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M99" s="41"/>
+      <c r="N99" s="42"/>
+    </row>
+    <row r="100" spans="2:14" ht="15.75">
       <c r="B100" s="34"/>
       <c r="C100" s="7"/>
       <c r="D100" s="28"/>
@@ -3883,12 +4059,12 @@
       </c>
       <c r="L100" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M100" s="38"/>
-      <c r="N100" s="39"/>
-    </row>
-    <row r="101" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M100" s="41"/>
+      <c r="N100" s="42"/>
+    </row>
+    <row r="101" spans="2:14" ht="15.75">
       <c r="B101" s="34"/>
       <c r="C101" s="7"/>
       <c r="D101" s="28"/>
@@ -3909,12 +4085,12 @@
       </c>
       <c r="L101" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M101" s="38"/>
-      <c r="N101" s="39"/>
-    </row>
-    <row r="102" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M101" s="41"/>
+      <c r="N101" s="42"/>
+    </row>
+    <row r="102" spans="2:14" ht="15.75">
       <c r="B102" s="34"/>
       <c r="C102" s="7"/>
       <c r="D102" s="28"/>
@@ -3935,12 +4111,12 @@
       </c>
       <c r="L102" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M102" s="38"/>
-      <c r="N102" s="39"/>
-    </row>
-    <row r="103" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M102" s="41"/>
+      <c r="N102" s="42"/>
+    </row>
+    <row r="103" spans="2:14" ht="15.75">
       <c r="B103" s="34"/>
       <c r="C103" s="7"/>
       <c r="D103" s="28"/>
@@ -3961,12 +4137,12 @@
       </c>
       <c r="L103" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M103" s="38"/>
-      <c r="N103" s="39"/>
-    </row>
-    <row r="104" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M103" s="41"/>
+      <c r="N103" s="42"/>
+    </row>
+    <row r="104" spans="2:14" ht="15.75">
       <c r="B104" s="34"/>
       <c r="C104" s="7"/>
       <c r="D104" s="28"/>
@@ -3987,12 +4163,12 @@
       </c>
       <c r="L104" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M104" s="38"/>
-      <c r="N104" s="39"/>
-    </row>
-    <row r="105" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M104" s="41"/>
+      <c r="N104" s="42"/>
+    </row>
+    <row r="105" spans="2:14" ht="15.75">
       <c r="B105" s="34"/>
       <c r="C105" s="7"/>
       <c r="D105" s="28"/>
@@ -4013,12 +4189,12 @@
       </c>
       <c r="L105" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M105" s="38"/>
-      <c r="N105" s="39"/>
-    </row>
-    <row r="106" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M105" s="41"/>
+      <c r="N105" s="42"/>
+    </row>
+    <row r="106" spans="2:14" ht="15.75">
       <c r="B106" s="34"/>
       <c r="C106" s="7"/>
       <c r="D106" s="28"/>
@@ -4039,12 +4215,12 @@
       </c>
       <c r="L106" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M106" s="38"/>
-      <c r="N106" s="39"/>
-    </row>
-    <row r="107" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M106" s="41"/>
+      <c r="N106" s="42"/>
+    </row>
+    <row r="107" spans="2:14" ht="15.75">
       <c r="B107" s="34"/>
       <c r="C107" s="7"/>
       <c r="D107" s="28"/>
@@ -4065,12 +4241,12 @@
       </c>
       <c r="L107" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M107" s="38"/>
-      <c r="N107" s="39"/>
-    </row>
-    <row r="108" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M107" s="41"/>
+      <c r="N107" s="42"/>
+    </row>
+    <row r="108" spans="2:14" ht="15.75">
       <c r="B108" s="34"/>
       <c r="C108" s="7"/>
       <c r="D108" s="28"/>
@@ -4091,12 +4267,12 @@
       </c>
       <c r="L108" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M108" s="38"/>
-      <c r="N108" s="39"/>
-    </row>
-    <row r="109" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M108" s="41"/>
+      <c r="N108" s="42"/>
+    </row>
+    <row r="109" spans="2:14" ht="15.75">
       <c r="B109" s="34"/>
       <c r="C109" s="7"/>
       <c r="D109" s="28"/>
@@ -4117,12 +4293,12 @@
       </c>
       <c r="L109" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M109" s="38"/>
-      <c r="N109" s="39"/>
-    </row>
-    <row r="110" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M109" s="41"/>
+      <c r="N109" s="42"/>
+    </row>
+    <row r="110" spans="2:14" ht="15.75">
       <c r="B110" s="34"/>
       <c r="C110" s="7"/>
       <c r="D110" s="28"/>
@@ -4143,12 +4319,12 @@
       </c>
       <c r="L110" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M110" s="38"/>
-      <c r="N110" s="39"/>
-    </row>
-    <row r="111" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M110" s="41"/>
+      <c r="N110" s="42"/>
+    </row>
+    <row r="111" spans="2:14" ht="15.75">
       <c r="B111" s="34"/>
       <c r="C111" s="7"/>
       <c r="D111" s="28"/>
@@ -4169,12 +4345,12 @@
       </c>
       <c r="L111" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M111" s="38"/>
-      <c r="N111" s="39"/>
-    </row>
-    <row r="112" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M111" s="41"/>
+      <c r="N111" s="42"/>
+    </row>
+    <row r="112" spans="2:14" ht="15.75">
       <c r="B112" s="34"/>
       <c r="C112" s="7"/>
       <c r="D112" s="28"/>
@@ -4195,12 +4371,12 @@
       </c>
       <c r="L112" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M112" s="38"/>
-      <c r="N112" s="39"/>
-    </row>
-    <row r="113" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M112" s="41"/>
+      <c r="N112" s="42"/>
+    </row>
+    <row r="113" spans="2:14" ht="15.75">
       <c r="B113" s="34"/>
       <c r="C113" s="7"/>
       <c r="D113" s="28"/>
@@ -4221,12 +4397,12 @@
       </c>
       <c r="L113" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M113" s="38"/>
-      <c r="N113" s="39"/>
-    </row>
-    <row r="114" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M113" s="41"/>
+      <c r="N113" s="42"/>
+    </row>
+    <row r="114" spans="2:14" ht="15.75">
       <c r="B114" s="34"/>
       <c r="C114" s="7"/>
       <c r="D114" s="28"/>
@@ -4247,12 +4423,12 @@
       </c>
       <c r="L114" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M114" s="38"/>
-      <c r="N114" s="39"/>
-    </row>
-    <row r="115" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M114" s="41"/>
+      <c r="N114" s="42"/>
+    </row>
+    <row r="115" spans="2:14" ht="15.75">
       <c r="B115" s="34"/>
       <c r="C115" s="7"/>
       <c r="D115" s="28"/>
@@ -4273,12 +4449,12 @@
       </c>
       <c r="L115" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M115" s="38"/>
-      <c r="N115" s="39"/>
-    </row>
-    <row r="116" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M115" s="41"/>
+      <c r="N115" s="42"/>
+    </row>
+    <row r="116" spans="2:14" ht="15.75">
       <c r="B116" s="34"/>
       <c r="C116" s="7"/>
       <c r="D116" s="28"/>
@@ -4299,12 +4475,12 @@
       </c>
       <c r="L116" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M116" s="38"/>
-      <c r="N116" s="39"/>
-    </row>
-    <row r="117" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M116" s="41"/>
+      <c r="N116" s="42"/>
+    </row>
+    <row r="117" spans="2:14" ht="15.75">
       <c r="B117" s="34"/>
       <c r="C117" s="7"/>
       <c r="D117" s="28"/>
@@ -4325,12 +4501,12 @@
       </c>
       <c r="L117" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M117" s="38"/>
-      <c r="N117" s="39"/>
-    </row>
-    <row r="118" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M117" s="41"/>
+      <c r="N117" s="42"/>
+    </row>
+    <row r="118" spans="2:14" ht="15.75">
       <c r="B118" s="34"/>
       <c r="C118" s="7"/>
       <c r="D118" s="28"/>
@@ -4351,12 +4527,12 @@
       </c>
       <c r="L118" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M118" s="38"/>
-      <c r="N118" s="39"/>
-    </row>
-    <row r="119" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M118" s="41"/>
+      <c r="N118" s="42"/>
+    </row>
+    <row r="119" spans="2:14" ht="15.75">
       <c r="B119" s="34"/>
       <c r="C119" s="7"/>
       <c r="D119" s="28"/>
@@ -4377,12 +4553,12 @@
       </c>
       <c r="L119" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M119" s="38"/>
-      <c r="N119" s="39"/>
-    </row>
-    <row r="120" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M119" s="41"/>
+      <c r="N119" s="42"/>
+    </row>
+    <row r="120" spans="2:14" ht="15.75">
       <c r="B120" s="34"/>
       <c r="C120" s="7"/>
       <c r="D120" s="28"/>
@@ -4403,12 +4579,12 @@
       </c>
       <c r="L120" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M120" s="38"/>
-      <c r="N120" s="39"/>
-    </row>
-    <row r="121" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M120" s="41"/>
+      <c r="N120" s="42"/>
+    </row>
+    <row r="121" spans="2:14" ht="15.75">
       <c r="B121" s="34"/>
       <c r="C121" s="7"/>
       <c r="D121" s="28"/>
@@ -4429,12 +4605,12 @@
       </c>
       <c r="L121" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M121" s="38"/>
-      <c r="N121" s="39"/>
-    </row>
-    <row r="122" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M121" s="41"/>
+      <c r="N121" s="42"/>
+    </row>
+    <row r="122" spans="2:14" ht="15.75">
       <c r="B122" s="34"/>
       <c r="C122" s="7"/>
       <c r="D122" s="28"/>
@@ -4455,12 +4631,12 @@
       </c>
       <c r="L122" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M122" s="38"/>
-      <c r="N122" s="39"/>
-    </row>
-    <row r="123" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M122" s="41"/>
+      <c r="N122" s="42"/>
+    </row>
+    <row r="123" spans="2:14" ht="15.75">
       <c r="B123" s="34"/>
       <c r="C123" s="7"/>
       <c r="D123" s="28"/>
@@ -4481,12 +4657,12 @@
       </c>
       <c r="L123" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M123" s="38"/>
-      <c r="N123" s="39"/>
-    </row>
-    <row r="124" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M123" s="41"/>
+      <c r="N123" s="42"/>
+    </row>
+    <row r="124" spans="2:14" ht="15.75">
       <c r="B124" s="34"/>
       <c r="C124" s="7"/>
       <c r="D124" s="28"/>
@@ -4507,12 +4683,12 @@
       </c>
       <c r="L124" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M124" s="38"/>
-      <c r="N124" s="39"/>
-    </row>
-    <row r="125" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M124" s="41"/>
+      <c r="N124" s="42"/>
+    </row>
+    <row r="125" spans="2:14" ht="15.75">
       <c r="B125" s="34"/>
       <c r="C125" s="7"/>
       <c r="D125" s="28"/>
@@ -4533,12 +4709,12 @@
       </c>
       <c r="L125" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M125" s="38"/>
-      <c r="N125" s="39"/>
-    </row>
-    <row r="126" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M125" s="41"/>
+      <c r="N125" s="42"/>
+    </row>
+    <row r="126" spans="2:14" ht="15.75">
       <c r="B126" s="34"/>
       <c r="C126" s="7"/>
       <c r="D126" s="28"/>
@@ -4559,12 +4735,12 @@
       </c>
       <c r="L126" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M126" s="38"/>
-      <c r="N126" s="39"/>
-    </row>
-    <row r="127" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M126" s="41"/>
+      <c r="N126" s="42"/>
+    </row>
+    <row r="127" spans="2:14" ht="15.75">
       <c r="B127" s="34"/>
       <c r="C127" s="7"/>
       <c r="D127" s="28"/>
@@ -4585,12 +4761,12 @@
       </c>
       <c r="L127" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M127" s="38"/>
-      <c r="N127" s="39"/>
-    </row>
-    <row r="128" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M127" s="41"/>
+      <c r="N127" s="42"/>
+    </row>
+    <row r="128" spans="2:14" ht="15.75">
       <c r="B128" s="34"/>
       <c r="C128" s="7"/>
       <c r="D128" s="28"/>
@@ -4611,12 +4787,12 @@
       </c>
       <c r="L128" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M128" s="38"/>
-      <c r="N128" s="39"/>
-    </row>
-    <row r="129" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M128" s="41"/>
+      <c r="N128" s="42"/>
+    </row>
+    <row r="129" spans="2:14" ht="15.75">
       <c r="B129" s="34"/>
       <c r="C129" s="7"/>
       <c r="D129" s="28"/>
@@ -4637,12 +4813,12 @@
       </c>
       <c r="L129" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M129" s="38"/>
-      <c r="N129" s="39"/>
-    </row>
-    <row r="130" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M129" s="41"/>
+      <c r="N129" s="42"/>
+    </row>
+    <row r="130" spans="2:14" ht="15.75">
       <c r="B130" s="34"/>
       <c r="C130" s="7"/>
       <c r="D130" s="28"/>
@@ -4663,12 +4839,12 @@
       </c>
       <c r="L130" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M130" s="38"/>
-      <c r="N130" s="39"/>
-    </row>
-    <row r="131" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M130" s="41"/>
+      <c r="N130" s="42"/>
+    </row>
+    <row r="131" spans="2:14" ht="15.75">
       <c r="B131" s="34"/>
       <c r="C131" s="7"/>
       <c r="D131" s="28"/>
@@ -4689,12 +4865,12 @@
       </c>
       <c r="L131" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M131" s="38"/>
-      <c r="N131" s="39"/>
-    </row>
-    <row r="132" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M131" s="41"/>
+      <c r="N131" s="42"/>
+    </row>
+    <row r="132" spans="2:14" ht="15.75">
       <c r="B132" s="34"/>
       <c r="C132" s="7"/>
       <c r="D132" s="28"/>
@@ -4715,12 +4891,12 @@
       </c>
       <c r="L132" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M132" s="38"/>
-      <c r="N132" s="39"/>
-    </row>
-    <row r="133" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M132" s="41"/>
+      <c r="N132" s="42"/>
+    </row>
+    <row r="133" spans="2:14" ht="15.75">
       <c r="B133" s="34"/>
       <c r="C133" s="7"/>
       <c r="D133" s="28"/>
@@ -4741,12 +4917,12 @@
       </c>
       <c r="L133" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M133" s="38"/>
-      <c r="N133" s="39"/>
-    </row>
-    <row r="134" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M133" s="41"/>
+      <c r="N133" s="42"/>
+    </row>
+    <row r="134" spans="2:14" ht="15.75">
       <c r="B134" s="34"/>
       <c r="C134" s="7"/>
       <c r="D134" s="28"/>
@@ -4767,12 +4943,12 @@
       </c>
       <c r="L134" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M134" s="38"/>
-      <c r="N134" s="39"/>
-    </row>
-    <row r="135" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M134" s="41"/>
+      <c r="N134" s="42"/>
+    </row>
+    <row r="135" spans="2:14" ht="15.75">
       <c r="B135" s="34"/>
       <c r="C135" s="7"/>
       <c r="D135" s="28"/>
@@ -4793,12 +4969,12 @@
       </c>
       <c r="L135" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M135" s="38"/>
-      <c r="N135" s="39"/>
-    </row>
-    <row r="136" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M135" s="41"/>
+      <c r="N135" s="42"/>
+    </row>
+    <row r="136" spans="2:14" ht="15.75">
       <c r="B136" s="34"/>
       <c r="C136" s="7"/>
       <c r="D136" s="28"/>
@@ -4819,12 +4995,12 @@
       </c>
       <c r="L136" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M136" s="38"/>
-      <c r="N136" s="39"/>
-    </row>
-    <row r="137" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M136" s="41"/>
+      <c r="N136" s="42"/>
+    </row>
+    <row r="137" spans="2:14" ht="15.75">
       <c r="B137" s="34"/>
       <c r="C137" s="7"/>
       <c r="D137" s="28"/>
@@ -4845,12 +5021,12 @@
       </c>
       <c r="L137" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M137" s="38"/>
-      <c r="N137" s="39"/>
-    </row>
-    <row r="138" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M137" s="41"/>
+      <c r="N137" s="42"/>
+    </row>
+    <row r="138" spans="2:14" ht="15.75">
       <c r="B138" s="34"/>
       <c r="C138" s="7"/>
       <c r="D138" s="28"/>
@@ -4871,12 +5047,12 @@
       </c>
       <c r="L138" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M138" s="38"/>
-      <c r="N138" s="39"/>
-    </row>
-    <row r="139" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M138" s="41"/>
+      <c r="N138" s="42"/>
+    </row>
+    <row r="139" spans="2:14" ht="15.75">
       <c r="B139" s="34"/>
       <c r="C139" s="7"/>
       <c r="D139" s="28"/>
@@ -4897,12 +5073,12 @@
       </c>
       <c r="L139" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M139" s="38"/>
-      <c r="N139" s="39"/>
-    </row>
-    <row r="140" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M139" s="41"/>
+      <c r="N139" s="42"/>
+    </row>
+    <row r="140" spans="2:14" ht="15.75">
       <c r="B140" s="34"/>
       <c r="C140" s="7"/>
       <c r="D140" s="28"/>
@@ -4923,12 +5099,12 @@
       </c>
       <c r="L140" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M140" s="38"/>
-      <c r="N140" s="39"/>
-    </row>
-    <row r="141" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M140" s="41"/>
+      <c r="N140" s="42"/>
+    </row>
+    <row r="141" spans="2:14" ht="15.75">
       <c r="B141" s="34"/>
       <c r="C141" s="7"/>
       <c r="D141" s="28"/>
@@ -4949,12 +5125,12 @@
       </c>
       <c r="L141" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M141" s="38"/>
-      <c r="N141" s="39"/>
-    </row>
-    <row r="142" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M141" s="41"/>
+      <c r="N141" s="42"/>
+    </row>
+    <row r="142" spans="2:14" ht="15.75">
       <c r="B142" s="34"/>
       <c r="C142" s="7"/>
       <c r="D142" s="28"/>
@@ -4975,12 +5151,12 @@
       </c>
       <c r="L142" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M142" s="38"/>
-      <c r="N142" s="39"/>
-    </row>
-    <row r="143" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M142" s="41"/>
+      <c r="N142" s="42"/>
+    </row>
+    <row r="143" spans="2:14" ht="15.75">
       <c r="B143" s="34"/>
       <c r="C143" s="7"/>
       <c r="D143" s="28"/>
@@ -5001,12 +5177,12 @@
       </c>
       <c r="L143" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M143" s="38"/>
-      <c r="N143" s="39"/>
-    </row>
-    <row r="144" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M143" s="41"/>
+      <c r="N143" s="42"/>
+    </row>
+    <row r="144" spans="2:14" ht="15.75">
       <c r="B144" s="34"/>
       <c r="C144" s="7"/>
       <c r="D144" s="28"/>
@@ -5027,12 +5203,12 @@
       </c>
       <c r="L144" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M144" s="38"/>
-      <c r="N144" s="39"/>
-    </row>
-    <row r="145" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M144" s="41"/>
+      <c r="N144" s="42"/>
+    </row>
+    <row r="145" spans="2:14" ht="15.75">
       <c r="B145" s="34"/>
       <c r="C145" s="7"/>
       <c r="D145" s="28"/>
@@ -5053,12 +5229,12 @@
       </c>
       <c r="L145" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M145" s="38"/>
-      <c r="N145" s="39"/>
-    </row>
-    <row r="146" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M145" s="41"/>
+      <c r="N145" s="42"/>
+    </row>
+    <row r="146" spans="2:14" ht="15.75">
       <c r="B146" s="34"/>
       <c r="C146" s="7"/>
       <c r="D146" s="28"/>
@@ -5079,12 +5255,12 @@
       </c>
       <c r="L146" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M146" s="38"/>
-      <c r="N146" s="39"/>
-    </row>
-    <row r="147" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M146" s="41"/>
+      <c r="N146" s="42"/>
+    </row>
+    <row r="147" spans="2:14" ht="15.75">
       <c r="B147" s="34"/>
       <c r="C147" s="7"/>
       <c r="D147" s="28"/>
@@ -5105,12 +5281,12 @@
       </c>
       <c r="L147" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M147" s="38"/>
-      <c r="N147" s="39"/>
-    </row>
-    <row r="148" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M147" s="41"/>
+      <c r="N147" s="42"/>
+    </row>
+    <row r="148" spans="2:14" ht="15.75">
       <c r="B148" s="34"/>
       <c r="C148" s="7"/>
       <c r="D148" s="28"/>
@@ -5131,12 +5307,12 @@
       </c>
       <c r="L148" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M148" s="38"/>
-      <c r="N148" s="39"/>
-    </row>
-    <row r="149" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M148" s="41"/>
+      <c r="N148" s="42"/>
+    </row>
+    <row r="149" spans="2:14" ht="15.75">
       <c r="B149" s="34"/>
       <c r="C149" s="7"/>
       <c r="D149" s="28"/>
@@ -5157,12 +5333,12 @@
       </c>
       <c r="L149" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M149" s="38"/>
-      <c r="N149" s="39"/>
-    </row>
-    <row r="150" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M149" s="41"/>
+      <c r="N149" s="42"/>
+    </row>
+    <row r="150" spans="2:14" ht="15.75">
       <c r="B150" s="34"/>
       <c r="C150" s="7"/>
       <c r="D150" s="28"/>
@@ -5183,12 +5359,12 @@
       </c>
       <c r="L150" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M150" s="38"/>
-      <c r="N150" s="39"/>
-    </row>
-    <row r="151" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M150" s="41"/>
+      <c r="N150" s="42"/>
+    </row>
+    <row r="151" spans="2:14" ht="15.75">
       <c r="B151" s="34"/>
       <c r="C151" s="7"/>
       <c r="D151" s="28"/>
@@ -5209,12 +5385,12 @@
       </c>
       <c r="L151" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M151" s="38"/>
-      <c r="N151" s="39"/>
-    </row>
-    <row r="152" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M151" s="41"/>
+      <c r="N151" s="42"/>
+    </row>
+    <row r="152" spans="2:14" ht="15.75">
       <c r="B152" s="34"/>
       <c r="C152" s="7"/>
       <c r="D152" s="28"/>
@@ -5235,12 +5411,12 @@
       </c>
       <c r="L152" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M152" s="38"/>
-      <c r="N152" s="39"/>
-    </row>
-    <row r="153" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M152" s="41"/>
+      <c r="N152" s="42"/>
+    </row>
+    <row r="153" spans="2:14" ht="15.75">
       <c r="B153" s="34"/>
       <c r="C153" s="7"/>
       <c r="D153" s="28"/>
@@ -5261,12 +5437,12 @@
       </c>
       <c r="L153" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M153" s="38"/>
-      <c r="N153" s="39"/>
-    </row>
-    <row r="154" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M153" s="41"/>
+      <c r="N153" s="42"/>
+    </row>
+    <row r="154" spans="2:14" ht="15.75">
       <c r="B154" s="34"/>
       <c r="C154" s="7"/>
       <c r="D154" s="28"/>
@@ -5287,12 +5463,12 @@
       </c>
       <c r="L154" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M154" s="38"/>
-      <c r="N154" s="39"/>
-    </row>
-    <row r="155" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M154" s="41"/>
+      <c r="N154" s="42"/>
+    </row>
+    <row r="155" spans="2:14" ht="15.75">
       <c r="B155" s="34"/>
       <c r="C155" s="7"/>
       <c r="D155" s="28"/>
@@ -5313,12 +5489,12 @@
       </c>
       <c r="L155" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M155" s="38"/>
-      <c r="N155" s="39"/>
-    </row>
-    <row r="156" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M155" s="41"/>
+      <c r="N155" s="42"/>
+    </row>
+    <row r="156" spans="2:14" ht="15.75">
       <c r="B156" s="34"/>
       <c r="C156" s="7"/>
       <c r="D156" s="28"/>
@@ -5339,12 +5515,12 @@
       </c>
       <c r="L156" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M156" s="38"/>
-      <c r="N156" s="39"/>
-    </row>
-    <row r="157" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M156" s="41"/>
+      <c r="N156" s="42"/>
+    </row>
+    <row r="157" spans="2:14" ht="15.75">
       <c r="B157" s="34"/>
       <c r="C157" s="7"/>
       <c r="D157" s="28"/>
@@ -5365,12 +5541,12 @@
       </c>
       <c r="L157" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M157" s="38"/>
-      <c r="N157" s="39"/>
-    </row>
-    <row r="158" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M157" s="41"/>
+      <c r="N157" s="42"/>
+    </row>
+    <row r="158" spans="2:14" ht="15.75">
       <c r="B158" s="34"/>
       <c r="C158" s="7"/>
       <c r="D158" s="28"/>
@@ -5391,12 +5567,12 @@
       </c>
       <c r="L158" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M158" s="38"/>
-      <c r="N158" s="39"/>
-    </row>
-    <row r="159" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M158" s="41"/>
+      <c r="N158" s="42"/>
+    </row>
+    <row r="159" spans="2:14" ht="15.75">
       <c r="B159" s="34"/>
       <c r="C159" s="7"/>
       <c r="D159" s="28"/>
@@ -5417,12 +5593,12 @@
       </c>
       <c r="L159" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M159" s="38"/>
-      <c r="N159" s="39"/>
-    </row>
-    <row r="160" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M159" s="41"/>
+      <c r="N159" s="42"/>
+    </row>
+    <row r="160" spans="2:14" ht="15.75">
       <c r="B160" s="34"/>
       <c r="C160" s="7"/>
       <c r="D160" s="28"/>
@@ -5443,12 +5619,12 @@
       </c>
       <c r="L160" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M160" s="38"/>
-      <c r="N160" s="39"/>
-    </row>
-    <row r="161" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M160" s="41"/>
+      <c r="N160" s="42"/>
+    </row>
+    <row r="161" spans="2:14" ht="15.75">
       <c r="B161" s="34"/>
       <c r="C161" s="7"/>
       <c r="D161" s="28"/>
@@ -5469,12 +5645,12 @@
       </c>
       <c r="L161" s="22">
         <f t="shared" si="7"/>
-        <v>97.61</v>
-      </c>
-      <c r="M161" s="38"/>
-      <c r="N161" s="39"/>
-    </row>
-    <row r="162" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M161" s="41"/>
+      <c r="N161" s="42"/>
+    </row>
+    <row r="162" spans="2:14" ht="15.75">
       <c r="B162" s="34"/>
       <c r="C162" s="7"/>
       <c r="D162" s="28"/>
@@ -5495,12 +5671,12 @@
       </c>
       <c r="L162" s="22">
         <f t="shared" ref="L162:L198" si="10">K162+L161</f>
-        <v>97.61</v>
-      </c>
-      <c r="M162" s="38"/>
-      <c r="N162" s="39"/>
-    </row>
-    <row r="163" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M162" s="41"/>
+      <c r="N162" s="42"/>
+    </row>
+    <row r="163" spans="2:14" ht="15.75">
       <c r="B163" s="34"/>
       <c r="C163" s="7"/>
       <c r="D163" s="28"/>
@@ -5521,12 +5697,12 @@
       </c>
       <c r="L163" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M163" s="38"/>
-      <c r="N163" s="39"/>
-    </row>
-    <row r="164" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M163" s="41"/>
+      <c r="N163" s="42"/>
+    </row>
+    <row r="164" spans="2:14" ht="15.75">
       <c r="B164" s="34"/>
       <c r="C164" s="7"/>
       <c r="D164" s="28"/>
@@ -5547,12 +5723,12 @@
       </c>
       <c r="L164" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M164" s="38"/>
-      <c r="N164" s="39"/>
-    </row>
-    <row r="165" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M164" s="41"/>
+      <c r="N164" s="42"/>
+    </row>
+    <row r="165" spans="2:14" ht="15.75">
       <c r="B165" s="34"/>
       <c r="C165" s="7"/>
       <c r="D165" s="28"/>
@@ -5573,12 +5749,12 @@
       </c>
       <c r="L165" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M165" s="38"/>
-      <c r="N165" s="39"/>
-    </row>
-    <row r="166" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M165" s="41"/>
+      <c r="N165" s="42"/>
+    </row>
+    <row r="166" spans="2:14" ht="15.75">
       <c r="B166" s="34"/>
       <c r="C166" s="7"/>
       <c r="D166" s="28"/>
@@ -5599,12 +5775,12 @@
       </c>
       <c r="L166" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M166" s="38"/>
-      <c r="N166" s="39"/>
-    </row>
-    <row r="167" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M166" s="41"/>
+      <c r="N166" s="42"/>
+    </row>
+    <row r="167" spans="2:14" ht="15.75">
       <c r="B167" s="34"/>
       <c r="C167" s="7"/>
       <c r="D167" s="28"/>
@@ -5625,12 +5801,12 @@
       </c>
       <c r="L167" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M167" s="38"/>
-      <c r="N167" s="39"/>
-    </row>
-    <row r="168" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M167" s="41"/>
+      <c r="N167" s="42"/>
+    </row>
+    <row r="168" spans="2:14" ht="15.75">
       <c r="B168" s="34"/>
       <c r="C168" s="7"/>
       <c r="D168" s="28"/>
@@ -5651,12 +5827,12 @@
       </c>
       <c r="L168" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M168" s="38"/>
-      <c r="N168" s="39"/>
-    </row>
-    <row r="169" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M168" s="41"/>
+      <c r="N168" s="42"/>
+    </row>
+    <row r="169" spans="2:14" ht="15.75">
       <c r="B169" s="34"/>
       <c r="C169" s="7"/>
       <c r="D169" s="28"/>
@@ -5677,12 +5853,12 @@
       </c>
       <c r="L169" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M169" s="38"/>
-      <c r="N169" s="39"/>
-    </row>
-    <row r="170" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M169" s="41"/>
+      <c r="N169" s="42"/>
+    </row>
+    <row r="170" spans="2:14" ht="15.75">
       <c r="B170" s="34"/>
       <c r="C170" s="7"/>
       <c r="D170" s="28"/>
@@ -5703,12 +5879,12 @@
       </c>
       <c r="L170" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M170" s="38"/>
-      <c r="N170" s="39"/>
-    </row>
-    <row r="171" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M170" s="41"/>
+      <c r="N170" s="42"/>
+    </row>
+    <row r="171" spans="2:14" ht="15.75">
       <c r="B171" s="34"/>
       <c r="C171" s="7"/>
       <c r="D171" s="28"/>
@@ -5729,12 +5905,12 @@
       </c>
       <c r="L171" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M171" s="38"/>
-      <c r="N171" s="39"/>
-    </row>
-    <row r="172" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M171" s="41"/>
+      <c r="N171" s="42"/>
+    </row>
+    <row r="172" spans="2:14" ht="15.75">
       <c r="B172" s="34"/>
       <c r="C172" s="7"/>
       <c r="D172" s="28"/>
@@ -5755,12 +5931,12 @@
       </c>
       <c r="L172" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M172" s="38"/>
-      <c r="N172" s="39"/>
-    </row>
-    <row r="173" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M172" s="41"/>
+      <c r="N172" s="42"/>
+    </row>
+    <row r="173" spans="2:14" ht="15.75">
       <c r="B173" s="34"/>
       <c r="C173" s="7"/>
       <c r="D173" s="28"/>
@@ -5781,12 +5957,12 @@
       </c>
       <c r="L173" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M173" s="38"/>
-      <c r="N173" s="39"/>
-    </row>
-    <row r="174" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M173" s="41"/>
+      <c r="N173" s="42"/>
+    </row>
+    <row r="174" spans="2:14" ht="15.75">
       <c r="B174" s="34"/>
       <c r="C174" s="7"/>
       <c r="D174" s="28"/>
@@ -5807,12 +5983,12 @@
       </c>
       <c r="L174" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M174" s="38"/>
-      <c r="N174" s="39"/>
-    </row>
-    <row r="175" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M174" s="41"/>
+      <c r="N174" s="42"/>
+    </row>
+    <row r="175" spans="2:14" ht="15.75">
       <c r="B175" s="34"/>
       <c r="C175" s="7"/>
       <c r="D175" s="28"/>
@@ -5833,12 +6009,12 @@
       </c>
       <c r="L175" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M175" s="38"/>
-      <c r="N175" s="39"/>
-    </row>
-    <row r="176" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M175" s="41"/>
+      <c r="N175" s="42"/>
+    </row>
+    <row r="176" spans="2:14" ht="15.75">
       <c r="B176" s="34"/>
       <c r="C176" s="7"/>
       <c r="D176" s="28"/>
@@ -5859,12 +6035,12 @@
       </c>
       <c r="L176" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M176" s="38"/>
-      <c r="N176" s="39"/>
-    </row>
-    <row r="177" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M176" s="41"/>
+      <c r="N176" s="42"/>
+    </row>
+    <row r="177" spans="2:14" ht="15.75">
       <c r="B177" s="34"/>
       <c r="C177" s="7"/>
       <c r="D177" s="28"/>
@@ -5885,12 +6061,12 @@
       </c>
       <c r="L177" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M177" s="38"/>
-      <c r="N177" s="39"/>
-    </row>
-    <row r="178" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M177" s="41"/>
+      <c r="N177" s="42"/>
+    </row>
+    <row r="178" spans="2:14" ht="15.75">
       <c r="B178" s="34"/>
       <c r="C178" s="7"/>
       <c r="D178" s="28"/>
@@ -5911,12 +6087,12 @@
       </c>
       <c r="L178" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M178" s="38"/>
-      <c r="N178" s="39"/>
-    </row>
-    <row r="179" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M178" s="41"/>
+      <c r="N178" s="42"/>
+    </row>
+    <row r="179" spans="2:14" ht="15.75">
       <c r="B179" s="34"/>
       <c r="C179" s="7"/>
       <c r="D179" s="28"/>
@@ -5937,12 +6113,12 @@
       </c>
       <c r="L179" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M179" s="38"/>
-      <c r="N179" s="39"/>
-    </row>
-    <row r="180" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M179" s="41"/>
+      <c r="N179" s="42"/>
+    </row>
+    <row r="180" spans="2:14" ht="15.75">
       <c r="B180" s="34"/>
       <c r="C180" s="7"/>
       <c r="D180" s="28"/>
@@ -5963,12 +6139,12 @@
       </c>
       <c r="L180" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M180" s="38"/>
-      <c r="N180" s="39"/>
-    </row>
-    <row r="181" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M180" s="41"/>
+      <c r="N180" s="42"/>
+    </row>
+    <row r="181" spans="2:14" ht="15.75">
       <c r="B181" s="34"/>
       <c r="C181" s="7"/>
       <c r="D181" s="28"/>
@@ -5989,12 +6165,12 @@
       </c>
       <c r="L181" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M181" s="38"/>
-      <c r="N181" s="39"/>
-    </row>
-    <row r="182" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M181" s="41"/>
+      <c r="N181" s="42"/>
+    </row>
+    <row r="182" spans="2:14" ht="15.75">
       <c r="B182" s="34"/>
       <c r="C182" s="7"/>
       <c r="D182" s="28"/>
@@ -6015,12 +6191,12 @@
       </c>
       <c r="L182" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M182" s="38"/>
-      <c r="N182" s="39"/>
-    </row>
-    <row r="183" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M182" s="41"/>
+      <c r="N182" s="42"/>
+    </row>
+    <row r="183" spans="2:14" ht="15.75">
       <c r="B183" s="34"/>
       <c r="C183" s="7"/>
       <c r="D183" s="28"/>
@@ -6041,12 +6217,12 @@
       </c>
       <c r="L183" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M183" s="38"/>
-      <c r="N183" s="39"/>
-    </row>
-    <row r="184" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M183" s="41"/>
+      <c r="N183" s="42"/>
+    </row>
+    <row r="184" spans="2:14" ht="15.75">
       <c r="B184" s="34"/>
       <c r="C184" s="7"/>
       <c r="D184" s="28"/>
@@ -6067,12 +6243,12 @@
       </c>
       <c r="L184" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M184" s="38"/>
-      <c r="N184" s="39"/>
-    </row>
-    <row r="185" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M184" s="41"/>
+      <c r="N184" s="42"/>
+    </row>
+    <row r="185" spans="2:14" ht="15.75">
       <c r="B185" s="34"/>
       <c r="C185" s="7"/>
       <c r="D185" s="28"/>
@@ -6093,12 +6269,12 @@
       </c>
       <c r="L185" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M185" s="38"/>
-      <c r="N185" s="39"/>
-    </row>
-    <row r="186" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M185" s="41"/>
+      <c r="N185" s="42"/>
+    </row>
+    <row r="186" spans="2:14" ht="15.75">
       <c r="B186" s="34"/>
       <c r="C186" s="7"/>
       <c r="D186" s="28"/>
@@ -6119,12 +6295,12 @@
       </c>
       <c r="L186" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M186" s="38"/>
-      <c r="N186" s="39"/>
-    </row>
-    <row r="187" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M186" s="41"/>
+      <c r="N186" s="42"/>
+    </row>
+    <row r="187" spans="2:14" ht="15.75">
       <c r="B187" s="34"/>
       <c r="C187" s="7"/>
       <c r="D187" s="28"/>
@@ -6145,12 +6321,12 @@
       </c>
       <c r="L187" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M187" s="38"/>
-      <c r="N187" s="39"/>
-    </row>
-    <row r="188" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M187" s="41"/>
+      <c r="N187" s="42"/>
+    </row>
+    <row r="188" spans="2:14" ht="15.75">
       <c r="B188" s="34"/>
       <c r="C188" s="7"/>
       <c r="D188" s="28"/>
@@ -6171,12 +6347,12 @@
       </c>
       <c r="L188" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M188" s="38"/>
-      <c r="N188" s="39"/>
-    </row>
-    <row r="189" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M188" s="41"/>
+      <c r="N188" s="42"/>
+    </row>
+    <row r="189" spans="2:14" ht="15.75">
       <c r="B189" s="34"/>
       <c r="C189" s="7"/>
       <c r="D189" s="28"/>
@@ -6197,12 +6373,12 @@
       </c>
       <c r="L189" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M189" s="38"/>
-      <c r="N189" s="39"/>
-    </row>
-    <row r="190" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M189" s="41"/>
+      <c r="N189" s="42"/>
+    </row>
+    <row r="190" spans="2:14" ht="15.75">
       <c r="B190" s="34"/>
       <c r="C190" s="7"/>
       <c r="D190" s="28"/>
@@ -6223,12 +6399,12 @@
       </c>
       <c r="L190" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M190" s="38"/>
-      <c r="N190" s="39"/>
-    </row>
-    <row r="191" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M190" s="41"/>
+      <c r="N190" s="42"/>
+    </row>
+    <row r="191" spans="2:14" ht="15.75">
       <c r="B191" s="34"/>
       <c r="C191" s="7"/>
       <c r="D191" s="28"/>
@@ -6249,12 +6425,12 @@
       </c>
       <c r="L191" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M191" s="38"/>
-      <c r="N191" s="39"/>
-    </row>
-    <row r="192" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M191" s="41"/>
+      <c r="N191" s="42"/>
+    </row>
+    <row r="192" spans="2:14" ht="15.75">
       <c r="B192" s="34"/>
       <c r="C192" s="7"/>
       <c r="D192" s="28"/>
@@ -6275,12 +6451,12 @@
       </c>
       <c r="L192" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M192" s="38"/>
-      <c r="N192" s="39"/>
-    </row>
-    <row r="193" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M192" s="41"/>
+      <c r="N192" s="42"/>
+    </row>
+    <row r="193" spans="2:14" ht="15.75">
       <c r="B193" s="34"/>
       <c r="C193" s="7"/>
       <c r="D193" s="28"/>
@@ -6301,12 +6477,12 @@
       </c>
       <c r="L193" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M193" s="38"/>
-      <c r="N193" s="39"/>
-    </row>
-    <row r="194" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M193" s="41"/>
+      <c r="N193" s="42"/>
+    </row>
+    <row r="194" spans="2:14" ht="15.75">
       <c r="B194" s="34"/>
       <c r="C194" s="7"/>
       <c r="D194" s="28"/>
@@ -6327,12 +6503,12 @@
       </c>
       <c r="L194" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M194" s="38"/>
-      <c r="N194" s="39"/>
-    </row>
-    <row r="195" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M194" s="41"/>
+      <c r="N194" s="42"/>
+    </row>
+    <row r="195" spans="2:14" ht="15.75">
       <c r="B195" s="34"/>
       <c r="C195" s="7"/>
       <c r="D195" s="28"/>
@@ -6353,12 +6529,12 @@
       </c>
       <c r="L195" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M195" s="38"/>
-      <c r="N195" s="39"/>
-    </row>
-    <row r="196" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M195" s="41"/>
+      <c r="N195" s="42"/>
+    </row>
+    <row r="196" spans="2:14" ht="15.75">
       <c r="B196" s="34"/>
       <c r="C196" s="7"/>
       <c r="D196" s="28"/>
@@ -6379,12 +6555,12 @@
       </c>
       <c r="L196" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M196" s="38"/>
-      <c r="N196" s="39"/>
-    </row>
-    <row r="197" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M196" s="41"/>
+      <c r="N196" s="42"/>
+    </row>
+    <row r="197" spans="2:14" ht="15.75">
       <c r="B197" s="34"/>
       <c r="C197" s="7"/>
       <c r="D197" s="28"/>
@@ -6405,12 +6581,12 @@
       </c>
       <c r="L197" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M197" s="38"/>
-      <c r="N197" s="39"/>
-    </row>
-    <row r="198" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97.51</v>
+      </c>
+      <c r="M197" s="41"/>
+      <c r="N197" s="42"/>
+    </row>
+    <row r="198" spans="2:14" ht="15.75">
       <c r="B198" s="34"/>
       <c r="C198" s="7"/>
       <c r="D198" s="28"/>
@@ -6431,25 +6607,172 @@
       </c>
       <c r="L198" s="22">
         <f t="shared" si="10"/>
-        <v>97.61</v>
-      </c>
-      <c r="M198" s="38"/>
-      <c r="N198" s="39"/>
+        <v>97.51</v>
+      </c>
+      <c r="M198" s="41"/>
+      <c r="N198" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="195">
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D2:I3"/>
-    <mergeCell ref="K2:N3"/>
+    <mergeCell ref="M195:N195"/>
+    <mergeCell ref="M196:N196"/>
+    <mergeCell ref="M197:N197"/>
+    <mergeCell ref="M198:N198"/>
+    <mergeCell ref="M190:N190"/>
+    <mergeCell ref="M191:N191"/>
+    <mergeCell ref="M192:N192"/>
+    <mergeCell ref="M193:N193"/>
+    <mergeCell ref="M194:N194"/>
+    <mergeCell ref="M185:N185"/>
+    <mergeCell ref="M186:N186"/>
+    <mergeCell ref="M187:N187"/>
+    <mergeCell ref="M188:N188"/>
+    <mergeCell ref="M189:N189"/>
+    <mergeCell ref="M180:N180"/>
+    <mergeCell ref="M181:N181"/>
+    <mergeCell ref="M182:N182"/>
+    <mergeCell ref="M183:N183"/>
+    <mergeCell ref="M184:N184"/>
+    <mergeCell ref="M175:N175"/>
+    <mergeCell ref="M176:N176"/>
+    <mergeCell ref="M177:N177"/>
+    <mergeCell ref="M178:N178"/>
+    <mergeCell ref="M179:N179"/>
+    <mergeCell ref="M170:N170"/>
+    <mergeCell ref="M171:N171"/>
+    <mergeCell ref="M172:N172"/>
+    <mergeCell ref="M173:N173"/>
+    <mergeCell ref="M174:N174"/>
+    <mergeCell ref="M165:N165"/>
+    <mergeCell ref="M166:N166"/>
+    <mergeCell ref="M167:N167"/>
+    <mergeCell ref="M168:N168"/>
+    <mergeCell ref="M169:N169"/>
+    <mergeCell ref="M160:N160"/>
+    <mergeCell ref="M161:N161"/>
+    <mergeCell ref="M162:N162"/>
+    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="M164:N164"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="M156:N156"/>
+    <mergeCell ref="M157:N157"/>
+    <mergeCell ref="M158:N158"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="M150:N150"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="M152:N152"/>
+    <mergeCell ref="M153:N153"/>
+    <mergeCell ref="M154:N154"/>
+    <mergeCell ref="M145:N145"/>
+    <mergeCell ref="M146:N146"/>
+    <mergeCell ref="M147:N147"/>
+    <mergeCell ref="M148:N148"/>
+    <mergeCell ref="M149:N149"/>
+    <mergeCell ref="M140:N140"/>
+    <mergeCell ref="M141:N141"/>
+    <mergeCell ref="M142:N142"/>
+    <mergeCell ref="M143:N143"/>
+    <mergeCell ref="M144:N144"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="M136:N136"/>
+    <mergeCell ref="M137:N137"/>
+    <mergeCell ref="M138:N138"/>
+    <mergeCell ref="M139:N139"/>
+    <mergeCell ref="M130:N130"/>
+    <mergeCell ref="M131:N131"/>
+    <mergeCell ref="M132:N132"/>
+    <mergeCell ref="M133:N133"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="M125:N125"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="M127:N127"/>
+    <mergeCell ref="M128:N128"/>
+    <mergeCell ref="M129:N129"/>
+    <mergeCell ref="M120:N120"/>
+    <mergeCell ref="M121:N121"/>
+    <mergeCell ref="M122:N122"/>
+    <mergeCell ref="M123:N123"/>
+    <mergeCell ref="M124:N124"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="M119:N119"/>
+    <mergeCell ref="M110:N110"/>
+    <mergeCell ref="M111:N111"/>
+    <mergeCell ref="M112:N112"/>
+    <mergeCell ref="M113:N113"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="M109:N109"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="M102:N102"/>
+    <mergeCell ref="M103:N103"/>
+    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
     <mergeCell ref="M35:N35"/>
     <mergeCell ref="M36:N36"/>
     <mergeCell ref="M37:N37"/>
@@ -6474,165 +6797,18 @@
     <mergeCell ref="M33:N33"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="M76:N76"/>
-    <mergeCell ref="M77:N77"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="M88:N88"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="M109:N109"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="M102:N102"/>
-    <mergeCell ref="M103:N103"/>
-    <mergeCell ref="M104:N104"/>
-    <mergeCell ref="M115:N115"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="M117:N117"/>
-    <mergeCell ref="M118:N118"/>
-    <mergeCell ref="M119:N119"/>
-    <mergeCell ref="M110:N110"/>
-    <mergeCell ref="M111:N111"/>
-    <mergeCell ref="M112:N112"/>
-    <mergeCell ref="M113:N113"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="M125:N125"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="M127:N127"/>
-    <mergeCell ref="M128:N128"/>
-    <mergeCell ref="M129:N129"/>
-    <mergeCell ref="M120:N120"/>
-    <mergeCell ref="M121:N121"/>
-    <mergeCell ref="M122:N122"/>
-    <mergeCell ref="M123:N123"/>
-    <mergeCell ref="M124:N124"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="M136:N136"/>
-    <mergeCell ref="M137:N137"/>
-    <mergeCell ref="M138:N138"/>
-    <mergeCell ref="M139:N139"/>
-    <mergeCell ref="M130:N130"/>
-    <mergeCell ref="M131:N131"/>
-    <mergeCell ref="M132:N132"/>
-    <mergeCell ref="M133:N133"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="M145:N145"/>
-    <mergeCell ref="M146:N146"/>
-    <mergeCell ref="M147:N147"/>
-    <mergeCell ref="M148:N148"/>
-    <mergeCell ref="M149:N149"/>
-    <mergeCell ref="M140:N140"/>
-    <mergeCell ref="M141:N141"/>
-    <mergeCell ref="M142:N142"/>
-    <mergeCell ref="M143:N143"/>
-    <mergeCell ref="M144:N144"/>
-    <mergeCell ref="M155:N155"/>
-    <mergeCell ref="M156:N156"/>
-    <mergeCell ref="M157:N157"/>
-    <mergeCell ref="M158:N158"/>
-    <mergeCell ref="M159:N159"/>
-    <mergeCell ref="M150:N150"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="M152:N152"/>
-    <mergeCell ref="M153:N153"/>
-    <mergeCell ref="M154:N154"/>
-    <mergeCell ref="M165:N165"/>
-    <mergeCell ref="M166:N166"/>
-    <mergeCell ref="M167:N167"/>
-    <mergeCell ref="M168:N168"/>
-    <mergeCell ref="M169:N169"/>
-    <mergeCell ref="M160:N160"/>
-    <mergeCell ref="M161:N161"/>
-    <mergeCell ref="M162:N162"/>
-    <mergeCell ref="M163:N163"/>
-    <mergeCell ref="M164:N164"/>
-    <mergeCell ref="M175:N175"/>
-    <mergeCell ref="M176:N176"/>
-    <mergeCell ref="M177:N177"/>
-    <mergeCell ref="M178:N178"/>
-    <mergeCell ref="M179:N179"/>
-    <mergeCell ref="M170:N170"/>
-    <mergeCell ref="M171:N171"/>
-    <mergeCell ref="M172:N172"/>
-    <mergeCell ref="M173:N173"/>
-    <mergeCell ref="M174:N174"/>
-    <mergeCell ref="M185:N185"/>
-    <mergeCell ref="M186:N186"/>
-    <mergeCell ref="M187:N187"/>
-    <mergeCell ref="M188:N188"/>
-    <mergeCell ref="M189:N189"/>
-    <mergeCell ref="M180:N180"/>
-    <mergeCell ref="M181:N181"/>
-    <mergeCell ref="M182:N182"/>
-    <mergeCell ref="M183:N183"/>
-    <mergeCell ref="M184:N184"/>
-    <mergeCell ref="M195:N195"/>
-    <mergeCell ref="M196:N196"/>
-    <mergeCell ref="M197:N197"/>
-    <mergeCell ref="M198:N198"/>
-    <mergeCell ref="M190:N190"/>
-    <mergeCell ref="M191:N191"/>
-    <mergeCell ref="M192:N192"/>
-    <mergeCell ref="M193:N193"/>
-    <mergeCell ref="M194:N194"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D2:I3"/>
+    <mergeCell ref="K2:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="J11:J198">
     <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="V">
@@ -6686,14 +6862,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736E031C-44BC-426E-9CD9-5118B4778D07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="4" customWidth="1"/>
@@ -6707,7 +6883,7 @@
     <col min="14" max="14" width="11.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1">
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -6715,47 +6891,47 @@
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="50" t="s">
+    <row r="2" spans="1:14" ht="15.75" thickTop="1">
+      <c r="B2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="44"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="51"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="44"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1">
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="53"/>
-    </row>
-    <row r="4" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="54" t="s">
+      <c r="K3" s="45"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="46"/>
+    </row>
+    <row r="4" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
+      <c r="B4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
@@ -6787,11 +6963,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="56" t="s">
+    <row r="5" spans="1:14" ht="20.25" thickTop="1" thickBot="1">
+      <c r="B5" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="57"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="33">
         <v>98.61</v>
       </c>
@@ -6832,41 +7008,41 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="40" t="s">
+    <row r="6" spans="1:14" ht="15.75" thickTop="1"/>
+    <row r="7" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="8" spans="1:14" ht="15.75" thickTop="1">
+      <c r="B8" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="42"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="45"/>
-    </row>
-    <row r="10" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="58"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1">
+      <c r="B9" s="59"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="61"/>
+    </row>
+    <row r="10" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
       <c r="B10" s="16" t="s">
         <v>1</v>
       </c>
@@ -6900,12 +7076,12 @@
       <c r="L10" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="46" t="s">
+      <c r="M10" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="47"/>
-    </row>
-    <row r="11" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N10" s="63"/>
+    </row>
+    <row r="11" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
       <c r="A11" s="30" t="s">
         <v>26</v>
       </c>
@@ -6933,10 +7109,10 @@
         <f>D5+K11</f>
         <v>98.61</v>
       </c>
-      <c r="M11" s="48"/>
-      <c r="N11" s="49"/>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="64"/>
+      <c r="N11" s="65"/>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" thickTop="1">
       <c r="B12" s="34"/>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
@@ -6959,10 +7135,10 @@
         <f>K12+L11</f>
         <v>98.61</v>
       </c>
-      <c r="M12" s="38"/>
-      <c r="N12" s="39"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M12" s="41"/>
+      <c r="N12" s="42"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75">
       <c r="B13" s="34"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
@@ -6985,10 +7161,10 @@
         <f t="shared" ref="L13:L76" si="2">K13+L12</f>
         <v>98.61</v>
       </c>
-      <c r="M13" s="38"/>
-      <c r="N13" s="39"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M13" s="41"/>
+      <c r="N13" s="42"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75">
       <c r="B14" s="35"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
@@ -7011,10 +7187,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M14" s="38"/>
-      <c r="N14" s="39"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M14" s="41"/>
+      <c r="N14" s="42"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75">
       <c r="B15" s="34"/>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
@@ -7037,10 +7213,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M15" s="38"/>
-      <c r="N15" s="39"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M15" s="41"/>
+      <c r="N15" s="42"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75">
       <c r="B16" s="34"/>
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
@@ -7063,10 +7239,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M16" s="38"/>
-      <c r="N16" s="39"/>
-    </row>
-    <row r="17" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M16" s="41"/>
+      <c r="N16" s="42"/>
+    </row>
+    <row r="17" spans="1:14" ht="16.5" thickBot="1">
       <c r="B17" s="34"/>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
@@ -7089,10 +7265,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M17" s="38"/>
-      <c r="N17" s="39"/>
-    </row>
-    <row r="18" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M17" s="41"/>
+      <c r="N17" s="42"/>
+    </row>
+    <row r="18" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
       <c r="A18" s="30" t="s">
         <v>27</v>
       </c>
@@ -7118,10 +7294,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M18" s="38"/>
-      <c r="N18" s="39"/>
-    </row>
-    <row r="19" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="41"/>
+      <c r="N18" s="42"/>
+    </row>
+    <row r="19" spans="1:14" ht="16.5" thickTop="1">
       <c r="B19" s="34"/>
       <c r="C19" s="26"/>
       <c r="D19" s="28"/>
@@ -7144,10 +7320,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M19" s="38"/>
-      <c r="N19" s="39"/>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M19" s="41"/>
+      <c r="N19" s="42"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75">
       <c r="B20" s="34"/>
       <c r="C20" s="26"/>
       <c r="D20" s="28"/>
@@ -7170,10 +7346,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M20" s="38"/>
-      <c r="N20" s="39"/>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M20" s="41"/>
+      <c r="N20" s="42"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75">
       <c r="B21" s="34"/>
       <c r="C21" s="26"/>
       <c r="D21" s="28"/>
@@ -7196,10 +7372,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M21" s="38"/>
-      <c r="N21" s="39"/>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M21" s="41"/>
+      <c r="N21" s="42"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75">
       <c r="B22" s="34"/>
       <c r="C22" s="26"/>
       <c r="D22" s="28"/>
@@ -7222,10 +7398,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M22" s="38"/>
-      <c r="N22" s="39"/>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M22" s="41"/>
+      <c r="N22" s="42"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75">
       <c r="B23" s="34"/>
       <c r="C23" s="26"/>
       <c r="D23" s="28"/>
@@ -7248,10 +7424,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M23" s="38"/>
-      <c r="N23" s="39"/>
-    </row>
-    <row r="24" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M23" s="41"/>
+      <c r="N23" s="42"/>
+    </row>
+    <row r="24" spans="1:14" ht="16.5" thickBot="1">
       <c r="B24" s="34"/>
       <c r="C24" s="26"/>
       <c r="D24" s="28"/>
@@ -7274,10 +7450,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M24" s="38"/>
-      <c r="N24" s="39"/>
-    </row>
-    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M24" s="41"/>
+      <c r="N24" s="42"/>
+    </row>
+    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
       <c r="A25" s="30" t="s">
         <v>28</v>
       </c>
@@ -7303,10 +7479,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M25" s="38"/>
-      <c r="N25" s="39"/>
-    </row>
-    <row r="26" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M25" s="41"/>
+      <c r="N25" s="42"/>
+    </row>
+    <row r="26" spans="1:14" ht="16.5" thickTop="1">
       <c r="B26" s="36"/>
       <c r="C26" s="26"/>
       <c r="D26" s="28"/>
@@ -7329,10 +7505,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M26" s="38"/>
-      <c r="N26" s="39"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M26" s="41"/>
+      <c r="N26" s="42"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75">
       <c r="B27" s="34"/>
       <c r="C27" s="26"/>
       <c r="D27" s="28"/>
@@ -7355,10 +7531,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M27" s="38"/>
-      <c r="N27" s="39"/>
-    </row>
-    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M27" s="41"/>
+      <c r="N27" s="42"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75">
       <c r="B28" s="34"/>
       <c r="C28" s="26"/>
       <c r="D28" s="28"/>
@@ -7381,10 +7557,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M28" s="38"/>
-      <c r="N28" s="39"/>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M28" s="41"/>
+      <c r="N28" s="42"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75">
       <c r="B29" s="34"/>
       <c r="C29" s="26"/>
       <c r="D29" s="28"/>
@@ -7407,10 +7583,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M29" s="38"/>
-      <c r="N29" s="39"/>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M29" s="41"/>
+      <c r="N29" s="42"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.75">
       <c r="B30" s="34"/>
       <c r="C30" s="26"/>
       <c r="D30" s="28"/>
@@ -7433,10 +7609,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M30" s="38"/>
-      <c r="N30" s="39"/>
-    </row>
-    <row r="31" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M30" s="41"/>
+      <c r="N30" s="42"/>
+    </row>
+    <row r="31" spans="1:14" ht="16.5" thickBot="1">
       <c r="B31" s="34"/>
       <c r="C31" s="26"/>
       <c r="D31" s="28"/>
@@ -7459,10 +7635,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M31" s="38"/>
-      <c r="N31" s="39"/>
-    </row>
-    <row r="32" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M31" s="41"/>
+      <c r="N31" s="42"/>
+    </row>
+    <row r="32" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
       <c r="A32" s="30" t="s">
         <v>29</v>
       </c>
@@ -7488,10 +7664,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M32" s="38"/>
-      <c r="N32" s="39"/>
-    </row>
-    <row r="33" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M32" s="41"/>
+      <c r="N32" s="42"/>
+    </row>
+    <row r="33" spans="2:14" ht="16.5" thickTop="1">
       <c r="B33" s="34"/>
       <c r="C33" s="26"/>
       <c r="D33" s="28"/>
@@ -7514,10 +7690,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M33" s="38"/>
-      <c r="N33" s="39"/>
-    </row>
-    <row r="34" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M33" s="41"/>
+      <c r="N33" s="42"/>
+    </row>
+    <row r="34" spans="2:14" ht="15.75">
       <c r="B34" s="34"/>
       <c r="C34" s="26"/>
       <c r="D34" s="28"/>
@@ -7540,10 +7716,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M34" s="38"/>
-      <c r="N34" s="39"/>
-    </row>
-    <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M34" s="41"/>
+      <c r="N34" s="42"/>
+    </row>
+    <row r="35" spans="2:14" ht="15.75">
       <c r="B35" s="34"/>
       <c r="C35" s="26"/>
       <c r="D35" s="28"/>
@@ -7566,10 +7742,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M35" s="38"/>
-      <c r="N35" s="39"/>
-    </row>
-    <row r="36" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M35" s="41"/>
+      <c r="N35" s="42"/>
+    </row>
+    <row r="36" spans="2:14" ht="15.75">
       <c r="B36" s="34"/>
       <c r="C36" s="26"/>
       <c r="D36" s="28"/>
@@ -7592,10 +7768,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M36" s="38"/>
-      <c r="N36" s="39"/>
-    </row>
-    <row r="37" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M36" s="41"/>
+      <c r="N36" s="42"/>
+    </row>
+    <row r="37" spans="2:14" ht="15.75">
       <c r="B37" s="34"/>
       <c r="C37" s="26"/>
       <c r="D37" s="28"/>
@@ -7618,10 +7794,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M37" s="38"/>
-      <c r="N37" s="39"/>
-    </row>
-    <row r="38" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M37" s="41"/>
+      <c r="N37" s="42"/>
+    </row>
+    <row r="38" spans="2:14" ht="15.75">
       <c r="B38" s="34"/>
       <c r="C38" s="26"/>
       <c r="D38" s="28"/>
@@ -7644,10 +7820,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M38" s="38"/>
-      <c r="N38" s="39"/>
-    </row>
-    <row r="39" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M38" s="41"/>
+      <c r="N38" s="42"/>
+    </row>
+    <row r="39" spans="2:14" ht="15.75">
       <c r="B39" s="34"/>
       <c r="C39" s="26"/>
       <c r="D39" s="28"/>
@@ -7670,10 +7846,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M39" s="38"/>
-      <c r="N39" s="39"/>
-    </row>
-    <row r="40" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M39" s="41"/>
+      <c r="N39" s="42"/>
+    </row>
+    <row r="40" spans="2:14" ht="15.75">
       <c r="B40" s="34"/>
       <c r="C40" s="26"/>
       <c r="D40" s="28"/>
@@ -7696,10 +7872,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M40" s="38"/>
-      <c r="N40" s="39"/>
-    </row>
-    <row r="41" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M40" s="41"/>
+      <c r="N40" s="42"/>
+    </row>
+    <row r="41" spans="2:14" ht="15.75">
       <c r="B41" s="34"/>
       <c r="C41" s="26"/>
       <c r="D41" s="28"/>
@@ -7722,10 +7898,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M41" s="38"/>
-      <c r="N41" s="39"/>
-    </row>
-    <row r="42" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M41" s="41"/>
+      <c r="N41" s="42"/>
+    </row>
+    <row r="42" spans="2:14" ht="15.75">
       <c r="B42" s="34"/>
       <c r="C42" s="26"/>
       <c r="D42" s="28"/>
@@ -7748,10 +7924,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M42" s="38"/>
-      <c r="N42" s="39"/>
-    </row>
-    <row r="43" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M42" s="41"/>
+      <c r="N42" s="42"/>
+    </row>
+    <row r="43" spans="2:14" ht="15.75">
       <c r="B43" s="34"/>
       <c r="C43" s="26"/>
       <c r="D43" s="28"/>
@@ -7774,10 +7950,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M43" s="38"/>
-      <c r="N43" s="39"/>
-    </row>
-    <row r="44" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M43" s="41"/>
+      <c r="N43" s="42"/>
+    </row>
+    <row r="44" spans="2:14" ht="15.75">
       <c r="B44" s="34"/>
       <c r="C44" s="26"/>
       <c r="D44" s="28"/>
@@ -7800,10 +7976,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M44" s="38"/>
-      <c r="N44" s="39"/>
-    </row>
-    <row r="45" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M44" s="41"/>
+      <c r="N44" s="42"/>
+    </row>
+    <row r="45" spans="2:14" ht="15.75">
       <c r="B45" s="34"/>
       <c r="C45" s="26"/>
       <c r="D45" s="28"/>
@@ -7826,10 +8002,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M45" s="38"/>
-      <c r="N45" s="39"/>
-    </row>
-    <row r="46" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M45" s="41"/>
+      <c r="N45" s="42"/>
+    </row>
+    <row r="46" spans="2:14" ht="15.75">
       <c r="B46" s="34"/>
       <c r="C46" s="26"/>
       <c r="D46" s="28"/>
@@ -7852,10 +8028,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M46" s="38"/>
-      <c r="N46" s="39"/>
-    </row>
-    <row r="47" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M46" s="41"/>
+      <c r="N46" s="42"/>
+    </row>
+    <row r="47" spans="2:14" ht="15.75">
       <c r="B47" s="34"/>
       <c r="C47" s="26"/>
       <c r="D47" s="28"/>
@@ -7878,10 +8054,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M47" s="38"/>
-      <c r="N47" s="39"/>
-    </row>
-    <row r="48" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M47" s="41"/>
+      <c r="N47" s="42"/>
+    </row>
+    <row r="48" spans="2:14" ht="15.75">
       <c r="B48" s="34"/>
       <c r="C48" s="26"/>
       <c r="D48" s="28"/>
@@ -7904,10 +8080,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M48" s="38"/>
-      <c r="N48" s="39"/>
-    </row>
-    <row r="49" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M48" s="41"/>
+      <c r="N48" s="42"/>
+    </row>
+    <row r="49" spans="2:14" ht="15.75">
       <c r="B49" s="34"/>
       <c r="C49" s="26"/>
       <c r="D49" s="28"/>
@@ -7930,10 +8106,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M49" s="38"/>
-      <c r="N49" s="39"/>
-    </row>
-    <row r="50" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M49" s="41"/>
+      <c r="N49" s="42"/>
+    </row>
+    <row r="50" spans="2:14" ht="15.75">
       <c r="B50" s="34"/>
       <c r="C50" s="26"/>
       <c r="D50" s="28"/>
@@ -7956,10 +8132,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M50" s="38"/>
-      <c r="N50" s="39"/>
-    </row>
-    <row r="51" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M50" s="41"/>
+      <c r="N50" s="42"/>
+    </row>
+    <row r="51" spans="2:14" ht="15.75">
       <c r="B51" s="34"/>
       <c r="C51" s="26"/>
       <c r="D51" s="28"/>
@@ -7982,10 +8158,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M51" s="38"/>
-      <c r="N51" s="39"/>
-    </row>
-    <row r="52" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M51" s="41"/>
+      <c r="N51" s="42"/>
+    </row>
+    <row r="52" spans="2:14" ht="15.75">
       <c r="B52" s="34"/>
       <c r="C52" s="26"/>
       <c r="D52" s="28"/>
@@ -8008,10 +8184,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M52" s="38"/>
-      <c r="N52" s="39"/>
-    </row>
-    <row r="53" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M52" s="41"/>
+      <c r="N52" s="42"/>
+    </row>
+    <row r="53" spans="2:14" ht="15.75">
       <c r="B53" s="34"/>
       <c r="C53" s="26"/>
       <c r="D53" s="28"/>
@@ -8034,10 +8210,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M53" s="38"/>
-      <c r="N53" s="39"/>
-    </row>
-    <row r="54" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M53" s="41"/>
+      <c r="N53" s="42"/>
+    </row>
+    <row r="54" spans="2:14" ht="15.75">
       <c r="B54" s="34"/>
       <c r="C54" s="26"/>
       <c r="D54" s="28"/>
@@ -8060,10 +8236,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M54" s="38"/>
-      <c r="N54" s="39"/>
-    </row>
-    <row r="55" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M54" s="41"/>
+      <c r="N54" s="42"/>
+    </row>
+    <row r="55" spans="2:14" ht="15.75">
       <c r="B55" s="34"/>
       <c r="C55" s="26"/>
       <c r="D55" s="28"/>
@@ -8086,10 +8262,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M55" s="38"/>
-      <c r="N55" s="39"/>
-    </row>
-    <row r="56" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M55" s="41"/>
+      <c r="N55" s="42"/>
+    </row>
+    <row r="56" spans="2:14" ht="15.75">
       <c r="B56" s="34"/>
       <c r="C56" s="26"/>
       <c r="D56" s="28"/>
@@ -8112,10 +8288,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M56" s="38"/>
-      <c r="N56" s="39"/>
-    </row>
-    <row r="57" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M56" s="41"/>
+      <c r="N56" s="42"/>
+    </row>
+    <row r="57" spans="2:14" ht="15.75">
       <c r="B57" s="34"/>
       <c r="C57" s="26"/>
       <c r="D57" s="28"/>
@@ -8138,10 +8314,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M57" s="38"/>
-      <c r="N57" s="39"/>
-    </row>
-    <row r="58" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M57" s="41"/>
+      <c r="N57" s="42"/>
+    </row>
+    <row r="58" spans="2:14" ht="15.75">
       <c r="B58" s="34"/>
       <c r="C58" s="26"/>
       <c r="D58" s="28"/>
@@ -8164,10 +8340,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M58" s="38"/>
-      <c r="N58" s="39"/>
-    </row>
-    <row r="59" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M58" s="41"/>
+      <c r="N58" s="42"/>
+    </row>
+    <row r="59" spans="2:14" ht="15.75">
       <c r="B59" s="34"/>
       <c r="C59" s="26"/>
       <c r="D59" s="28"/>
@@ -8190,10 +8366,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M59" s="38"/>
-      <c r="N59" s="39"/>
-    </row>
-    <row r="60" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M59" s="41"/>
+      <c r="N59" s="42"/>
+    </row>
+    <row r="60" spans="2:14" ht="15.75">
       <c r="B60" s="34"/>
       <c r="C60" s="26"/>
       <c r="D60" s="28"/>
@@ -8216,10 +8392,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M60" s="38"/>
-      <c r="N60" s="39"/>
-    </row>
-    <row r="61" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M60" s="41"/>
+      <c r="N60" s="42"/>
+    </row>
+    <row r="61" spans="2:14" ht="15.75">
       <c r="B61" s="34"/>
       <c r="C61" s="26"/>
       <c r="D61" s="28"/>
@@ -8242,10 +8418,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M61" s="38"/>
-      <c r="N61" s="39"/>
-    </row>
-    <row r="62" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M61" s="41"/>
+      <c r="N61" s="42"/>
+    </row>
+    <row r="62" spans="2:14" ht="15.75">
       <c r="B62" s="34"/>
       <c r="C62" s="26"/>
       <c r="D62" s="28"/>
@@ -8268,10 +8444,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M62" s="38"/>
-      <c r="N62" s="39"/>
-    </row>
-    <row r="63" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M62" s="41"/>
+      <c r="N62" s="42"/>
+    </row>
+    <row r="63" spans="2:14" ht="15.75">
       <c r="B63" s="34"/>
       <c r="C63" s="26"/>
       <c r="D63" s="28"/>
@@ -8294,10 +8470,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M63" s="38"/>
-      <c r="N63" s="39"/>
-    </row>
-    <row r="64" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M63" s="41"/>
+      <c r="N63" s="42"/>
+    </row>
+    <row r="64" spans="2:14" ht="15.75">
       <c r="B64" s="34"/>
       <c r="C64" s="26"/>
       <c r="D64" s="28"/>
@@ -8320,10 +8496,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M64" s="38"/>
-      <c r="N64" s="39"/>
-    </row>
-    <row r="65" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M64" s="41"/>
+      <c r="N64" s="42"/>
+    </row>
+    <row r="65" spans="2:14" ht="15.75">
       <c r="B65" s="34"/>
       <c r="C65" s="26"/>
       <c r="D65" s="28"/>
@@ -8346,10 +8522,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M65" s="38"/>
-      <c r="N65" s="39"/>
-    </row>
-    <row r="66" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M65" s="41"/>
+      <c r="N65" s="42"/>
+    </row>
+    <row r="66" spans="2:14" ht="15.75">
       <c r="B66" s="34"/>
       <c r="C66" s="26"/>
       <c r="D66" s="28"/>
@@ -8372,10 +8548,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M66" s="38"/>
-      <c r="N66" s="39"/>
-    </row>
-    <row r="67" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M66" s="41"/>
+      <c r="N66" s="42"/>
+    </row>
+    <row r="67" spans="2:14" ht="15.75">
       <c r="B67" s="34"/>
       <c r="C67" s="26"/>
       <c r="D67" s="28"/>
@@ -8398,10 +8574,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M67" s="38"/>
-      <c r="N67" s="39"/>
-    </row>
-    <row r="68" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M67" s="41"/>
+      <c r="N67" s="42"/>
+    </row>
+    <row r="68" spans="2:14" ht="15.75">
       <c r="B68" s="34"/>
       <c r="C68" s="26"/>
       <c r="D68" s="28"/>
@@ -8424,10 +8600,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M68" s="38"/>
-      <c r="N68" s="39"/>
-    </row>
-    <row r="69" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M68" s="41"/>
+      <c r="N68" s="42"/>
+    </row>
+    <row r="69" spans="2:14" ht="15.75">
       <c r="B69" s="34"/>
       <c r="C69" s="26"/>
       <c r="D69" s="28"/>
@@ -8450,10 +8626,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M69" s="38"/>
-      <c r="N69" s="39"/>
-    </row>
-    <row r="70" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M69" s="41"/>
+      <c r="N69" s="42"/>
+    </row>
+    <row r="70" spans="2:14" ht="15.75">
       <c r="B70" s="34"/>
       <c r="C70" s="26"/>
       <c r="D70" s="28"/>
@@ -8476,10 +8652,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M70" s="38"/>
-      <c r="N70" s="39"/>
-    </row>
-    <row r="71" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M70" s="41"/>
+      <c r="N70" s="42"/>
+    </row>
+    <row r="71" spans="2:14" ht="15.75">
       <c r="B71" s="34"/>
       <c r="C71" s="26"/>
       <c r="D71" s="28"/>
@@ -8502,10 +8678,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M71" s="38"/>
-      <c r="N71" s="39"/>
-    </row>
-    <row r="72" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M71" s="41"/>
+      <c r="N71" s="42"/>
+    </row>
+    <row r="72" spans="2:14" ht="15.75">
       <c r="B72" s="34"/>
       <c r="C72" s="26"/>
       <c r="D72" s="28"/>
@@ -8528,10 +8704,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M72" s="38"/>
-      <c r="N72" s="39"/>
-    </row>
-    <row r="73" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M72" s="41"/>
+      <c r="N72" s="42"/>
+    </row>
+    <row r="73" spans="2:14" ht="15.75">
       <c r="B73" s="34"/>
       <c r="C73" s="26"/>
       <c r="D73" s="28"/>
@@ -8554,10 +8730,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M73" s="38"/>
-      <c r="N73" s="39"/>
-    </row>
-    <row r="74" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M73" s="41"/>
+      <c r="N73" s="42"/>
+    </row>
+    <row r="74" spans="2:14" ht="15.75">
       <c r="B74" s="34"/>
       <c r="C74" s="26"/>
       <c r="D74" s="28"/>
@@ -8580,10 +8756,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M74" s="38"/>
-      <c r="N74" s="39"/>
-    </row>
-    <row r="75" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M74" s="41"/>
+      <c r="N74" s="42"/>
+    </row>
+    <row r="75" spans="2:14" ht="15.75">
       <c r="B75" s="34"/>
       <c r="C75" s="26"/>
       <c r="D75" s="28"/>
@@ -8606,10 +8782,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M75" s="38"/>
-      <c r="N75" s="39"/>
-    </row>
-    <row r="76" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M75" s="41"/>
+      <c r="N75" s="42"/>
+    </row>
+    <row r="76" spans="2:14" ht="15.75">
       <c r="B76" s="34"/>
       <c r="C76" s="26"/>
       <c r="D76" s="28"/>
@@ -8632,10 +8808,10 @@
         <f t="shared" si="2"/>
         <v>98.61</v>
       </c>
-      <c r="M76" s="38"/>
-      <c r="N76" s="39"/>
-    </row>
-    <row r="77" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M76" s="41"/>
+      <c r="N76" s="42"/>
+    </row>
+    <row r="77" spans="2:14" ht="15.75">
       <c r="B77" s="34"/>
       <c r="C77" s="26"/>
       <c r="D77" s="28"/>
@@ -8658,10 +8834,10 @@
         <f t="shared" ref="L77:L140" si="5">K77+L76</f>
         <v>98.61</v>
       </c>
-      <c r="M77" s="38"/>
-      <c r="N77" s="39"/>
-    </row>
-    <row r="78" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M77" s="41"/>
+      <c r="N77" s="42"/>
+    </row>
+    <row r="78" spans="2:14" ht="15.75">
       <c r="B78" s="34"/>
       <c r="C78" s="26"/>
       <c r="D78" s="28"/>
@@ -8684,10 +8860,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M78" s="38"/>
-      <c r="N78" s="39"/>
-    </row>
-    <row r="79" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M78" s="41"/>
+      <c r="N78" s="42"/>
+    </row>
+    <row r="79" spans="2:14" ht="15.75">
       <c r="B79" s="34"/>
       <c r="C79" s="26"/>
       <c r="D79" s="28"/>
@@ -8710,10 +8886,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M79" s="38"/>
-      <c r="N79" s="39"/>
-    </row>
-    <row r="80" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M79" s="41"/>
+      <c r="N79" s="42"/>
+    </row>
+    <row r="80" spans="2:14" ht="15.75">
       <c r="B80" s="34"/>
       <c r="C80" s="26"/>
       <c r="D80" s="28"/>
@@ -8736,10 +8912,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M80" s="38"/>
-      <c r="N80" s="39"/>
-    </row>
-    <row r="81" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M80" s="41"/>
+      <c r="N80" s="42"/>
+    </row>
+    <row r="81" spans="2:14" ht="15.75">
       <c r="B81" s="34"/>
       <c r="C81" s="26"/>
       <c r="D81" s="28"/>
@@ -8762,10 +8938,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M81" s="38"/>
-      <c r="N81" s="39"/>
-    </row>
-    <row r="82" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M81" s="41"/>
+      <c r="N81" s="42"/>
+    </row>
+    <row r="82" spans="2:14" ht="15.75">
       <c r="B82" s="34"/>
       <c r="C82" s="26"/>
       <c r="D82" s="28"/>
@@ -8788,10 +8964,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M82" s="38"/>
-      <c r="N82" s="39"/>
-    </row>
-    <row r="83" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M82" s="41"/>
+      <c r="N82" s="42"/>
+    </row>
+    <row r="83" spans="2:14" ht="15.75">
       <c r="B83" s="34"/>
       <c r="C83" s="26"/>
       <c r="D83" s="28"/>
@@ -8814,10 +8990,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M83" s="38"/>
-      <c r="N83" s="39"/>
-    </row>
-    <row r="84" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M83" s="41"/>
+      <c r="N83" s="42"/>
+    </row>
+    <row r="84" spans="2:14" ht="15.75">
       <c r="B84" s="34"/>
       <c r="C84" s="26"/>
       <c r="D84" s="28"/>
@@ -8840,10 +9016,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M84" s="38"/>
-      <c r="N84" s="39"/>
-    </row>
-    <row r="85" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M84" s="41"/>
+      <c r="N84" s="42"/>
+    </row>
+    <row r="85" spans="2:14" ht="15.75">
       <c r="B85" s="34"/>
       <c r="C85" s="26"/>
       <c r="D85" s="28"/>
@@ -8866,10 +9042,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M85" s="38"/>
-      <c r="N85" s="39"/>
-    </row>
-    <row r="86" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M85" s="41"/>
+      <c r="N85" s="42"/>
+    </row>
+    <row r="86" spans="2:14" ht="15.75">
       <c r="B86" s="34"/>
       <c r="C86" s="26"/>
       <c r="D86" s="28"/>
@@ -8892,10 +9068,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M86" s="38"/>
-      <c r="N86" s="39"/>
-    </row>
-    <row r="87" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M86" s="41"/>
+      <c r="N86" s="42"/>
+    </row>
+    <row r="87" spans="2:14" ht="15.75">
       <c r="B87" s="34"/>
       <c r="C87" s="26"/>
       <c r="D87" s="28"/>
@@ -8918,10 +9094,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M87" s="38"/>
-      <c r="N87" s="39"/>
-    </row>
-    <row r="88" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M87" s="41"/>
+      <c r="N87" s="42"/>
+    </row>
+    <row r="88" spans="2:14" ht="15.75">
       <c r="B88" s="34"/>
       <c r="C88" s="26"/>
       <c r="D88" s="28"/>
@@ -8944,10 +9120,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M88" s="38"/>
-      <c r="N88" s="39"/>
-    </row>
-    <row r="89" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M88" s="41"/>
+      <c r="N88" s="42"/>
+    </row>
+    <row r="89" spans="2:14" ht="15.75">
       <c r="B89" s="34"/>
       <c r="C89" s="26"/>
       <c r="D89" s="28"/>
@@ -8970,10 +9146,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M89" s="38"/>
-      <c r="N89" s="39"/>
-    </row>
-    <row r="90" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M89" s="41"/>
+      <c r="N89" s="42"/>
+    </row>
+    <row r="90" spans="2:14" ht="15.75">
       <c r="B90" s="34"/>
       <c r="C90" s="26"/>
       <c r="D90" s="28"/>
@@ -8996,10 +9172,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M90" s="38"/>
-      <c r="N90" s="39"/>
-    </row>
-    <row r="91" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M90" s="41"/>
+      <c r="N90" s="42"/>
+    </row>
+    <row r="91" spans="2:14" ht="15.75">
       <c r="B91" s="34"/>
       <c r="C91" s="26"/>
       <c r="D91" s="28"/>
@@ -9022,10 +9198,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M91" s="38"/>
-      <c r="N91" s="39"/>
-    </row>
-    <row r="92" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M91" s="41"/>
+      <c r="N91" s="42"/>
+    </row>
+    <row r="92" spans="2:14" ht="15.75">
       <c r="B92" s="34"/>
       <c r="C92" s="26"/>
       <c r="D92" s="28"/>
@@ -9048,10 +9224,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M92" s="38"/>
-      <c r="N92" s="39"/>
-    </row>
-    <row r="93" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M92" s="41"/>
+      <c r="N92" s="42"/>
+    </row>
+    <row r="93" spans="2:14" ht="15.75">
       <c r="B93" s="34"/>
       <c r="C93" s="26"/>
       <c r="D93" s="28"/>
@@ -9074,10 +9250,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M93" s="38"/>
-      <c r="N93" s="39"/>
-    </row>
-    <row r="94" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M93" s="41"/>
+      <c r="N93" s="42"/>
+    </row>
+    <row r="94" spans="2:14" ht="15.75">
       <c r="B94" s="34"/>
       <c r="C94" s="26"/>
       <c r="D94" s="28"/>
@@ -9100,10 +9276,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M94" s="38"/>
-      <c r="N94" s="39"/>
-    </row>
-    <row r="95" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M94" s="41"/>
+      <c r="N94" s="42"/>
+    </row>
+    <row r="95" spans="2:14" ht="15.75">
       <c r="B95" s="34"/>
       <c r="C95" s="26"/>
       <c r="D95" s="28"/>
@@ -9126,10 +9302,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M95" s="38"/>
-      <c r="N95" s="39"/>
-    </row>
-    <row r="96" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M95" s="41"/>
+      <c r="N95" s="42"/>
+    </row>
+    <row r="96" spans="2:14" ht="15.75">
       <c r="B96" s="34"/>
       <c r="C96" s="26"/>
       <c r="D96" s="28"/>
@@ -9152,10 +9328,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M96" s="38"/>
-      <c r="N96" s="39"/>
-    </row>
-    <row r="97" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M96" s="41"/>
+      <c r="N96" s="42"/>
+    </row>
+    <row r="97" spans="2:14" ht="15.75">
       <c r="B97" s="34"/>
       <c r="C97" s="26"/>
       <c r="D97" s="28"/>
@@ -9178,10 +9354,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M97" s="38"/>
-      <c r="N97" s="39"/>
-    </row>
-    <row r="98" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M97" s="41"/>
+      <c r="N97" s="42"/>
+    </row>
+    <row r="98" spans="2:14" ht="15.75">
       <c r="B98" s="34"/>
       <c r="C98" s="26"/>
       <c r="D98" s="28"/>
@@ -9204,10 +9380,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M98" s="38"/>
-      <c r="N98" s="39"/>
-    </row>
-    <row r="99" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M98" s="41"/>
+      <c r="N98" s="42"/>
+    </row>
+    <row r="99" spans="2:14" ht="15.75">
       <c r="B99" s="34"/>
       <c r="C99" s="26"/>
       <c r="D99" s="28"/>
@@ -9230,10 +9406,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M99" s="38"/>
-      <c r="N99" s="39"/>
-    </row>
-    <row r="100" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M99" s="41"/>
+      <c r="N99" s="42"/>
+    </row>
+    <row r="100" spans="2:14" ht="15.75">
       <c r="B100" s="34"/>
       <c r="C100" s="26"/>
       <c r="D100" s="28"/>
@@ -9256,10 +9432,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M100" s="38"/>
-      <c r="N100" s="39"/>
-    </row>
-    <row r="101" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M100" s="41"/>
+      <c r="N100" s="42"/>
+    </row>
+    <row r="101" spans="2:14" ht="15.75">
       <c r="B101" s="34"/>
       <c r="C101" s="26"/>
       <c r="D101" s="28"/>
@@ -9282,10 +9458,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M101" s="38"/>
-      <c r="N101" s="39"/>
-    </row>
-    <row r="102" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M101" s="41"/>
+      <c r="N101" s="42"/>
+    </row>
+    <row r="102" spans="2:14" ht="15.75">
       <c r="B102" s="34"/>
       <c r="C102" s="26"/>
       <c r="D102" s="28"/>
@@ -9308,10 +9484,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M102" s="38"/>
-      <c r="N102" s="39"/>
-    </row>
-    <row r="103" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M102" s="41"/>
+      <c r="N102" s="42"/>
+    </row>
+    <row r="103" spans="2:14" ht="15.75">
       <c r="B103" s="34"/>
       <c r="C103" s="26"/>
       <c r="D103" s="28"/>
@@ -9334,10 +9510,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M103" s="38"/>
-      <c r="N103" s="39"/>
-    </row>
-    <row r="104" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M103" s="41"/>
+      <c r="N103" s="42"/>
+    </row>
+    <row r="104" spans="2:14" ht="15.75">
       <c r="B104" s="34"/>
       <c r="C104" s="26"/>
       <c r="D104" s="28"/>
@@ -9360,10 +9536,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M104" s="38"/>
-      <c r="N104" s="39"/>
-    </row>
-    <row r="105" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M104" s="41"/>
+      <c r="N104" s="42"/>
+    </row>
+    <row r="105" spans="2:14" ht="15.75">
       <c r="B105" s="34"/>
       <c r="C105" s="26"/>
       <c r="D105" s="28"/>
@@ -9386,10 +9562,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M105" s="38"/>
-      <c r="N105" s="39"/>
-    </row>
-    <row r="106" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M105" s="41"/>
+      <c r="N105" s="42"/>
+    </row>
+    <row r="106" spans="2:14" ht="15.75">
       <c r="B106" s="34"/>
       <c r="C106" s="26"/>
       <c r="D106" s="28"/>
@@ -9412,10 +9588,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M106" s="38"/>
-      <c r="N106" s="39"/>
-    </row>
-    <row r="107" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M106" s="41"/>
+      <c r="N106" s="42"/>
+    </row>
+    <row r="107" spans="2:14" ht="15.75">
       <c r="B107" s="34"/>
       <c r="C107" s="26"/>
       <c r="D107" s="28"/>
@@ -9438,10 +9614,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M107" s="38"/>
-      <c r="N107" s="39"/>
-    </row>
-    <row r="108" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M107" s="41"/>
+      <c r="N107" s="42"/>
+    </row>
+    <row r="108" spans="2:14" ht="15.75">
       <c r="B108" s="34"/>
       <c r="C108" s="26"/>
       <c r="D108" s="28"/>
@@ -9464,10 +9640,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M108" s="38"/>
-      <c r="N108" s="39"/>
-    </row>
-    <row r="109" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M108" s="41"/>
+      <c r="N108" s="42"/>
+    </row>
+    <row r="109" spans="2:14" ht="15.75">
       <c r="B109" s="34"/>
       <c r="C109" s="26"/>
       <c r="D109" s="28"/>
@@ -9490,10 +9666,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M109" s="38"/>
-      <c r="N109" s="39"/>
-    </row>
-    <row r="110" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M109" s="41"/>
+      <c r="N109" s="42"/>
+    </row>
+    <row r="110" spans="2:14" ht="15.75">
       <c r="B110" s="34"/>
       <c r="C110" s="26"/>
       <c r="D110" s="28"/>
@@ -9516,10 +9692,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M110" s="38"/>
-      <c r="N110" s="39"/>
-    </row>
-    <row r="111" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M110" s="41"/>
+      <c r="N110" s="42"/>
+    </row>
+    <row r="111" spans="2:14" ht="15.75">
       <c r="B111" s="34"/>
       <c r="C111" s="26"/>
       <c r="D111" s="28"/>
@@ -9542,10 +9718,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M111" s="38"/>
-      <c r="N111" s="39"/>
-    </row>
-    <row r="112" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M111" s="41"/>
+      <c r="N111" s="42"/>
+    </row>
+    <row r="112" spans="2:14" ht="15.75">
       <c r="B112" s="34"/>
       <c r="C112" s="26"/>
       <c r="D112" s="28"/>
@@ -9568,10 +9744,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M112" s="38"/>
-      <c r="N112" s="39"/>
-    </row>
-    <row r="113" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M112" s="41"/>
+      <c r="N112" s="42"/>
+    </row>
+    <row r="113" spans="2:14" ht="15.75">
       <c r="B113" s="34"/>
       <c r="C113" s="26"/>
       <c r="D113" s="28"/>
@@ -9594,10 +9770,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M113" s="38"/>
-      <c r="N113" s="39"/>
-    </row>
-    <row r="114" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M113" s="41"/>
+      <c r="N113" s="42"/>
+    </row>
+    <row r="114" spans="2:14" ht="15.75">
       <c r="B114" s="34"/>
       <c r="C114" s="26"/>
       <c r="D114" s="28"/>
@@ -9620,10 +9796,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M114" s="38"/>
-      <c r="N114" s="39"/>
-    </row>
-    <row r="115" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M114" s="41"/>
+      <c r="N114" s="42"/>
+    </row>
+    <row r="115" spans="2:14" ht="15.75">
       <c r="B115" s="34"/>
       <c r="C115" s="26"/>
       <c r="D115" s="28"/>
@@ -9646,10 +9822,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M115" s="38"/>
-      <c r="N115" s="39"/>
-    </row>
-    <row r="116" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M115" s="41"/>
+      <c r="N115" s="42"/>
+    </row>
+    <row r="116" spans="2:14" ht="15.75">
       <c r="B116" s="34"/>
       <c r="C116" s="26"/>
       <c r="D116" s="28"/>
@@ -9672,10 +9848,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M116" s="38"/>
-      <c r="N116" s="39"/>
-    </row>
-    <row r="117" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M116" s="41"/>
+      <c r="N116" s="42"/>
+    </row>
+    <row r="117" spans="2:14" ht="15.75">
       <c r="B117" s="34"/>
       <c r="C117" s="26"/>
       <c r="D117" s="28"/>
@@ -9698,10 +9874,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M117" s="38"/>
-      <c r="N117" s="39"/>
-    </row>
-    <row r="118" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M117" s="41"/>
+      <c r="N117" s="42"/>
+    </row>
+    <row r="118" spans="2:14" ht="15.75">
       <c r="B118" s="34"/>
       <c r="C118" s="26"/>
       <c r="D118" s="28"/>
@@ -9724,10 +9900,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M118" s="38"/>
-      <c r="N118" s="39"/>
-    </row>
-    <row r="119" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M118" s="41"/>
+      <c r="N118" s="42"/>
+    </row>
+    <row r="119" spans="2:14" ht="15.75">
       <c r="B119" s="34"/>
       <c r="C119" s="26"/>
       <c r="D119" s="28"/>
@@ -9750,10 +9926,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M119" s="38"/>
-      <c r="N119" s="39"/>
-    </row>
-    <row r="120" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M119" s="41"/>
+      <c r="N119" s="42"/>
+    </row>
+    <row r="120" spans="2:14" ht="15.75">
       <c r="B120" s="34"/>
       <c r="C120" s="26"/>
       <c r="D120" s="28"/>
@@ -9776,10 +9952,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M120" s="38"/>
-      <c r="N120" s="39"/>
-    </row>
-    <row r="121" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M120" s="41"/>
+      <c r="N120" s="42"/>
+    </row>
+    <row r="121" spans="2:14" ht="15.75">
       <c r="B121" s="34"/>
       <c r="C121" s="26"/>
       <c r="D121" s="28"/>
@@ -9802,10 +9978,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M121" s="38"/>
-      <c r="N121" s="39"/>
-    </row>
-    <row r="122" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M121" s="41"/>
+      <c r="N121" s="42"/>
+    </row>
+    <row r="122" spans="2:14" ht="15.75">
       <c r="B122" s="34"/>
       <c r="C122" s="26"/>
       <c r="D122" s="28"/>
@@ -9828,10 +10004,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M122" s="38"/>
-      <c r="N122" s="39"/>
-    </row>
-    <row r="123" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M122" s="41"/>
+      <c r="N122" s="42"/>
+    </row>
+    <row r="123" spans="2:14" ht="15.75">
       <c r="B123" s="34"/>
       <c r="C123" s="26"/>
       <c r="D123" s="28"/>
@@ -9854,10 +10030,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M123" s="38"/>
-      <c r="N123" s="39"/>
-    </row>
-    <row r="124" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M123" s="41"/>
+      <c r="N123" s="42"/>
+    </row>
+    <row r="124" spans="2:14" ht="15.75">
       <c r="B124" s="34"/>
       <c r="C124" s="26"/>
       <c r="D124" s="28"/>
@@ -9880,10 +10056,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M124" s="38"/>
-      <c r="N124" s="39"/>
-    </row>
-    <row r="125" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M124" s="41"/>
+      <c r="N124" s="42"/>
+    </row>
+    <row r="125" spans="2:14" ht="15.75">
       <c r="B125" s="34"/>
       <c r="C125" s="26"/>
       <c r="D125" s="28"/>
@@ -9906,10 +10082,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M125" s="38"/>
-      <c r="N125" s="39"/>
-    </row>
-    <row r="126" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M125" s="41"/>
+      <c r="N125" s="42"/>
+    </row>
+    <row r="126" spans="2:14" ht="15.75">
       <c r="B126" s="34"/>
       <c r="C126" s="26"/>
       <c r="D126" s="28"/>
@@ -9932,10 +10108,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M126" s="38"/>
-      <c r="N126" s="39"/>
-    </row>
-    <row r="127" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M126" s="41"/>
+      <c r="N126" s="42"/>
+    </row>
+    <row r="127" spans="2:14" ht="15.75">
       <c r="B127" s="34"/>
       <c r="C127" s="26"/>
       <c r="D127" s="28"/>
@@ -9958,10 +10134,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M127" s="38"/>
-      <c r="N127" s="39"/>
-    </row>
-    <row r="128" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M127" s="41"/>
+      <c r="N127" s="42"/>
+    </row>
+    <row r="128" spans="2:14" ht="15.75">
       <c r="B128" s="34"/>
       <c r="C128" s="26"/>
       <c r="D128" s="28"/>
@@ -9984,10 +10160,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M128" s="38"/>
-      <c r="N128" s="39"/>
-    </row>
-    <row r="129" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M128" s="41"/>
+      <c r="N128" s="42"/>
+    </row>
+    <row r="129" spans="2:14" ht="15.75">
       <c r="B129" s="34"/>
       <c r="C129" s="26"/>
       <c r="D129" s="28"/>
@@ -10010,10 +10186,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M129" s="38"/>
-      <c r="N129" s="39"/>
-    </row>
-    <row r="130" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M129" s="41"/>
+      <c r="N129" s="42"/>
+    </row>
+    <row r="130" spans="2:14" ht="15.75">
       <c r="B130" s="34"/>
       <c r="C130" s="26"/>
       <c r="D130" s="28"/>
@@ -10036,10 +10212,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M130" s="38"/>
-      <c r="N130" s="39"/>
-    </row>
-    <row r="131" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M130" s="41"/>
+      <c r="N130" s="42"/>
+    </row>
+    <row r="131" spans="2:14" ht="15.75">
       <c r="B131" s="34"/>
       <c r="C131" s="26"/>
       <c r="D131" s="28"/>
@@ -10062,10 +10238,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M131" s="38"/>
-      <c r="N131" s="39"/>
-    </row>
-    <row r="132" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M131" s="41"/>
+      <c r="N131" s="42"/>
+    </row>
+    <row r="132" spans="2:14" ht="15.75">
       <c r="B132" s="34"/>
       <c r="C132" s="26"/>
       <c r="D132" s="28"/>
@@ -10088,10 +10264,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M132" s="38"/>
-      <c r="N132" s="39"/>
-    </row>
-    <row r="133" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M132" s="41"/>
+      <c r="N132" s="42"/>
+    </row>
+    <row r="133" spans="2:14" ht="15.75">
       <c r="B133" s="34"/>
       <c r="C133" s="26"/>
       <c r="D133" s="28"/>
@@ -10114,10 +10290,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M133" s="38"/>
-      <c r="N133" s="39"/>
-    </row>
-    <row r="134" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M133" s="41"/>
+      <c r="N133" s="42"/>
+    </row>
+    <row r="134" spans="2:14" ht="15.75">
       <c r="B134" s="34"/>
       <c r="C134" s="26"/>
       <c r="D134" s="28"/>
@@ -10140,10 +10316,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M134" s="38"/>
-      <c r="N134" s="39"/>
-    </row>
-    <row r="135" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M134" s="41"/>
+      <c r="N134" s="42"/>
+    </row>
+    <row r="135" spans="2:14" ht="15.75">
       <c r="B135" s="34"/>
       <c r="C135" s="26"/>
       <c r="D135" s="28"/>
@@ -10166,10 +10342,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M135" s="38"/>
-      <c r="N135" s="39"/>
-    </row>
-    <row r="136" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M135" s="41"/>
+      <c r="N135" s="42"/>
+    </row>
+    <row r="136" spans="2:14" ht="15.75">
       <c r="B136" s="34"/>
       <c r="C136" s="26"/>
       <c r="D136" s="28"/>
@@ -10192,10 +10368,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M136" s="38"/>
-      <c r="N136" s="39"/>
-    </row>
-    <row r="137" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M136" s="41"/>
+      <c r="N136" s="42"/>
+    </row>
+    <row r="137" spans="2:14" ht="15.75">
       <c r="B137" s="34"/>
       <c r="C137" s="26"/>
       <c r="D137" s="28"/>
@@ -10218,10 +10394,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M137" s="38"/>
-      <c r="N137" s="39"/>
-    </row>
-    <row r="138" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M137" s="41"/>
+      <c r="N137" s="42"/>
+    </row>
+    <row r="138" spans="2:14" ht="15.75">
       <c r="B138" s="34"/>
       <c r="C138" s="26"/>
       <c r="D138" s="28"/>
@@ -10244,10 +10420,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M138" s="38"/>
-      <c r="N138" s="39"/>
-    </row>
-    <row r="139" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M138" s="41"/>
+      <c r="N138" s="42"/>
+    </row>
+    <row r="139" spans="2:14" ht="15.75">
       <c r="B139" s="34"/>
       <c r="C139" s="26"/>
       <c r="D139" s="28"/>
@@ -10270,10 +10446,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M139" s="38"/>
-      <c r="N139" s="39"/>
-    </row>
-    <row r="140" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M139" s="41"/>
+      <c r="N139" s="42"/>
+    </row>
+    <row r="140" spans="2:14" ht="15.75">
       <c r="B140" s="34"/>
       <c r="C140" s="26"/>
       <c r="D140" s="28"/>
@@ -10296,10 +10472,10 @@
         <f t="shared" si="5"/>
         <v>98.61</v>
       </c>
-      <c r="M140" s="38"/>
-      <c r="N140" s="39"/>
-    </row>
-    <row r="141" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M140" s="41"/>
+      <c r="N140" s="42"/>
+    </row>
+    <row r="141" spans="2:14" ht="15.75">
       <c r="B141" s="34"/>
       <c r="C141" s="26"/>
       <c r="D141" s="28"/>
@@ -10322,10 +10498,10 @@
         <f t="shared" ref="L141:L198" si="8">K141+L140</f>
         <v>98.61</v>
       </c>
-      <c r="M141" s="38"/>
-      <c r="N141" s="39"/>
-    </row>
-    <row r="142" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M141" s="41"/>
+      <c r="N141" s="42"/>
+    </row>
+    <row r="142" spans="2:14" ht="15.75">
       <c r="B142" s="34"/>
       <c r="C142" s="26"/>
       <c r="D142" s="28"/>
@@ -10348,10 +10524,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M142" s="38"/>
-      <c r="N142" s="39"/>
-    </row>
-    <row r="143" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M142" s="41"/>
+      <c r="N142" s="42"/>
+    </row>
+    <row r="143" spans="2:14" ht="15.75">
       <c r="B143" s="34"/>
       <c r="C143" s="26"/>
       <c r="D143" s="28"/>
@@ -10374,10 +10550,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M143" s="38"/>
-      <c r="N143" s="39"/>
-    </row>
-    <row r="144" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M143" s="41"/>
+      <c r="N143" s="42"/>
+    </row>
+    <row r="144" spans="2:14" ht="15.75">
       <c r="B144" s="34"/>
       <c r="C144" s="26"/>
       <c r="D144" s="28"/>
@@ -10400,10 +10576,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M144" s="38"/>
-      <c r="N144" s="39"/>
-    </row>
-    <row r="145" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M144" s="41"/>
+      <c r="N144" s="42"/>
+    </row>
+    <row r="145" spans="2:14" ht="15.75">
       <c r="B145" s="34"/>
       <c r="C145" s="26"/>
       <c r="D145" s="28"/>
@@ -10426,10 +10602,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M145" s="38"/>
-      <c r="N145" s="39"/>
-    </row>
-    <row r="146" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M145" s="41"/>
+      <c r="N145" s="42"/>
+    </row>
+    <row r="146" spans="2:14" ht="15.75">
       <c r="B146" s="34"/>
       <c r="C146" s="26"/>
       <c r="D146" s="28"/>
@@ -10452,10 +10628,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M146" s="38"/>
-      <c r="N146" s="39"/>
-    </row>
-    <row r="147" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M146" s="41"/>
+      <c r="N146" s="42"/>
+    </row>
+    <row r="147" spans="2:14" ht="15.75">
       <c r="B147" s="34"/>
       <c r="C147" s="26"/>
       <c r="D147" s="28"/>
@@ -10478,10 +10654,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M147" s="38"/>
-      <c r="N147" s="39"/>
-    </row>
-    <row r="148" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M147" s="41"/>
+      <c r="N147" s="42"/>
+    </row>
+    <row r="148" spans="2:14" ht="15.75">
       <c r="B148" s="34"/>
       <c r="C148" s="26"/>
       <c r="D148" s="28"/>
@@ -10504,10 +10680,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M148" s="38"/>
-      <c r="N148" s="39"/>
-    </row>
-    <row r="149" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M148" s="41"/>
+      <c r="N148" s="42"/>
+    </row>
+    <row r="149" spans="2:14" ht="15.75">
       <c r="B149" s="34"/>
       <c r="C149" s="26"/>
       <c r="D149" s="28"/>
@@ -10530,10 +10706,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M149" s="38"/>
-      <c r="N149" s="39"/>
-    </row>
-    <row r="150" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M149" s="41"/>
+      <c r="N149" s="42"/>
+    </row>
+    <row r="150" spans="2:14" ht="15.75">
       <c r="B150" s="34"/>
       <c r="C150" s="26"/>
       <c r="D150" s="28"/>
@@ -10556,10 +10732,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M150" s="38"/>
-      <c r="N150" s="39"/>
-    </row>
-    <row r="151" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M150" s="41"/>
+      <c r="N150" s="42"/>
+    </row>
+    <row r="151" spans="2:14" ht="15.75">
       <c r="B151" s="34"/>
       <c r="C151" s="26"/>
       <c r="D151" s="28"/>
@@ -10582,10 +10758,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M151" s="38"/>
-      <c r="N151" s="39"/>
-    </row>
-    <row r="152" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M151" s="41"/>
+      <c r="N151" s="42"/>
+    </row>
+    <row r="152" spans="2:14" ht="15.75">
       <c r="B152" s="34"/>
       <c r="C152" s="26"/>
       <c r="D152" s="28"/>
@@ -10608,10 +10784,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M152" s="38"/>
-      <c r="N152" s="39"/>
-    </row>
-    <row r="153" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M152" s="41"/>
+      <c r="N152" s="42"/>
+    </row>
+    <row r="153" spans="2:14" ht="15.75">
       <c r="B153" s="34"/>
       <c r="C153" s="26"/>
       <c r="D153" s="28"/>
@@ -10634,10 +10810,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M153" s="38"/>
-      <c r="N153" s="39"/>
-    </row>
-    <row r="154" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M153" s="41"/>
+      <c r="N153" s="42"/>
+    </row>
+    <row r="154" spans="2:14" ht="15.75">
       <c r="B154" s="34"/>
       <c r="C154" s="26"/>
       <c r="D154" s="28"/>
@@ -10660,10 +10836,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M154" s="38"/>
-      <c r="N154" s="39"/>
-    </row>
-    <row r="155" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M154" s="41"/>
+      <c r="N154" s="42"/>
+    </row>
+    <row r="155" spans="2:14" ht="15.75">
       <c r="B155" s="34"/>
       <c r="C155" s="26"/>
       <c r="D155" s="28"/>
@@ -10686,10 +10862,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M155" s="38"/>
-      <c r="N155" s="39"/>
-    </row>
-    <row r="156" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M155" s="41"/>
+      <c r="N155" s="42"/>
+    </row>
+    <row r="156" spans="2:14" ht="15.75">
       <c r="B156" s="34"/>
       <c r="C156" s="26"/>
       <c r="D156" s="28"/>
@@ -10712,10 +10888,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M156" s="38"/>
-      <c r="N156" s="39"/>
-    </row>
-    <row r="157" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M156" s="41"/>
+      <c r="N156" s="42"/>
+    </row>
+    <row r="157" spans="2:14" ht="15.75">
       <c r="B157" s="34"/>
       <c r="C157" s="26"/>
       <c r="D157" s="28"/>
@@ -10738,10 +10914,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M157" s="38"/>
-      <c r="N157" s="39"/>
-    </row>
-    <row r="158" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M157" s="41"/>
+      <c r="N157" s="42"/>
+    </row>
+    <row r="158" spans="2:14" ht="15.75">
       <c r="B158" s="34"/>
       <c r="C158" s="26"/>
       <c r="D158" s="28"/>
@@ -10764,10 +10940,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M158" s="38"/>
-      <c r="N158" s="39"/>
-    </row>
-    <row r="159" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M158" s="41"/>
+      <c r="N158" s="42"/>
+    </row>
+    <row r="159" spans="2:14" ht="15.75">
       <c r="B159" s="34"/>
       <c r="C159" s="26"/>
       <c r="D159" s="28"/>
@@ -10790,10 +10966,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M159" s="38"/>
-      <c r="N159" s="39"/>
-    </row>
-    <row r="160" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M159" s="41"/>
+      <c r="N159" s="42"/>
+    </row>
+    <row r="160" spans="2:14" ht="15.75">
       <c r="B160" s="34"/>
       <c r="C160" s="26"/>
       <c r="D160" s="28"/>
@@ -10816,10 +10992,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M160" s="38"/>
-      <c r="N160" s="39"/>
-    </row>
-    <row r="161" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M160" s="41"/>
+      <c r="N160" s="42"/>
+    </row>
+    <row r="161" spans="2:14" ht="15.75">
       <c r="B161" s="34"/>
       <c r="C161" s="26"/>
       <c r="D161" s="28"/>
@@ -10842,10 +11018,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M161" s="38"/>
-      <c r="N161" s="39"/>
-    </row>
-    <row r="162" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M161" s="41"/>
+      <c r="N161" s="42"/>
+    </row>
+    <row r="162" spans="2:14" ht="15.75">
       <c r="B162" s="34"/>
       <c r="C162" s="26"/>
       <c r="D162" s="28"/>
@@ -10868,10 +11044,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M162" s="38"/>
-      <c r="N162" s="39"/>
-    </row>
-    <row r="163" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M162" s="41"/>
+      <c r="N162" s="42"/>
+    </row>
+    <row r="163" spans="2:14" ht="15.75">
       <c r="B163" s="34"/>
       <c r="C163" s="26"/>
       <c r="D163" s="28"/>
@@ -10894,10 +11070,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M163" s="38"/>
-      <c r="N163" s="39"/>
-    </row>
-    <row r="164" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M163" s="41"/>
+      <c r="N163" s="42"/>
+    </row>
+    <row r="164" spans="2:14" ht="15.75">
       <c r="B164" s="34"/>
       <c r="C164" s="26"/>
       <c r="D164" s="28"/>
@@ -10920,10 +11096,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M164" s="38"/>
-      <c r="N164" s="39"/>
-    </row>
-    <row r="165" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M164" s="41"/>
+      <c r="N164" s="42"/>
+    </row>
+    <row r="165" spans="2:14" ht="15.75">
       <c r="B165" s="34"/>
       <c r="C165" s="26"/>
       <c r="D165" s="28"/>
@@ -10946,10 +11122,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M165" s="38"/>
-      <c r="N165" s="39"/>
-    </row>
-    <row r="166" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M165" s="41"/>
+      <c r="N165" s="42"/>
+    </row>
+    <row r="166" spans="2:14" ht="15.75">
       <c r="B166" s="34"/>
       <c r="C166" s="26"/>
       <c r="D166" s="28"/>
@@ -10972,10 +11148,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M166" s="38"/>
-      <c r="N166" s="39"/>
-    </row>
-    <row r="167" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M166" s="41"/>
+      <c r="N166" s="42"/>
+    </row>
+    <row r="167" spans="2:14" ht="15.75">
       <c r="B167" s="34"/>
       <c r="C167" s="26"/>
       <c r="D167" s="28"/>
@@ -10998,10 +11174,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M167" s="38"/>
-      <c r="N167" s="39"/>
-    </row>
-    <row r="168" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M167" s="41"/>
+      <c r="N167" s="42"/>
+    </row>
+    <row r="168" spans="2:14" ht="15.75">
       <c r="B168" s="34"/>
       <c r="C168" s="26"/>
       <c r="D168" s="28"/>
@@ -11024,10 +11200,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M168" s="38"/>
-      <c r="N168" s="39"/>
-    </row>
-    <row r="169" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M168" s="41"/>
+      <c r="N168" s="42"/>
+    </row>
+    <row r="169" spans="2:14" ht="15.75">
       <c r="B169" s="34"/>
       <c r="C169" s="26"/>
       <c r="D169" s="28"/>
@@ -11050,10 +11226,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M169" s="38"/>
-      <c r="N169" s="39"/>
-    </row>
-    <row r="170" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M169" s="41"/>
+      <c r="N169" s="42"/>
+    </row>
+    <row r="170" spans="2:14" ht="15.75">
       <c r="B170" s="34"/>
       <c r="C170" s="26"/>
       <c r="D170" s="28"/>
@@ -11076,10 +11252,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M170" s="38"/>
-      <c r="N170" s="39"/>
-    </row>
-    <row r="171" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M170" s="41"/>
+      <c r="N170" s="42"/>
+    </row>
+    <row r="171" spans="2:14" ht="15.75">
       <c r="B171" s="34"/>
       <c r="C171" s="26"/>
       <c r="D171" s="28"/>
@@ -11102,10 +11278,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M171" s="38"/>
-      <c r="N171" s="39"/>
-    </row>
-    <row r="172" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M171" s="41"/>
+      <c r="N171" s="42"/>
+    </row>
+    <row r="172" spans="2:14" ht="15.75">
       <c r="B172" s="34"/>
       <c r="C172" s="26"/>
       <c r="D172" s="28"/>
@@ -11128,10 +11304,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M172" s="38"/>
-      <c r="N172" s="39"/>
-    </row>
-    <row r="173" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M172" s="41"/>
+      <c r="N172" s="42"/>
+    </row>
+    <row r="173" spans="2:14" ht="15.75">
       <c r="B173" s="34"/>
       <c r="C173" s="26"/>
       <c r="D173" s="28"/>
@@ -11154,10 +11330,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M173" s="38"/>
-      <c r="N173" s="39"/>
-    </row>
-    <row r="174" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M173" s="41"/>
+      <c r="N173" s="42"/>
+    </row>
+    <row r="174" spans="2:14" ht="15.75">
       <c r="B174" s="34"/>
       <c r="C174" s="26"/>
       <c r="D174" s="28"/>
@@ -11180,10 +11356,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M174" s="38"/>
-      <c r="N174" s="39"/>
-    </row>
-    <row r="175" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M174" s="41"/>
+      <c r="N174" s="42"/>
+    </row>
+    <row r="175" spans="2:14" ht="15.75">
       <c r="B175" s="34"/>
       <c r="C175" s="26"/>
       <c r="D175" s="28"/>
@@ -11206,10 +11382,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M175" s="38"/>
-      <c r="N175" s="39"/>
-    </row>
-    <row r="176" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M175" s="41"/>
+      <c r="N175" s="42"/>
+    </row>
+    <row r="176" spans="2:14" ht="15.75">
       <c r="B176" s="34"/>
       <c r="C176" s="26"/>
       <c r="D176" s="28"/>
@@ -11232,10 +11408,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M176" s="38"/>
-      <c r="N176" s="39"/>
-    </row>
-    <row r="177" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M176" s="41"/>
+      <c r="N176" s="42"/>
+    </row>
+    <row r="177" spans="2:14" ht="15.75">
       <c r="B177" s="34"/>
       <c r="C177" s="26"/>
       <c r="D177" s="28"/>
@@ -11258,10 +11434,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M177" s="38"/>
-      <c r="N177" s="39"/>
-    </row>
-    <row r="178" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M177" s="41"/>
+      <c r="N177" s="42"/>
+    </row>
+    <row r="178" spans="2:14" ht="15.75">
       <c r="B178" s="34"/>
       <c r="C178" s="26"/>
       <c r="D178" s="28"/>
@@ -11284,10 +11460,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M178" s="38"/>
-      <c r="N178" s="39"/>
-    </row>
-    <row r="179" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M178" s="41"/>
+      <c r="N178" s="42"/>
+    </row>
+    <row r="179" spans="2:14" ht="15.75">
       <c r="B179" s="34"/>
       <c r="C179" s="26"/>
       <c r="D179" s="28"/>
@@ -11310,10 +11486,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M179" s="38"/>
-      <c r="N179" s="39"/>
-    </row>
-    <row r="180" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M179" s="41"/>
+      <c r="N179" s="42"/>
+    </row>
+    <row r="180" spans="2:14" ht="15.75">
       <c r="B180" s="34"/>
       <c r="C180" s="26"/>
       <c r="D180" s="28"/>
@@ -11336,10 +11512,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M180" s="38"/>
-      <c r="N180" s="39"/>
-    </row>
-    <row r="181" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M180" s="41"/>
+      <c r="N180" s="42"/>
+    </row>
+    <row r="181" spans="2:14" ht="15.75">
       <c r="B181" s="34"/>
       <c r="C181" s="26"/>
       <c r="D181" s="28"/>
@@ -11362,10 +11538,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M181" s="38"/>
-      <c r="N181" s="39"/>
-    </row>
-    <row r="182" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M181" s="41"/>
+      <c r="N181" s="42"/>
+    </row>
+    <row r="182" spans="2:14" ht="15.75">
       <c r="B182" s="34"/>
       <c r="C182" s="26"/>
       <c r="D182" s="28"/>
@@ -11388,10 +11564,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M182" s="38"/>
-      <c r="N182" s="39"/>
-    </row>
-    <row r="183" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M182" s="41"/>
+      <c r="N182" s="42"/>
+    </row>
+    <row r="183" spans="2:14" ht="15.75">
       <c r="B183" s="34"/>
       <c r="C183" s="26"/>
       <c r="D183" s="28"/>
@@ -11414,10 +11590,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M183" s="38"/>
-      <c r="N183" s="39"/>
-    </row>
-    <row r="184" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M183" s="41"/>
+      <c r="N183" s="42"/>
+    </row>
+    <row r="184" spans="2:14" ht="15.75">
       <c r="B184" s="34"/>
       <c r="C184" s="26"/>
       <c r="D184" s="28"/>
@@ -11440,10 +11616,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M184" s="38"/>
-      <c r="N184" s="39"/>
-    </row>
-    <row r="185" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M184" s="41"/>
+      <c r="N184" s="42"/>
+    </row>
+    <row r="185" spans="2:14" ht="15.75">
       <c r="B185" s="34"/>
       <c r="C185" s="26"/>
       <c r="D185" s="28"/>
@@ -11466,10 +11642,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M185" s="38"/>
-      <c r="N185" s="39"/>
-    </row>
-    <row r="186" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M185" s="41"/>
+      <c r="N185" s="42"/>
+    </row>
+    <row r="186" spans="2:14" ht="15.75">
       <c r="B186" s="34"/>
       <c r="C186" s="26"/>
       <c r="D186" s="28"/>
@@ -11492,10 +11668,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M186" s="38"/>
-      <c r="N186" s="39"/>
-    </row>
-    <row r="187" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M186" s="41"/>
+      <c r="N186" s="42"/>
+    </row>
+    <row r="187" spans="2:14" ht="15.75">
       <c r="B187" s="34"/>
       <c r="C187" s="26"/>
       <c r="D187" s="28"/>
@@ -11518,10 +11694,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M187" s="38"/>
-      <c r="N187" s="39"/>
-    </row>
-    <row r="188" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M187" s="41"/>
+      <c r="N187" s="42"/>
+    </row>
+    <row r="188" spans="2:14" ht="15.75">
       <c r="B188" s="34"/>
       <c r="C188" s="26"/>
       <c r="D188" s="28"/>
@@ -11544,10 +11720,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M188" s="38"/>
-      <c r="N188" s="39"/>
-    </row>
-    <row r="189" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M188" s="41"/>
+      <c r="N188" s="42"/>
+    </row>
+    <row r="189" spans="2:14" ht="15.75">
       <c r="B189" s="34"/>
       <c r="C189" s="26"/>
       <c r="D189" s="28"/>
@@ -11570,10 +11746,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M189" s="38"/>
-      <c r="N189" s="39"/>
-    </row>
-    <row r="190" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M189" s="41"/>
+      <c r="N189" s="42"/>
+    </row>
+    <row r="190" spans="2:14" ht="15.75">
       <c r="B190" s="34"/>
       <c r="C190" s="26"/>
       <c r="D190" s="28"/>
@@ -11596,10 +11772,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M190" s="38"/>
-      <c r="N190" s="39"/>
-    </row>
-    <row r="191" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M190" s="41"/>
+      <c r="N190" s="42"/>
+    </row>
+    <row r="191" spans="2:14" ht="15.75">
       <c r="B191" s="34"/>
       <c r="C191" s="26"/>
       <c r="D191" s="28"/>
@@ -11622,10 +11798,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M191" s="38"/>
-      <c r="N191" s="39"/>
-    </row>
-    <row r="192" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M191" s="41"/>
+      <c r="N191" s="42"/>
+    </row>
+    <row r="192" spans="2:14" ht="15.75">
       <c r="B192" s="34"/>
       <c r="C192" s="26"/>
       <c r="D192" s="28"/>
@@ -11648,10 +11824,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M192" s="38"/>
-      <c r="N192" s="39"/>
-    </row>
-    <row r="193" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M192" s="41"/>
+      <c r="N192" s="42"/>
+    </row>
+    <row r="193" spans="2:14" ht="15.75">
       <c r="B193" s="34"/>
       <c r="C193" s="26"/>
       <c r="D193" s="28"/>
@@ -11674,10 +11850,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M193" s="38"/>
-      <c r="N193" s="39"/>
-    </row>
-    <row r="194" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M193" s="41"/>
+      <c r="N193" s="42"/>
+    </row>
+    <row r="194" spans="2:14" ht="15.75">
       <c r="B194" s="34"/>
       <c r="C194" s="26"/>
       <c r="D194" s="28"/>
@@ -11700,10 +11876,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M194" s="38"/>
-      <c r="N194" s="39"/>
-    </row>
-    <row r="195" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M194" s="41"/>
+      <c r="N194" s="42"/>
+    </row>
+    <row r="195" spans="2:14" ht="15.75">
       <c r="B195" s="34"/>
       <c r="C195" s="26"/>
       <c r="D195" s="28"/>
@@ -11726,10 +11902,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M195" s="38"/>
-      <c r="N195" s="39"/>
-    </row>
-    <row r="196" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M195" s="41"/>
+      <c r="N195" s="42"/>
+    </row>
+    <row r="196" spans="2:14" ht="15.75">
       <c r="B196" s="34"/>
       <c r="C196" s="26"/>
       <c r="D196" s="28"/>
@@ -11752,10 +11928,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M196" s="38"/>
-      <c r="N196" s="39"/>
-    </row>
-    <row r="197" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M196" s="41"/>
+      <c r="N196" s="42"/>
+    </row>
+    <row r="197" spans="2:14" ht="15.75">
       <c r="B197" s="34"/>
       <c r="C197" s="26"/>
       <c r="D197" s="28"/>
@@ -11778,10 +11954,10 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M197" s="38"/>
-      <c r="N197" s="39"/>
-    </row>
-    <row r="198" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M197" s="41"/>
+      <c r="N197" s="42"/>
+    </row>
+    <row r="198" spans="2:14" ht="15.75">
       <c r="B198" s="34"/>
       <c r="C198" s="26"/>
       <c r="D198" s="28"/>
@@ -11804,29 +11980,176 @@
         <f t="shared" si="8"/>
         <v>98.61</v>
       </c>
-      <c r="M198" s="38"/>
-      <c r="N198" s="39"/>
+      <c r="M198" s="41"/>
+      <c r="N198" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="195">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:I3"/>
-    <mergeCell ref="K2:N3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B8:N9"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M196:N196"/>
+    <mergeCell ref="M197:N197"/>
+    <mergeCell ref="M198:N198"/>
+    <mergeCell ref="M190:N190"/>
+    <mergeCell ref="M191:N191"/>
+    <mergeCell ref="M192:N192"/>
+    <mergeCell ref="M193:N193"/>
+    <mergeCell ref="M194:N194"/>
+    <mergeCell ref="M195:N195"/>
+    <mergeCell ref="M184:N184"/>
+    <mergeCell ref="M185:N185"/>
+    <mergeCell ref="M186:N186"/>
+    <mergeCell ref="M187:N187"/>
+    <mergeCell ref="M188:N188"/>
+    <mergeCell ref="M189:N189"/>
+    <mergeCell ref="M178:N178"/>
+    <mergeCell ref="M179:N179"/>
+    <mergeCell ref="M180:N180"/>
+    <mergeCell ref="M181:N181"/>
+    <mergeCell ref="M182:N182"/>
+    <mergeCell ref="M183:N183"/>
+    <mergeCell ref="M172:N172"/>
+    <mergeCell ref="M173:N173"/>
+    <mergeCell ref="M174:N174"/>
+    <mergeCell ref="M175:N175"/>
+    <mergeCell ref="M176:N176"/>
+    <mergeCell ref="M177:N177"/>
+    <mergeCell ref="M166:N166"/>
+    <mergeCell ref="M167:N167"/>
+    <mergeCell ref="M168:N168"/>
+    <mergeCell ref="M169:N169"/>
+    <mergeCell ref="M170:N170"/>
+    <mergeCell ref="M171:N171"/>
+    <mergeCell ref="M160:N160"/>
+    <mergeCell ref="M161:N161"/>
+    <mergeCell ref="M162:N162"/>
+    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="M164:N164"/>
+    <mergeCell ref="M165:N165"/>
+    <mergeCell ref="M154:N154"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="M156:N156"/>
+    <mergeCell ref="M157:N157"/>
+    <mergeCell ref="M158:N158"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="M148:N148"/>
+    <mergeCell ref="M149:N149"/>
+    <mergeCell ref="M150:N150"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="M152:N152"/>
+    <mergeCell ref="M153:N153"/>
+    <mergeCell ref="M142:N142"/>
+    <mergeCell ref="M143:N143"/>
+    <mergeCell ref="M144:N144"/>
+    <mergeCell ref="M145:N145"/>
+    <mergeCell ref="M146:N146"/>
+    <mergeCell ref="M147:N147"/>
+    <mergeCell ref="M136:N136"/>
+    <mergeCell ref="M137:N137"/>
+    <mergeCell ref="M138:N138"/>
+    <mergeCell ref="M139:N139"/>
+    <mergeCell ref="M140:N140"/>
+    <mergeCell ref="M141:N141"/>
+    <mergeCell ref="M130:N130"/>
+    <mergeCell ref="M131:N131"/>
+    <mergeCell ref="M132:N132"/>
+    <mergeCell ref="M133:N133"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="M124:N124"/>
+    <mergeCell ref="M125:N125"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="M127:N127"/>
+    <mergeCell ref="M128:N128"/>
+    <mergeCell ref="M129:N129"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="M119:N119"/>
+    <mergeCell ref="M120:N120"/>
+    <mergeCell ref="M121:N121"/>
+    <mergeCell ref="M122:N122"/>
+    <mergeCell ref="M123:N123"/>
+    <mergeCell ref="M112:N112"/>
+    <mergeCell ref="M113:N113"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="M109:N109"/>
+    <mergeCell ref="M110:N110"/>
+    <mergeCell ref="M111:N111"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="M102:N102"/>
+    <mergeCell ref="M103:N103"/>
+    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="M30:N30"/>
@@ -11839,171 +12162,24 @@
     <mergeCell ref="M25:N25"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M76:N76"/>
-    <mergeCell ref="M77:N77"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="M88:N88"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="M102:N102"/>
-    <mergeCell ref="M103:N103"/>
-    <mergeCell ref="M104:N104"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="M112:N112"/>
-    <mergeCell ref="M113:N113"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="M115:N115"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="M117:N117"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="M109:N109"/>
-    <mergeCell ref="M110:N110"/>
-    <mergeCell ref="M111:N111"/>
-    <mergeCell ref="M124:N124"/>
-    <mergeCell ref="M125:N125"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="M127:N127"/>
-    <mergeCell ref="M128:N128"/>
-    <mergeCell ref="M129:N129"/>
-    <mergeCell ref="M118:N118"/>
-    <mergeCell ref="M119:N119"/>
-    <mergeCell ref="M120:N120"/>
-    <mergeCell ref="M121:N121"/>
-    <mergeCell ref="M122:N122"/>
-    <mergeCell ref="M123:N123"/>
-    <mergeCell ref="M136:N136"/>
-    <mergeCell ref="M137:N137"/>
-    <mergeCell ref="M138:N138"/>
-    <mergeCell ref="M139:N139"/>
-    <mergeCell ref="M140:N140"/>
-    <mergeCell ref="M141:N141"/>
-    <mergeCell ref="M130:N130"/>
-    <mergeCell ref="M131:N131"/>
-    <mergeCell ref="M132:N132"/>
-    <mergeCell ref="M133:N133"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="M148:N148"/>
-    <mergeCell ref="M149:N149"/>
-    <mergeCell ref="M150:N150"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="M152:N152"/>
-    <mergeCell ref="M153:N153"/>
-    <mergeCell ref="M142:N142"/>
-    <mergeCell ref="M143:N143"/>
-    <mergeCell ref="M144:N144"/>
-    <mergeCell ref="M145:N145"/>
-    <mergeCell ref="M146:N146"/>
-    <mergeCell ref="M147:N147"/>
-    <mergeCell ref="M160:N160"/>
-    <mergeCell ref="M161:N161"/>
-    <mergeCell ref="M162:N162"/>
-    <mergeCell ref="M163:N163"/>
-    <mergeCell ref="M164:N164"/>
-    <mergeCell ref="M165:N165"/>
-    <mergeCell ref="M154:N154"/>
-    <mergeCell ref="M155:N155"/>
-    <mergeCell ref="M156:N156"/>
-    <mergeCell ref="M157:N157"/>
-    <mergeCell ref="M158:N158"/>
-    <mergeCell ref="M159:N159"/>
-    <mergeCell ref="M172:N172"/>
-    <mergeCell ref="M173:N173"/>
-    <mergeCell ref="M174:N174"/>
-    <mergeCell ref="M175:N175"/>
-    <mergeCell ref="M176:N176"/>
-    <mergeCell ref="M177:N177"/>
-    <mergeCell ref="M166:N166"/>
-    <mergeCell ref="M167:N167"/>
-    <mergeCell ref="M168:N168"/>
-    <mergeCell ref="M169:N169"/>
-    <mergeCell ref="M170:N170"/>
-    <mergeCell ref="M171:N171"/>
-    <mergeCell ref="M184:N184"/>
-    <mergeCell ref="M185:N185"/>
-    <mergeCell ref="M186:N186"/>
-    <mergeCell ref="M187:N187"/>
-    <mergeCell ref="M188:N188"/>
-    <mergeCell ref="M189:N189"/>
-    <mergeCell ref="M178:N178"/>
-    <mergeCell ref="M179:N179"/>
-    <mergeCell ref="M180:N180"/>
-    <mergeCell ref="M181:N181"/>
-    <mergeCell ref="M182:N182"/>
-    <mergeCell ref="M183:N183"/>
-    <mergeCell ref="M196:N196"/>
-    <mergeCell ref="M197:N197"/>
-    <mergeCell ref="M198:N198"/>
-    <mergeCell ref="M190:N190"/>
-    <mergeCell ref="M191:N191"/>
-    <mergeCell ref="M192:N192"/>
-    <mergeCell ref="M193:N193"/>
-    <mergeCell ref="M194:N194"/>
-    <mergeCell ref="M195:N195"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:I3"/>
+    <mergeCell ref="K2:N3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B8:N9"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
   </mergeCells>
   <conditionalFormatting sqref="J11:J198">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="V">

--- a/Otras cosas/Corners/Hoja Excel.xlsx
+++ b/Otras cosas/Corners/Hoja Excel.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Kike\Otros_RepositorioGit\Otras cosas\Corners\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB578C0E-9C42-49BE-8578-3DB800F3C4EB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20130" windowHeight="6555"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20130" windowHeight="6555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Virgen" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="62">
   <si>
     <t>USUARIO</t>
   </si>
@@ -228,25 +234,25 @@
 ✓&lt; 13</t>
   </si>
   <si>
-    <t>&lt; 13
-&lt; 12
-&lt; 13</t>
-  </si>
-  <si>
     <t>Islandia - 4 Deild
 Perú - 1a División
 Copa do Brazil</t>
+  </si>
+  <si>
+    <t>&lt; 13
+X &lt; 12
+&lt; 13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -614,6 +620,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -651,36 +687,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1038,7 +1044,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1070,9 +1076,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1104,6 +1128,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1279,14 +1321,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="4" customWidth="1"/>
@@ -1300,7 +1342,7 @@
     <col min="14" max="14" width="11.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -1308,47 +1350,47 @@
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" thickTop="1">
-      <c r="B2" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="43" t="s">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="44"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="54"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="44"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="54"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="64"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="46"/>
-    </row>
-    <row r="4" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
-      <c r="B4" s="47" t="s">
+      <c r="K3" s="55"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="56"/>
+    </row>
+    <row r="4" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1380,17 +1422,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="20.25" thickTop="1" thickBot="1">
-      <c r="B5" s="49" t="s">
+    <row r="5" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="50"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="33">
         <v>98.61</v>
       </c>
       <c r="E5" s="9">
         <f>D5+G5</f>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="F5" s="9">
         <f>SUM(E11:E500)</f>
@@ -1398,15 +1440,15 @@
       </c>
       <c r="G5" s="10">
         <f>SUM(K11:K500)</f>
-        <v>-1.0999999999999996</v>
+        <v>-1.5999999999999996</v>
       </c>
       <c r="H5" s="11">
         <f>(E5-D5)/D5</f>
-        <v>-1.1155055268228317E-2</v>
+        <v>-1.622553493560485E-2</v>
       </c>
       <c r="I5" s="11">
         <f>(G5/F5)</f>
-        <v>-0.14666666666666661</v>
+        <v>-0.21333333333333329</v>
       </c>
       <c r="K5" s="12">
         <f>COUNTIF(J11:J500,"w")</f>
@@ -1414,7 +1456,7 @@
       </c>
       <c r="L5" s="13">
         <f>COUNTIF(J11:J500,"l")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M5" s="14">
         <f>COUNTIF(J11:J500,"V")</f>
@@ -1422,44 +1464,44 @@
       </c>
       <c r="N5" s="15">
         <f>K5/(K5+L5)</f>
-        <v>0.38461538461538464</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" thickTop="1"/>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" thickBot="1"/>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" thickTop="1">
-      <c r="B8" s="56" t="s">
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="58"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B9" s="59"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="61"/>
-    </row>
-    <row r="10" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="45"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="48"/>
+    </row>
+    <row r="10" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
         <v>1</v>
       </c>
@@ -1493,12 +1535,12 @@
       <c r="L10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="62" t="s">
+      <c r="M10" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="63"/>
-    </row>
-    <row r="11" spans="1:14" ht="48.75" thickTop="1" thickBot="1">
+      <c r="N10" s="50"/>
+    </row>
+    <row r="11" spans="1:14" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
         <v>26</v>
       </c>
@@ -1538,10 +1580,10 @@
         <f>D5+K11</f>
         <v>98.11</v>
       </c>
-      <c r="M11" s="64"/>
-      <c r="N11" s="65"/>
-    </row>
-    <row r="12" spans="1:14" ht="48" thickTop="1">
+      <c r="M11" s="51"/>
+      <c r="N11" s="52"/>
+    </row>
+    <row r="12" spans="1:14" ht="48" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B12" s="34" t="s">
         <v>35</v>
       </c>
@@ -1581,7 +1623,7 @@
       <c r="M12" s="41"/>
       <c r="N12" s="42"/>
     </row>
-    <row r="13" spans="1:14" ht="47.25">
+    <row r="13" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B13" s="34" t="s">
         <v>38</v>
       </c>
@@ -1621,7 +1663,7 @@
       <c r="M13" s="41"/>
       <c r="N13" s="42"/>
     </row>
-    <row r="14" spans="1:14" ht="47.25">
+    <row r="14" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B14" s="40" t="s">
         <v>37</v>
       </c>
@@ -1660,7 +1702,7 @@
       <c r="M14" s="41"/>
       <c r="N14" s="42"/>
     </row>
-    <row r="15" spans="1:14" ht="47.25">
+    <row r="15" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B15" s="40" t="s">
         <v>45</v>
       </c>
@@ -1699,7 +1741,7 @@
       <c r="M15" s="41"/>
       <c r="N15" s="42"/>
     </row>
-    <row r="16" spans="1:14" ht="47.25">
+    <row r="16" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B16" s="40" t="s">
         <v>46</v>
       </c>
@@ -1738,7 +1780,7 @@
       <c r="M16" s="41"/>
       <c r="N16" s="42"/>
     </row>
-    <row r="17" spans="1:14" ht="48" thickBot="1">
+    <row r="17" spans="1:14" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="40" t="s">
         <v>47</v>
       </c>
@@ -1778,7 +1820,7 @@
       <c r="M17" s="41"/>
       <c r="N17" s="42"/>
     </row>
-    <row r="18" spans="1:14" ht="48.75" thickTop="1" thickBot="1">
+    <row r="18" spans="1:14" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>27</v>
       </c>
@@ -1821,7 +1863,7 @@
       <c r="M18" s="41"/>
       <c r="N18" s="42"/>
     </row>
-    <row r="19" spans="1:14" ht="48" thickTop="1">
+    <row r="19" spans="1:14" ht="48" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B19" s="40" t="s">
         <v>50</v>
       </c>
@@ -1861,7 +1903,7 @@
       <c r="M19" s="41"/>
       <c r="N19" s="42"/>
     </row>
-    <row r="20" spans="1:14" ht="47.25">
+    <row r="20" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B20" s="40" t="s">
         <v>51</v>
       </c>
@@ -1901,7 +1943,7 @@
       <c r="M20" s="41"/>
       <c r="N20" s="42"/>
     </row>
-    <row r="21" spans="1:14" ht="47.25">
+    <row r="21" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B21" s="40" t="s">
         <v>45</v>
       </c>
@@ -1941,7 +1983,7 @@
       <c r="M21" s="41"/>
       <c r="N21" s="42"/>
     </row>
-    <row r="22" spans="1:14" ht="47.25">
+    <row r="22" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B22" s="40" t="s">
         <v>55</v>
       </c>
@@ -1981,7 +2023,7 @@
       <c r="M22" s="41"/>
       <c r="N22" s="42"/>
     </row>
-    <row r="23" spans="1:14" ht="47.25">
+    <row r="23" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B23" s="40" t="s">
         <v>57</v>
       </c>
@@ -2020,7 +2062,7 @@
       <c r="M23" s="41"/>
       <c r="N23" s="42"/>
     </row>
-    <row r="24" spans="1:14" ht="48" thickBot="1">
+    <row r="24" spans="1:14" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="40" t="s">
         <v>58</v>
       </c>
@@ -2060,18 +2102,18 @@
       <c r="M24" s="41"/>
       <c r="N24" s="42"/>
     </row>
-    <row r="25" spans="1:14" ht="48.75" thickTop="1" thickBot="1">
+    <row r="25" spans="1:14" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="38" t="s">
         <v>33</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E25" s="22">
         <v>0.5</v>
@@ -2089,19 +2131,21 @@
         <f t="shared" si="0"/>
         <v>0.97510000000000008</v>
       </c>
-      <c r="J25" s="38"/>
+      <c r="J25" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="K25" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L25" s="22">
         <f t="shared" si="2"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M25" s="41"/>
       <c r="N25" s="42"/>
     </row>
-    <row r="26" spans="1:14" ht="16.5" thickTop="1">
+    <row r="26" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B26" s="36"/>
       <c r="C26" s="37" t="s">
         <v>33</v>
@@ -2124,12 +2168,12 @@
       </c>
       <c r="L26" s="22">
         <f t="shared" si="2"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M26" s="41"/>
       <c r="N26" s="42"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75">
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="34"/>
       <c r="C27" s="37" t="s">
         <v>33</v>
@@ -2152,12 +2196,12 @@
       </c>
       <c r="L27" s="22">
         <f t="shared" si="2"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M27" s="41"/>
       <c r="N27" s="42"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75">
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="34"/>
       <c r="C28" s="37" t="s">
         <v>33</v>
@@ -2180,12 +2224,12 @@
       </c>
       <c r="L28" s="22">
         <f t="shared" si="2"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M28" s="41"/>
       <c r="N28" s="42"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75">
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="34"/>
       <c r="C29" s="37" t="s">
         <v>33</v>
@@ -2208,12 +2252,12 @@
       </c>
       <c r="L29" s="22">
         <f t="shared" si="2"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M29" s="41"/>
       <c r="N29" s="42"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75">
+    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="34"/>
       <c r="C30" s="37" t="s">
         <v>33</v>
@@ -2236,12 +2280,12 @@
       </c>
       <c r="L30" s="22">
         <f t="shared" si="2"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M30" s="41"/>
       <c r="N30" s="42"/>
     </row>
-    <row r="31" spans="1:14" ht="16.5" thickBot="1">
+    <row r="31" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="34"/>
       <c r="C31" s="7"/>
       <c r="D31" s="28"/>
@@ -2262,12 +2306,12 @@
       </c>
       <c r="L31" s="22">
         <f t="shared" si="2"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M31" s="41"/>
       <c r="N31" s="42"/>
     </row>
-    <row r="32" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
+    <row r="32" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
         <v>29</v>
       </c>
@@ -2291,12 +2335,12 @@
       </c>
       <c r="L32" s="22">
         <f t="shared" si="2"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M32" s="41"/>
       <c r="N32" s="42"/>
     </row>
-    <row r="33" spans="2:14" ht="16.5" thickTop="1">
+    <row r="33" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B33" s="34"/>
       <c r="C33" s="7"/>
       <c r="D33" s="28"/>
@@ -2317,12 +2361,12 @@
       </c>
       <c r="L33" s="22">
         <f t="shared" si="2"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M33" s="41"/>
       <c r="N33" s="42"/>
     </row>
-    <row r="34" spans="2:14" ht="15.75">
+    <row r="34" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="34"/>
       <c r="C34" s="7"/>
       <c r="D34" s="28"/>
@@ -2343,12 +2387,12 @@
       </c>
       <c r="L34" s="22">
         <f t="shared" ref="L34:L97" si="4">K34+L33</f>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M34" s="41"/>
       <c r="N34" s="42"/>
     </row>
-    <row r="35" spans="2:14" ht="15.75">
+    <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="34"/>
       <c r="C35" s="7"/>
       <c r="D35" s="28"/>
@@ -2369,12 +2413,12 @@
       </c>
       <c r="L35" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M35" s="41"/>
       <c r="N35" s="42"/>
     </row>
-    <row r="36" spans="2:14" ht="15.75">
+    <row r="36" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="34"/>
       <c r="C36" s="7"/>
       <c r="D36" s="28"/>
@@ -2395,12 +2439,12 @@
       </c>
       <c r="L36" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M36" s="41"/>
       <c r="N36" s="42"/>
     </row>
-    <row r="37" spans="2:14" ht="15.75">
+    <row r="37" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="34"/>
       <c r="C37" s="7"/>
       <c r="D37" s="28"/>
@@ -2421,12 +2465,12 @@
       </c>
       <c r="L37" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M37" s="41"/>
       <c r="N37" s="42"/>
     </row>
-    <row r="38" spans="2:14" ht="15.75">
+    <row r="38" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="34"/>
       <c r="C38" s="7"/>
       <c r="D38" s="28"/>
@@ -2447,12 +2491,12 @@
       </c>
       <c r="L38" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M38" s="41"/>
       <c r="N38" s="42"/>
     </row>
-    <row r="39" spans="2:14" ht="15.75">
+    <row r="39" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="34"/>
       <c r="C39" s="7"/>
       <c r="D39" s="28"/>
@@ -2473,12 +2517,12 @@
       </c>
       <c r="L39" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M39" s="41"/>
       <c r="N39" s="42"/>
     </row>
-    <row r="40" spans="2:14" ht="15.75">
+    <row r="40" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="34"/>
       <c r="C40" s="7"/>
       <c r="D40" s="28"/>
@@ -2499,12 +2543,12 @@
       </c>
       <c r="L40" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M40" s="41"/>
       <c r="N40" s="42"/>
     </row>
-    <row r="41" spans="2:14" ht="15.75">
+    <row r="41" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="34"/>
       <c r="C41" s="7"/>
       <c r="D41" s="28"/>
@@ -2525,12 +2569,12 @@
       </c>
       <c r="L41" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M41" s="41"/>
       <c r="N41" s="42"/>
     </row>
-    <row r="42" spans="2:14" ht="15.75">
+    <row r="42" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="34"/>
       <c r="C42" s="7"/>
       <c r="D42" s="28"/>
@@ -2551,12 +2595,12 @@
       </c>
       <c r="L42" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M42" s="41"/>
       <c r="N42" s="42"/>
     </row>
-    <row r="43" spans="2:14" ht="15.75">
+    <row r="43" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="34"/>
       <c r="C43" s="7"/>
       <c r="D43" s="28"/>
@@ -2577,12 +2621,12 @@
       </c>
       <c r="L43" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M43" s="41"/>
       <c r="N43" s="42"/>
     </row>
-    <row r="44" spans="2:14" ht="15.75">
+    <row r="44" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="34"/>
       <c r="C44" s="7"/>
       <c r="D44" s="28"/>
@@ -2603,12 +2647,12 @@
       </c>
       <c r="L44" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M44" s="41"/>
       <c r="N44" s="42"/>
     </row>
-    <row r="45" spans="2:14" ht="15.75">
+    <row r="45" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="34"/>
       <c r="C45" s="7"/>
       <c r="D45" s="28"/>
@@ -2629,12 +2673,12 @@
       </c>
       <c r="L45" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M45" s="41"/>
       <c r="N45" s="42"/>
     </row>
-    <row r="46" spans="2:14" ht="15.75">
+    <row r="46" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="34"/>
       <c r="C46" s="7"/>
       <c r="D46" s="28"/>
@@ -2655,12 +2699,12 @@
       </c>
       <c r="L46" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M46" s="41"/>
       <c r="N46" s="42"/>
     </row>
-    <row r="47" spans="2:14" ht="15.75">
+    <row r="47" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="34"/>
       <c r="C47" s="7"/>
       <c r="D47" s="28"/>
@@ -2681,12 +2725,12 @@
       </c>
       <c r="L47" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M47" s="41"/>
       <c r="N47" s="42"/>
     </row>
-    <row r="48" spans="2:14" ht="15.75">
+    <row r="48" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="34"/>
       <c r="C48" s="7"/>
       <c r="D48" s="28"/>
@@ -2707,12 +2751,12 @@
       </c>
       <c r="L48" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M48" s="41"/>
       <c r="N48" s="42"/>
     </row>
-    <row r="49" spans="2:14" ht="15.75">
+    <row r="49" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="34"/>
       <c r="C49" s="7"/>
       <c r="D49" s="28"/>
@@ -2733,12 +2777,12 @@
       </c>
       <c r="L49" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M49" s="41"/>
       <c r="N49" s="42"/>
     </row>
-    <row r="50" spans="2:14" ht="15.75">
+    <row r="50" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="34"/>
       <c r="C50" s="7"/>
       <c r="D50" s="28"/>
@@ -2759,12 +2803,12 @@
       </c>
       <c r="L50" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M50" s="41"/>
       <c r="N50" s="42"/>
     </row>
-    <row r="51" spans="2:14" ht="15.75">
+    <row r="51" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="34"/>
       <c r="C51" s="7"/>
       <c r="D51" s="28"/>
@@ -2785,12 +2829,12 @@
       </c>
       <c r="L51" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M51" s="41"/>
       <c r="N51" s="42"/>
     </row>
-    <row r="52" spans="2:14" ht="15.75">
+    <row r="52" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="34"/>
       <c r="C52" s="7"/>
       <c r="D52" s="28"/>
@@ -2811,12 +2855,12 @@
       </c>
       <c r="L52" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M52" s="41"/>
       <c r="N52" s="42"/>
     </row>
-    <row r="53" spans="2:14" ht="15.75">
+    <row r="53" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="34"/>
       <c r="C53" s="7"/>
       <c r="D53" s="28"/>
@@ -2837,12 +2881,12 @@
       </c>
       <c r="L53" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M53" s="41"/>
       <c r="N53" s="42"/>
     </row>
-    <row r="54" spans="2:14" ht="15.75">
+    <row r="54" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="34"/>
       <c r="C54" s="7"/>
       <c r="D54" s="28"/>
@@ -2863,12 +2907,12 @@
       </c>
       <c r="L54" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M54" s="41"/>
       <c r="N54" s="42"/>
     </row>
-    <row r="55" spans="2:14" ht="15.75">
+    <row r="55" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="34"/>
       <c r="C55" s="7"/>
       <c r="D55" s="28"/>
@@ -2889,12 +2933,12 @@
       </c>
       <c r="L55" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M55" s="41"/>
       <c r="N55" s="42"/>
     </row>
-    <row r="56" spans="2:14" ht="15.75">
+    <row r="56" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="34"/>
       <c r="C56" s="7"/>
       <c r="D56" s="28"/>
@@ -2915,12 +2959,12 @@
       </c>
       <c r="L56" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M56" s="41"/>
       <c r="N56" s="42"/>
     </row>
-    <row r="57" spans="2:14" ht="15.75">
+    <row r="57" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="34"/>
       <c r="C57" s="7"/>
       <c r="D57" s="28"/>
@@ -2941,12 +2985,12 @@
       </c>
       <c r="L57" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M57" s="41"/>
       <c r="N57" s="42"/>
     </row>
-    <row r="58" spans="2:14" ht="15.75">
+    <row r="58" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="34"/>
       <c r="C58" s="7"/>
       <c r="D58" s="28"/>
@@ -2967,12 +3011,12 @@
       </c>
       <c r="L58" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M58" s="41"/>
       <c r="N58" s="42"/>
     </row>
-    <row r="59" spans="2:14" ht="15.75">
+    <row r="59" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="34"/>
       <c r="C59" s="7"/>
       <c r="D59" s="28"/>
@@ -2993,12 +3037,12 @@
       </c>
       <c r="L59" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M59" s="41"/>
       <c r="N59" s="42"/>
     </row>
-    <row r="60" spans="2:14" ht="15.75">
+    <row r="60" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="34"/>
       <c r="C60" s="7"/>
       <c r="D60" s="28"/>
@@ -3019,12 +3063,12 @@
       </c>
       <c r="L60" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M60" s="41"/>
       <c r="N60" s="42"/>
     </row>
-    <row r="61" spans="2:14" ht="15.75">
+    <row r="61" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="34"/>
       <c r="C61" s="7"/>
       <c r="D61" s="28"/>
@@ -3045,12 +3089,12 @@
       </c>
       <c r="L61" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M61" s="41"/>
       <c r="N61" s="42"/>
     </row>
-    <row r="62" spans="2:14" ht="15.75">
+    <row r="62" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="34"/>
       <c r="C62" s="7"/>
       <c r="D62" s="28"/>
@@ -3071,12 +3115,12 @@
       </c>
       <c r="L62" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M62" s="41"/>
       <c r="N62" s="42"/>
     </row>
-    <row r="63" spans="2:14" ht="15.75">
+    <row r="63" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="34"/>
       <c r="C63" s="7"/>
       <c r="D63" s="28"/>
@@ -3097,12 +3141,12 @@
       </c>
       <c r="L63" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M63" s="41"/>
       <c r="N63" s="42"/>
     </row>
-    <row r="64" spans="2:14" ht="15.75">
+    <row r="64" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="34"/>
       <c r="C64" s="7"/>
       <c r="D64" s="28"/>
@@ -3123,12 +3167,12 @@
       </c>
       <c r="L64" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M64" s="41"/>
       <c r="N64" s="42"/>
     </row>
-    <row r="65" spans="2:14" ht="15.75">
+    <row r="65" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="34"/>
       <c r="C65" s="7"/>
       <c r="D65" s="28"/>
@@ -3149,12 +3193,12 @@
       </c>
       <c r="L65" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M65" s="41"/>
       <c r="N65" s="42"/>
     </row>
-    <row r="66" spans="2:14" ht="15.75">
+    <row r="66" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="34"/>
       <c r="C66" s="7"/>
       <c r="D66" s="28"/>
@@ -3175,12 +3219,12 @@
       </c>
       <c r="L66" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M66" s="41"/>
       <c r="N66" s="42"/>
     </row>
-    <row r="67" spans="2:14" ht="15.75">
+    <row r="67" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="34"/>
       <c r="C67" s="7"/>
       <c r="D67" s="28"/>
@@ -3201,12 +3245,12 @@
       </c>
       <c r="L67" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M67" s="41"/>
       <c r="N67" s="42"/>
     </row>
-    <row r="68" spans="2:14" ht="15.75">
+    <row r="68" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="34"/>
       <c r="C68" s="7"/>
       <c r="D68" s="28"/>
@@ -3227,12 +3271,12 @@
       </c>
       <c r="L68" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M68" s="41"/>
       <c r="N68" s="42"/>
     </row>
-    <row r="69" spans="2:14" ht="15.75">
+    <row r="69" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="34"/>
       <c r="C69" s="7"/>
       <c r="D69" s="28"/>
@@ -3253,12 +3297,12 @@
       </c>
       <c r="L69" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M69" s="41"/>
       <c r="N69" s="42"/>
     </row>
-    <row r="70" spans="2:14" ht="15.75">
+    <row r="70" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="34"/>
       <c r="C70" s="7"/>
       <c r="D70" s="28"/>
@@ -3279,12 +3323,12 @@
       </c>
       <c r="L70" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M70" s="41"/>
       <c r="N70" s="42"/>
     </row>
-    <row r="71" spans="2:14" ht="15.75">
+    <row r="71" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B71" s="34"/>
       <c r="C71" s="7"/>
       <c r="D71" s="28"/>
@@ -3305,12 +3349,12 @@
       </c>
       <c r="L71" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M71" s="41"/>
       <c r="N71" s="42"/>
     </row>
-    <row r="72" spans="2:14" ht="15.75">
+    <row r="72" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B72" s="34"/>
       <c r="C72" s="7"/>
       <c r="D72" s="28"/>
@@ -3331,12 +3375,12 @@
       </c>
       <c r="L72" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M72" s="41"/>
       <c r="N72" s="42"/>
     </row>
-    <row r="73" spans="2:14" ht="15.75">
+    <row r="73" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B73" s="34"/>
       <c r="C73" s="7"/>
       <c r="D73" s="28"/>
@@ -3357,12 +3401,12 @@
       </c>
       <c r="L73" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M73" s="41"/>
       <c r="N73" s="42"/>
     </row>
-    <row r="74" spans="2:14" ht="15.75">
+    <row r="74" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B74" s="34"/>
       <c r="C74" s="7"/>
       <c r="D74" s="28"/>
@@ -3383,12 +3427,12 @@
       </c>
       <c r="L74" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M74" s="41"/>
       <c r="N74" s="42"/>
     </row>
-    <row r="75" spans="2:14" ht="15.75">
+    <row r="75" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B75" s="34"/>
       <c r="C75" s="7"/>
       <c r="D75" s="28"/>
@@ -3409,12 +3453,12 @@
       </c>
       <c r="L75" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M75" s="41"/>
       <c r="N75" s="42"/>
     </row>
-    <row r="76" spans="2:14" ht="15.75">
+    <row r="76" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B76" s="34"/>
       <c r="C76" s="7"/>
       <c r="D76" s="28"/>
@@ -3435,12 +3479,12 @@
       </c>
       <c r="L76" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M76" s="41"/>
       <c r="N76" s="42"/>
     </row>
-    <row r="77" spans="2:14" ht="15.75">
+    <row r="77" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B77" s="34"/>
       <c r="C77" s="7"/>
       <c r="D77" s="28"/>
@@ -3461,12 +3505,12 @@
       </c>
       <c r="L77" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M77" s="41"/>
       <c r="N77" s="42"/>
     </row>
-    <row r="78" spans="2:14" ht="15.75">
+    <row r="78" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B78" s="34"/>
       <c r="C78" s="7"/>
       <c r="D78" s="28"/>
@@ -3487,12 +3531,12 @@
       </c>
       <c r="L78" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M78" s="41"/>
       <c r="N78" s="42"/>
     </row>
-    <row r="79" spans="2:14" ht="15.75">
+    <row r="79" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B79" s="34"/>
       <c r="C79" s="7"/>
       <c r="D79" s="28"/>
@@ -3513,12 +3557,12 @@
       </c>
       <c r="L79" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M79" s="41"/>
       <c r="N79" s="42"/>
     </row>
-    <row r="80" spans="2:14" ht="15.75">
+    <row r="80" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B80" s="34"/>
       <c r="C80" s="7"/>
       <c r="D80" s="28"/>
@@ -3539,12 +3583,12 @@
       </c>
       <c r="L80" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M80" s="41"/>
       <c r="N80" s="42"/>
     </row>
-    <row r="81" spans="2:14" ht="15.75">
+    <row r="81" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B81" s="34"/>
       <c r="C81" s="7"/>
       <c r="D81" s="28"/>
@@ -3565,12 +3609,12 @@
       </c>
       <c r="L81" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M81" s="41"/>
       <c r="N81" s="42"/>
     </row>
-    <row r="82" spans="2:14" ht="15.75">
+    <row r="82" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B82" s="34"/>
       <c r="C82" s="7"/>
       <c r="D82" s="28"/>
@@ -3591,12 +3635,12 @@
       </c>
       <c r="L82" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M82" s="41"/>
       <c r="N82" s="42"/>
     </row>
-    <row r="83" spans="2:14" ht="15.75">
+    <row r="83" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B83" s="34"/>
       <c r="C83" s="7"/>
       <c r="D83" s="28"/>
@@ -3617,12 +3661,12 @@
       </c>
       <c r="L83" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M83" s="41"/>
       <c r="N83" s="42"/>
     </row>
-    <row r="84" spans="2:14" ht="15.75">
+    <row r="84" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B84" s="34"/>
       <c r="C84" s="7"/>
       <c r="D84" s="28"/>
@@ -3643,12 +3687,12 @@
       </c>
       <c r="L84" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M84" s="41"/>
       <c r="N84" s="42"/>
     </row>
-    <row r="85" spans="2:14" ht="15.75">
+    <row r="85" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B85" s="34"/>
       <c r="C85" s="7"/>
       <c r="D85" s="28"/>
@@ -3669,12 +3713,12 @@
       </c>
       <c r="L85" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M85" s="41"/>
       <c r="N85" s="42"/>
     </row>
-    <row r="86" spans="2:14" ht="15.75">
+    <row r="86" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B86" s="34"/>
       <c r="C86" s="7"/>
       <c r="D86" s="28"/>
@@ -3695,12 +3739,12 @@
       </c>
       <c r="L86" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M86" s="41"/>
       <c r="N86" s="42"/>
     </row>
-    <row r="87" spans="2:14" ht="15.75">
+    <row r="87" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B87" s="34"/>
       <c r="C87" s="7"/>
       <c r="D87" s="28"/>
@@ -3721,12 +3765,12 @@
       </c>
       <c r="L87" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M87" s="41"/>
       <c r="N87" s="42"/>
     </row>
-    <row r="88" spans="2:14" ht="15.75">
+    <row r="88" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B88" s="34"/>
       <c r="C88" s="7"/>
       <c r="D88" s="28"/>
@@ -3747,12 +3791,12 @@
       </c>
       <c r="L88" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M88" s="41"/>
       <c r="N88" s="42"/>
     </row>
-    <row r="89" spans="2:14" ht="15.75">
+    <row r="89" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B89" s="34"/>
       <c r="C89" s="7"/>
       <c r="D89" s="28"/>
@@ -3773,12 +3817,12 @@
       </c>
       <c r="L89" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M89" s="41"/>
       <c r="N89" s="42"/>
     </row>
-    <row r="90" spans="2:14" ht="15.75">
+    <row r="90" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B90" s="34"/>
       <c r="C90" s="7"/>
       <c r="D90" s="28"/>
@@ -3799,12 +3843,12 @@
       </c>
       <c r="L90" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M90" s="41"/>
       <c r="N90" s="42"/>
     </row>
-    <row r="91" spans="2:14" ht="15.75">
+    <row r="91" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B91" s="34"/>
       <c r="C91" s="7"/>
       <c r="D91" s="28"/>
@@ -3825,12 +3869,12 @@
       </c>
       <c r="L91" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M91" s="41"/>
       <c r="N91" s="42"/>
     </row>
-    <row r="92" spans="2:14" ht="15.75">
+    <row r="92" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B92" s="34"/>
       <c r="C92" s="7"/>
       <c r="D92" s="28"/>
@@ -3851,12 +3895,12 @@
       </c>
       <c r="L92" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M92" s="41"/>
       <c r="N92" s="42"/>
     </row>
-    <row r="93" spans="2:14" ht="15.75">
+    <row r="93" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B93" s="34"/>
       <c r="C93" s="7"/>
       <c r="D93" s="28"/>
@@ -3877,12 +3921,12 @@
       </c>
       <c r="L93" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M93" s="41"/>
       <c r="N93" s="42"/>
     </row>
-    <row r="94" spans="2:14" ht="15.75">
+    <row r="94" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B94" s="34"/>
       <c r="C94" s="7"/>
       <c r="D94" s="28"/>
@@ -3903,12 +3947,12 @@
       </c>
       <c r="L94" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M94" s="41"/>
       <c r="N94" s="42"/>
     </row>
-    <row r="95" spans="2:14" ht="15.75">
+    <row r="95" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B95" s="34"/>
       <c r="C95" s="7"/>
       <c r="D95" s="28"/>
@@ -3929,12 +3973,12 @@
       </c>
       <c r="L95" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M95" s="41"/>
       <c r="N95" s="42"/>
     </row>
-    <row r="96" spans="2:14" ht="15.75">
+    <row r="96" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B96" s="34"/>
       <c r="C96" s="7"/>
       <c r="D96" s="28"/>
@@ -3955,12 +3999,12 @@
       </c>
       <c r="L96" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M96" s="41"/>
       <c r="N96" s="42"/>
     </row>
-    <row r="97" spans="2:14" ht="15.75">
+    <row r="97" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B97" s="34"/>
       <c r="C97" s="7"/>
       <c r="D97" s="28"/>
@@ -3981,12 +4025,12 @@
       </c>
       <c r="L97" s="22">
         <f t="shared" si="4"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M97" s="41"/>
       <c r="N97" s="42"/>
     </row>
-    <row r="98" spans="2:14" ht="15.75">
+    <row r="98" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B98" s="34"/>
       <c r="C98" s="7"/>
       <c r="D98" s="28"/>
@@ -4007,12 +4051,12 @@
       </c>
       <c r="L98" s="22">
         <f t="shared" ref="L98:L161" si="7">K98+L97</f>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M98" s="41"/>
       <c r="N98" s="42"/>
     </row>
-    <row r="99" spans="2:14" ht="15.75">
+    <row r="99" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B99" s="34"/>
       <c r="C99" s="7"/>
       <c r="D99" s="28"/>
@@ -4033,12 +4077,12 @@
       </c>
       <c r="L99" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M99" s="41"/>
       <c r="N99" s="42"/>
     </row>
-    <row r="100" spans="2:14" ht="15.75">
+    <row r="100" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B100" s="34"/>
       <c r="C100" s="7"/>
       <c r="D100" s="28"/>
@@ -4059,12 +4103,12 @@
       </c>
       <c r="L100" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M100" s="41"/>
       <c r="N100" s="42"/>
     </row>
-    <row r="101" spans="2:14" ht="15.75">
+    <row r="101" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B101" s="34"/>
       <c r="C101" s="7"/>
       <c r="D101" s="28"/>
@@ -4085,12 +4129,12 @@
       </c>
       <c r="L101" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M101" s="41"/>
       <c r="N101" s="42"/>
     </row>
-    <row r="102" spans="2:14" ht="15.75">
+    <row r="102" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B102" s="34"/>
       <c r="C102" s="7"/>
       <c r="D102" s="28"/>
@@ -4111,12 +4155,12 @@
       </c>
       <c r="L102" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M102" s="41"/>
       <c r="N102" s="42"/>
     </row>
-    <row r="103" spans="2:14" ht="15.75">
+    <row r="103" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B103" s="34"/>
       <c r="C103" s="7"/>
       <c r="D103" s="28"/>
@@ -4137,12 +4181,12 @@
       </c>
       <c r="L103" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M103" s="41"/>
       <c r="N103" s="42"/>
     </row>
-    <row r="104" spans="2:14" ht="15.75">
+    <row r="104" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B104" s="34"/>
       <c r="C104" s="7"/>
       <c r="D104" s="28"/>
@@ -4163,12 +4207,12 @@
       </c>
       <c r="L104" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M104" s="41"/>
       <c r="N104" s="42"/>
     </row>
-    <row r="105" spans="2:14" ht="15.75">
+    <row r="105" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B105" s="34"/>
       <c r="C105" s="7"/>
       <c r="D105" s="28"/>
@@ -4189,12 +4233,12 @@
       </c>
       <c r="L105" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M105" s="41"/>
       <c r="N105" s="42"/>
     </row>
-    <row r="106" spans="2:14" ht="15.75">
+    <row r="106" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B106" s="34"/>
       <c r="C106" s="7"/>
       <c r="D106" s="28"/>
@@ -4215,12 +4259,12 @@
       </c>
       <c r="L106" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M106" s="41"/>
       <c r="N106" s="42"/>
     </row>
-    <row r="107" spans="2:14" ht="15.75">
+    <row r="107" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="34"/>
       <c r="C107" s="7"/>
       <c r="D107" s="28"/>
@@ -4241,12 +4285,12 @@
       </c>
       <c r="L107" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M107" s="41"/>
       <c r="N107" s="42"/>
     </row>
-    <row r="108" spans="2:14" ht="15.75">
+    <row r="108" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="34"/>
       <c r="C108" s="7"/>
       <c r="D108" s="28"/>
@@ -4267,12 +4311,12 @@
       </c>
       <c r="L108" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M108" s="41"/>
       <c r="N108" s="42"/>
     </row>
-    <row r="109" spans="2:14" ht="15.75">
+    <row r="109" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B109" s="34"/>
       <c r="C109" s="7"/>
       <c r="D109" s="28"/>
@@ -4293,12 +4337,12 @@
       </c>
       <c r="L109" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M109" s="41"/>
       <c r="N109" s="42"/>
     </row>
-    <row r="110" spans="2:14" ht="15.75">
+    <row r="110" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B110" s="34"/>
       <c r="C110" s="7"/>
       <c r="D110" s="28"/>
@@ -4319,12 +4363,12 @@
       </c>
       <c r="L110" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M110" s="41"/>
       <c r="N110" s="42"/>
     </row>
-    <row r="111" spans="2:14" ht="15.75">
+    <row r="111" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B111" s="34"/>
       <c r="C111" s="7"/>
       <c r="D111" s="28"/>
@@ -4345,12 +4389,12 @@
       </c>
       <c r="L111" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M111" s="41"/>
       <c r="N111" s="42"/>
     </row>
-    <row r="112" spans="2:14" ht="15.75">
+    <row r="112" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B112" s="34"/>
       <c r="C112" s="7"/>
       <c r="D112" s="28"/>
@@ -4371,12 +4415,12 @@
       </c>
       <c r="L112" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M112" s="41"/>
       <c r="N112" s="42"/>
     </row>
-    <row r="113" spans="2:14" ht="15.75">
+    <row r="113" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B113" s="34"/>
       <c r="C113" s="7"/>
       <c r="D113" s="28"/>
@@ -4397,12 +4441,12 @@
       </c>
       <c r="L113" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M113" s="41"/>
       <c r="N113" s="42"/>
     </row>
-    <row r="114" spans="2:14" ht="15.75">
+    <row r="114" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B114" s="34"/>
       <c r="C114" s="7"/>
       <c r="D114" s="28"/>
@@ -4423,12 +4467,12 @@
       </c>
       <c r="L114" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M114" s="41"/>
       <c r="N114" s="42"/>
     </row>
-    <row r="115" spans="2:14" ht="15.75">
+    <row r="115" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B115" s="34"/>
       <c r="C115" s="7"/>
       <c r="D115" s="28"/>
@@ -4449,12 +4493,12 @@
       </c>
       <c r="L115" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M115" s="41"/>
       <c r="N115" s="42"/>
     </row>
-    <row r="116" spans="2:14" ht="15.75">
+    <row r="116" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B116" s="34"/>
       <c r="C116" s="7"/>
       <c r="D116" s="28"/>
@@ -4475,12 +4519,12 @@
       </c>
       <c r="L116" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M116" s="41"/>
       <c r="N116" s="42"/>
     </row>
-    <row r="117" spans="2:14" ht="15.75">
+    <row r="117" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B117" s="34"/>
       <c r="C117" s="7"/>
       <c r="D117" s="28"/>
@@ -4501,12 +4545,12 @@
       </c>
       <c r="L117" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M117" s="41"/>
       <c r="N117" s="42"/>
     </row>
-    <row r="118" spans="2:14" ht="15.75">
+    <row r="118" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B118" s="34"/>
       <c r="C118" s="7"/>
       <c r="D118" s="28"/>
@@ -4527,12 +4571,12 @@
       </c>
       <c r="L118" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M118" s="41"/>
       <c r="N118" s="42"/>
     </row>
-    <row r="119" spans="2:14" ht="15.75">
+    <row r="119" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B119" s="34"/>
       <c r="C119" s="7"/>
       <c r="D119" s="28"/>
@@ -4553,12 +4597,12 @@
       </c>
       <c r="L119" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M119" s="41"/>
       <c r="N119" s="42"/>
     </row>
-    <row r="120" spans="2:14" ht="15.75">
+    <row r="120" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B120" s="34"/>
       <c r="C120" s="7"/>
       <c r="D120" s="28"/>
@@ -4579,12 +4623,12 @@
       </c>
       <c r="L120" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M120" s="41"/>
       <c r="N120" s="42"/>
     </row>
-    <row r="121" spans="2:14" ht="15.75">
+    <row r="121" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B121" s="34"/>
       <c r="C121" s="7"/>
       <c r="D121" s="28"/>
@@ -4605,12 +4649,12 @@
       </c>
       <c r="L121" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M121" s="41"/>
       <c r="N121" s="42"/>
     </row>
-    <row r="122" spans="2:14" ht="15.75">
+    <row r="122" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B122" s="34"/>
       <c r="C122" s="7"/>
       <c r="D122" s="28"/>
@@ -4631,12 +4675,12 @@
       </c>
       <c r="L122" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M122" s="41"/>
       <c r="N122" s="42"/>
     </row>
-    <row r="123" spans="2:14" ht="15.75">
+    <row r="123" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B123" s="34"/>
       <c r="C123" s="7"/>
       <c r="D123" s="28"/>
@@ -4657,12 +4701,12 @@
       </c>
       <c r="L123" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M123" s="41"/>
       <c r="N123" s="42"/>
     </row>
-    <row r="124" spans="2:14" ht="15.75">
+    <row r="124" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B124" s="34"/>
       <c r="C124" s="7"/>
       <c r="D124" s="28"/>
@@ -4683,12 +4727,12 @@
       </c>
       <c r="L124" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M124" s="41"/>
       <c r="N124" s="42"/>
     </row>
-    <row r="125" spans="2:14" ht="15.75">
+    <row r="125" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B125" s="34"/>
       <c r="C125" s="7"/>
       <c r="D125" s="28"/>
@@ -4709,12 +4753,12 @@
       </c>
       <c r="L125" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M125" s="41"/>
       <c r="N125" s="42"/>
     </row>
-    <row r="126" spans="2:14" ht="15.75">
+    <row r="126" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B126" s="34"/>
       <c r="C126" s="7"/>
       <c r="D126" s="28"/>
@@ -4735,12 +4779,12 @@
       </c>
       <c r="L126" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M126" s="41"/>
       <c r="N126" s="42"/>
     </row>
-    <row r="127" spans="2:14" ht="15.75">
+    <row r="127" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B127" s="34"/>
       <c r="C127" s="7"/>
       <c r="D127" s="28"/>
@@ -4761,12 +4805,12 @@
       </c>
       <c r="L127" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M127" s="41"/>
       <c r="N127" s="42"/>
     </row>
-    <row r="128" spans="2:14" ht="15.75">
+    <row r="128" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B128" s="34"/>
       <c r="C128" s="7"/>
       <c r="D128" s="28"/>
@@ -4787,12 +4831,12 @@
       </c>
       <c r="L128" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M128" s="41"/>
       <c r="N128" s="42"/>
     </row>
-    <row r="129" spans="2:14" ht="15.75">
+    <row r="129" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B129" s="34"/>
       <c r="C129" s="7"/>
       <c r="D129" s="28"/>
@@ -4813,12 +4857,12 @@
       </c>
       <c r="L129" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M129" s="41"/>
       <c r="N129" s="42"/>
     </row>
-    <row r="130" spans="2:14" ht="15.75">
+    <row r="130" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B130" s="34"/>
       <c r="C130" s="7"/>
       <c r="D130" s="28"/>
@@ -4839,12 +4883,12 @@
       </c>
       <c r="L130" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M130" s="41"/>
       <c r="N130" s="42"/>
     </row>
-    <row r="131" spans="2:14" ht="15.75">
+    <row r="131" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B131" s="34"/>
       <c r="C131" s="7"/>
       <c r="D131" s="28"/>
@@ -4865,12 +4909,12 @@
       </c>
       <c r="L131" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M131" s="41"/>
       <c r="N131" s="42"/>
     </row>
-    <row r="132" spans="2:14" ht="15.75">
+    <row r="132" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B132" s="34"/>
       <c r="C132" s="7"/>
       <c r="D132" s="28"/>
@@ -4891,12 +4935,12 @@
       </c>
       <c r="L132" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M132" s="41"/>
       <c r="N132" s="42"/>
     </row>
-    <row r="133" spans="2:14" ht="15.75">
+    <row r="133" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B133" s="34"/>
       <c r="C133" s="7"/>
       <c r="D133" s="28"/>
@@ -4917,12 +4961,12 @@
       </c>
       <c r="L133" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M133" s="41"/>
       <c r="N133" s="42"/>
     </row>
-    <row r="134" spans="2:14" ht="15.75">
+    <row r="134" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B134" s="34"/>
       <c r="C134" s="7"/>
       <c r="D134" s="28"/>
@@ -4943,12 +4987,12 @@
       </c>
       <c r="L134" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M134" s="41"/>
       <c r="N134" s="42"/>
     </row>
-    <row r="135" spans="2:14" ht="15.75">
+    <row r="135" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B135" s="34"/>
       <c r="C135" s="7"/>
       <c r="D135" s="28"/>
@@ -4969,12 +5013,12 @@
       </c>
       <c r="L135" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M135" s="41"/>
       <c r="N135" s="42"/>
     </row>
-    <row r="136" spans="2:14" ht="15.75">
+    <row r="136" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B136" s="34"/>
       <c r="C136" s="7"/>
       <c r="D136" s="28"/>
@@ -4995,12 +5039,12 @@
       </c>
       <c r="L136" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M136" s="41"/>
       <c r="N136" s="42"/>
     </row>
-    <row r="137" spans="2:14" ht="15.75">
+    <row r="137" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B137" s="34"/>
       <c r="C137" s="7"/>
       <c r="D137" s="28"/>
@@ -5021,12 +5065,12 @@
       </c>
       <c r="L137" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M137" s="41"/>
       <c r="N137" s="42"/>
     </row>
-    <row r="138" spans="2:14" ht="15.75">
+    <row r="138" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B138" s="34"/>
       <c r="C138" s="7"/>
       <c r="D138" s="28"/>
@@ -5047,12 +5091,12 @@
       </c>
       <c r="L138" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M138" s="41"/>
       <c r="N138" s="42"/>
     </row>
-    <row r="139" spans="2:14" ht="15.75">
+    <row r="139" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B139" s="34"/>
       <c r="C139" s="7"/>
       <c r="D139" s="28"/>
@@ -5073,12 +5117,12 @@
       </c>
       <c r="L139" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M139" s="41"/>
       <c r="N139" s="42"/>
     </row>
-    <row r="140" spans="2:14" ht="15.75">
+    <row r="140" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B140" s="34"/>
       <c r="C140" s="7"/>
       <c r="D140" s="28"/>
@@ -5099,12 +5143,12 @@
       </c>
       <c r="L140" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M140" s="41"/>
       <c r="N140" s="42"/>
     </row>
-    <row r="141" spans="2:14" ht="15.75">
+    <row r="141" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B141" s="34"/>
       <c r="C141" s="7"/>
       <c r="D141" s="28"/>
@@ -5125,12 +5169,12 @@
       </c>
       <c r="L141" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M141" s="41"/>
       <c r="N141" s="42"/>
     </row>
-    <row r="142" spans="2:14" ht="15.75">
+    <row r="142" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B142" s="34"/>
       <c r="C142" s="7"/>
       <c r="D142" s="28"/>
@@ -5151,12 +5195,12 @@
       </c>
       <c r="L142" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M142" s="41"/>
       <c r="N142" s="42"/>
     </row>
-    <row r="143" spans="2:14" ht="15.75">
+    <row r="143" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B143" s="34"/>
       <c r="C143" s="7"/>
       <c r="D143" s="28"/>
@@ -5177,12 +5221,12 @@
       </c>
       <c r="L143" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M143" s="41"/>
       <c r="N143" s="42"/>
     </row>
-    <row r="144" spans="2:14" ht="15.75">
+    <row r="144" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B144" s="34"/>
       <c r="C144" s="7"/>
       <c r="D144" s="28"/>
@@ -5203,12 +5247,12 @@
       </c>
       <c r="L144" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M144" s="41"/>
       <c r="N144" s="42"/>
     </row>
-    <row r="145" spans="2:14" ht="15.75">
+    <row r="145" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B145" s="34"/>
       <c r="C145" s="7"/>
       <c r="D145" s="28"/>
@@ -5229,12 +5273,12 @@
       </c>
       <c r="L145" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M145" s="41"/>
       <c r="N145" s="42"/>
     </row>
-    <row r="146" spans="2:14" ht="15.75">
+    <row r="146" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B146" s="34"/>
       <c r="C146" s="7"/>
       <c r="D146" s="28"/>
@@ -5255,12 +5299,12 @@
       </c>
       <c r="L146" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M146" s="41"/>
       <c r="N146" s="42"/>
     </row>
-    <row r="147" spans="2:14" ht="15.75">
+    <row r="147" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B147" s="34"/>
       <c r="C147" s="7"/>
       <c r="D147" s="28"/>
@@ -5281,12 +5325,12 @@
       </c>
       <c r="L147" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M147" s="41"/>
       <c r="N147" s="42"/>
     </row>
-    <row r="148" spans="2:14" ht="15.75">
+    <row r="148" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B148" s="34"/>
       <c r="C148" s="7"/>
       <c r="D148" s="28"/>
@@ -5307,12 +5351,12 @@
       </c>
       <c r="L148" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M148" s="41"/>
       <c r="N148" s="42"/>
     </row>
-    <row r="149" spans="2:14" ht="15.75">
+    <row r="149" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B149" s="34"/>
       <c r="C149" s="7"/>
       <c r="D149" s="28"/>
@@ -5333,12 +5377,12 @@
       </c>
       <c r="L149" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M149" s="41"/>
       <c r="N149" s="42"/>
     </row>
-    <row r="150" spans="2:14" ht="15.75">
+    <row r="150" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B150" s="34"/>
       <c r="C150" s="7"/>
       <c r="D150" s="28"/>
@@ -5359,12 +5403,12 @@
       </c>
       <c r="L150" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M150" s="41"/>
       <c r="N150" s="42"/>
     </row>
-    <row r="151" spans="2:14" ht="15.75">
+    <row r="151" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B151" s="34"/>
       <c r="C151" s="7"/>
       <c r="D151" s="28"/>
@@ -5385,12 +5429,12 @@
       </c>
       <c r="L151" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M151" s="41"/>
       <c r="N151" s="42"/>
     </row>
-    <row r="152" spans="2:14" ht="15.75">
+    <row r="152" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B152" s="34"/>
       <c r="C152" s="7"/>
       <c r="D152" s="28"/>
@@ -5411,12 +5455,12 @@
       </c>
       <c r="L152" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M152" s="41"/>
       <c r="N152" s="42"/>
     </row>
-    <row r="153" spans="2:14" ht="15.75">
+    <row r="153" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B153" s="34"/>
       <c r="C153" s="7"/>
       <c r="D153" s="28"/>
@@ -5437,12 +5481,12 @@
       </c>
       <c r="L153" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M153" s="41"/>
       <c r="N153" s="42"/>
     </row>
-    <row r="154" spans="2:14" ht="15.75">
+    <row r="154" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B154" s="34"/>
       <c r="C154" s="7"/>
       <c r="D154" s="28"/>
@@ -5463,12 +5507,12 @@
       </c>
       <c r="L154" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M154" s="41"/>
       <c r="N154" s="42"/>
     </row>
-    <row r="155" spans="2:14" ht="15.75">
+    <row r="155" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B155" s="34"/>
       <c r="C155" s="7"/>
       <c r="D155" s="28"/>
@@ -5489,12 +5533,12 @@
       </c>
       <c r="L155" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M155" s="41"/>
       <c r="N155" s="42"/>
     </row>
-    <row r="156" spans="2:14" ht="15.75">
+    <row r="156" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B156" s="34"/>
       <c r="C156" s="7"/>
       <c r="D156" s="28"/>
@@ -5515,12 +5559,12 @@
       </c>
       <c r="L156" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M156" s="41"/>
       <c r="N156" s="42"/>
     </row>
-    <row r="157" spans="2:14" ht="15.75">
+    <row r="157" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B157" s="34"/>
       <c r="C157" s="7"/>
       <c r="D157" s="28"/>
@@ -5541,12 +5585,12 @@
       </c>
       <c r="L157" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M157" s="41"/>
       <c r="N157" s="42"/>
     </row>
-    <row r="158" spans="2:14" ht="15.75">
+    <row r="158" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B158" s="34"/>
       <c r="C158" s="7"/>
       <c r="D158" s="28"/>
@@ -5567,12 +5611,12 @@
       </c>
       <c r="L158" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M158" s="41"/>
       <c r="N158" s="42"/>
     </row>
-    <row r="159" spans="2:14" ht="15.75">
+    <row r="159" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B159" s="34"/>
       <c r="C159" s="7"/>
       <c r="D159" s="28"/>
@@ -5593,12 +5637,12 @@
       </c>
       <c r="L159" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M159" s="41"/>
       <c r="N159" s="42"/>
     </row>
-    <row r="160" spans="2:14" ht="15.75">
+    <row r="160" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B160" s="34"/>
       <c r="C160" s="7"/>
       <c r="D160" s="28"/>
@@ -5619,12 +5663,12 @@
       </c>
       <c r="L160" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M160" s="41"/>
       <c r="N160" s="42"/>
     </row>
-    <row r="161" spans="2:14" ht="15.75">
+    <row r="161" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B161" s="34"/>
       <c r="C161" s="7"/>
       <c r="D161" s="28"/>
@@ -5645,12 +5689,12 @@
       </c>
       <c r="L161" s="22">
         <f t="shared" si="7"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M161" s="41"/>
       <c r="N161" s="42"/>
     </row>
-    <row r="162" spans="2:14" ht="15.75">
+    <row r="162" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B162" s="34"/>
       <c r="C162" s="7"/>
       <c r="D162" s="28"/>
@@ -5671,12 +5715,12 @@
       </c>
       <c r="L162" s="22">
         <f t="shared" ref="L162:L198" si="10">K162+L161</f>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M162" s="41"/>
       <c r="N162" s="42"/>
     </row>
-    <row r="163" spans="2:14" ht="15.75">
+    <row r="163" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B163" s="34"/>
       <c r="C163" s="7"/>
       <c r="D163" s="28"/>
@@ -5697,12 +5741,12 @@
       </c>
       <c r="L163" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M163" s="41"/>
       <c r="N163" s="42"/>
     </row>
-    <row r="164" spans="2:14" ht="15.75">
+    <row r="164" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B164" s="34"/>
       <c r="C164" s="7"/>
       <c r="D164" s="28"/>
@@ -5723,12 +5767,12 @@
       </c>
       <c r="L164" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M164" s="41"/>
       <c r="N164" s="42"/>
     </row>
-    <row r="165" spans="2:14" ht="15.75">
+    <row r="165" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B165" s="34"/>
       <c r="C165" s="7"/>
       <c r="D165" s="28"/>
@@ -5749,12 +5793,12 @@
       </c>
       <c r="L165" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M165" s="41"/>
       <c r="N165" s="42"/>
     </row>
-    <row r="166" spans="2:14" ht="15.75">
+    <row r="166" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B166" s="34"/>
       <c r="C166" s="7"/>
       <c r="D166" s="28"/>
@@ -5775,12 +5819,12 @@
       </c>
       <c r="L166" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M166" s="41"/>
       <c r="N166" s="42"/>
     </row>
-    <row r="167" spans="2:14" ht="15.75">
+    <row r="167" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B167" s="34"/>
       <c r="C167" s="7"/>
       <c r="D167" s="28"/>
@@ -5801,12 +5845,12 @@
       </c>
       <c r="L167" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M167" s="41"/>
       <c r="N167" s="42"/>
     </row>
-    <row r="168" spans="2:14" ht="15.75">
+    <row r="168" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B168" s="34"/>
       <c r="C168" s="7"/>
       <c r="D168" s="28"/>
@@ -5827,12 +5871,12 @@
       </c>
       <c r="L168" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M168" s="41"/>
       <c r="N168" s="42"/>
     </row>
-    <row r="169" spans="2:14" ht="15.75">
+    <row r="169" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B169" s="34"/>
       <c r="C169" s="7"/>
       <c r="D169" s="28"/>
@@ -5853,12 +5897,12 @@
       </c>
       <c r="L169" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M169" s="41"/>
       <c r="N169" s="42"/>
     </row>
-    <row r="170" spans="2:14" ht="15.75">
+    <row r="170" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B170" s="34"/>
       <c r="C170" s="7"/>
       <c r="D170" s="28"/>
@@ -5879,12 +5923,12 @@
       </c>
       <c r="L170" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M170" s="41"/>
       <c r="N170" s="42"/>
     </row>
-    <row r="171" spans="2:14" ht="15.75">
+    <row r="171" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B171" s="34"/>
       <c r="C171" s="7"/>
       <c r="D171" s="28"/>
@@ -5905,12 +5949,12 @@
       </c>
       <c r="L171" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M171" s="41"/>
       <c r="N171" s="42"/>
     </row>
-    <row r="172" spans="2:14" ht="15.75">
+    <row r="172" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B172" s="34"/>
       <c r="C172" s="7"/>
       <c r="D172" s="28"/>
@@ -5931,12 +5975,12 @@
       </c>
       <c r="L172" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M172" s="41"/>
       <c r="N172" s="42"/>
     </row>
-    <row r="173" spans="2:14" ht="15.75">
+    <row r="173" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B173" s="34"/>
       <c r="C173" s="7"/>
       <c r="D173" s="28"/>
@@ -5957,12 +6001,12 @@
       </c>
       <c r="L173" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M173" s="41"/>
       <c r="N173" s="42"/>
     </row>
-    <row r="174" spans="2:14" ht="15.75">
+    <row r="174" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B174" s="34"/>
       <c r="C174" s="7"/>
       <c r="D174" s="28"/>
@@ -5983,12 +6027,12 @@
       </c>
       <c r="L174" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M174" s="41"/>
       <c r="N174" s="42"/>
     </row>
-    <row r="175" spans="2:14" ht="15.75">
+    <row r="175" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B175" s="34"/>
       <c r="C175" s="7"/>
       <c r="D175" s="28"/>
@@ -6009,12 +6053,12 @@
       </c>
       <c r="L175" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M175" s="41"/>
       <c r="N175" s="42"/>
     </row>
-    <row r="176" spans="2:14" ht="15.75">
+    <row r="176" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B176" s="34"/>
       <c r="C176" s="7"/>
       <c r="D176" s="28"/>
@@ -6035,12 +6079,12 @@
       </c>
       <c r="L176" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M176" s="41"/>
       <c r="N176" s="42"/>
     </row>
-    <row r="177" spans="2:14" ht="15.75">
+    <row r="177" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B177" s="34"/>
       <c r="C177" s="7"/>
       <c r="D177" s="28"/>
@@ -6061,12 +6105,12 @@
       </c>
       <c r="L177" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M177" s="41"/>
       <c r="N177" s="42"/>
     </row>
-    <row r="178" spans="2:14" ht="15.75">
+    <row r="178" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B178" s="34"/>
       <c r="C178" s="7"/>
       <c r="D178" s="28"/>
@@ -6087,12 +6131,12 @@
       </c>
       <c r="L178" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M178" s="41"/>
       <c r="N178" s="42"/>
     </row>
-    <row r="179" spans="2:14" ht="15.75">
+    <row r="179" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B179" s="34"/>
       <c r="C179" s="7"/>
       <c r="D179" s="28"/>
@@ -6113,12 +6157,12 @@
       </c>
       <c r="L179" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M179" s="41"/>
       <c r="N179" s="42"/>
     </row>
-    <row r="180" spans="2:14" ht="15.75">
+    <row r="180" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B180" s="34"/>
       <c r="C180" s="7"/>
       <c r="D180" s="28"/>
@@ -6139,12 +6183,12 @@
       </c>
       <c r="L180" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M180" s="41"/>
       <c r="N180" s="42"/>
     </row>
-    <row r="181" spans="2:14" ht="15.75">
+    <row r="181" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B181" s="34"/>
       <c r="C181" s="7"/>
       <c r="D181" s="28"/>
@@ -6165,12 +6209,12 @@
       </c>
       <c r="L181" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M181" s="41"/>
       <c r="N181" s="42"/>
     </row>
-    <row r="182" spans="2:14" ht="15.75">
+    <row r="182" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B182" s="34"/>
       <c r="C182" s="7"/>
       <c r="D182" s="28"/>
@@ -6191,12 +6235,12 @@
       </c>
       <c r="L182" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M182" s="41"/>
       <c r="N182" s="42"/>
     </row>
-    <row r="183" spans="2:14" ht="15.75">
+    <row r="183" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B183" s="34"/>
       <c r="C183" s="7"/>
       <c r="D183" s="28"/>
@@ -6217,12 +6261,12 @@
       </c>
       <c r="L183" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M183" s="41"/>
       <c r="N183" s="42"/>
     </row>
-    <row r="184" spans="2:14" ht="15.75">
+    <row r="184" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B184" s="34"/>
       <c r="C184" s="7"/>
       <c r="D184" s="28"/>
@@ -6243,12 +6287,12 @@
       </c>
       <c r="L184" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M184" s="41"/>
       <c r="N184" s="42"/>
     </row>
-    <row r="185" spans="2:14" ht="15.75">
+    <row r="185" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B185" s="34"/>
       <c r="C185" s="7"/>
       <c r="D185" s="28"/>
@@ -6269,12 +6313,12 @@
       </c>
       <c r="L185" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M185" s="41"/>
       <c r="N185" s="42"/>
     </row>
-    <row r="186" spans="2:14" ht="15.75">
+    <row r="186" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B186" s="34"/>
       <c r="C186" s="7"/>
       <c r="D186" s="28"/>
@@ -6295,12 +6339,12 @@
       </c>
       <c r="L186" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M186" s="41"/>
       <c r="N186" s="42"/>
     </row>
-    <row r="187" spans="2:14" ht="15.75">
+    <row r="187" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B187" s="34"/>
       <c r="C187" s="7"/>
       <c r="D187" s="28"/>
@@ -6321,12 +6365,12 @@
       </c>
       <c r="L187" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M187" s="41"/>
       <c r="N187" s="42"/>
     </row>
-    <row r="188" spans="2:14" ht="15.75">
+    <row r="188" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B188" s="34"/>
       <c r="C188" s="7"/>
       <c r="D188" s="28"/>
@@ -6347,12 +6391,12 @@
       </c>
       <c r="L188" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M188" s="41"/>
       <c r="N188" s="42"/>
     </row>
-    <row r="189" spans="2:14" ht="15.75">
+    <row r="189" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B189" s="34"/>
       <c r="C189" s="7"/>
       <c r="D189" s="28"/>
@@ -6373,12 +6417,12 @@
       </c>
       <c r="L189" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M189" s="41"/>
       <c r="N189" s="42"/>
     </row>
-    <row r="190" spans="2:14" ht="15.75">
+    <row r="190" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B190" s="34"/>
       <c r="C190" s="7"/>
       <c r="D190" s="28"/>
@@ -6399,12 +6443,12 @@
       </c>
       <c r="L190" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M190" s="41"/>
       <c r="N190" s="42"/>
     </row>
-    <row r="191" spans="2:14" ht="15.75">
+    <row r="191" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B191" s="34"/>
       <c r="C191" s="7"/>
       <c r="D191" s="28"/>
@@ -6425,12 +6469,12 @@
       </c>
       <c r="L191" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M191" s="41"/>
       <c r="N191" s="42"/>
     </row>
-    <row r="192" spans="2:14" ht="15.75">
+    <row r="192" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B192" s="34"/>
       <c r="C192" s="7"/>
       <c r="D192" s="28"/>
@@ -6451,12 +6495,12 @@
       </c>
       <c r="L192" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M192" s="41"/>
       <c r="N192" s="42"/>
     </row>
-    <row r="193" spans="2:14" ht="15.75">
+    <row r="193" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B193" s="34"/>
       <c r="C193" s="7"/>
       <c r="D193" s="28"/>
@@ -6477,12 +6521,12 @@
       </c>
       <c r="L193" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M193" s="41"/>
       <c r="N193" s="42"/>
     </row>
-    <row r="194" spans="2:14" ht="15.75">
+    <row r="194" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B194" s="34"/>
       <c r="C194" s="7"/>
       <c r="D194" s="28"/>
@@ -6503,12 +6547,12 @@
       </c>
       <c r="L194" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M194" s="41"/>
       <c r="N194" s="42"/>
     </row>
-    <row r="195" spans="2:14" ht="15.75">
+    <row r="195" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B195" s="34"/>
       <c r="C195" s="7"/>
       <c r="D195" s="28"/>
@@ -6529,12 +6573,12 @@
       </c>
       <c r="L195" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M195" s="41"/>
       <c r="N195" s="42"/>
     </row>
-    <row r="196" spans="2:14" ht="15.75">
+    <row r="196" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B196" s="34"/>
       <c r="C196" s="7"/>
       <c r="D196" s="28"/>
@@ -6555,12 +6599,12 @@
       </c>
       <c r="L196" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M196" s="41"/>
       <c r="N196" s="42"/>
     </row>
-    <row r="197" spans="2:14" ht="15.75">
+    <row r="197" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B197" s="34"/>
       <c r="C197" s="7"/>
       <c r="D197" s="28"/>
@@ -6581,12 +6625,12 @@
       </c>
       <c r="L197" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M197" s="41"/>
       <c r="N197" s="42"/>
     </row>
-    <row r="198" spans="2:14" ht="15.75">
+    <row r="198" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B198" s="34"/>
       <c r="C198" s="7"/>
       <c r="D198" s="28"/>
@@ -6607,172 +6651,25 @@
       </c>
       <c r="L198" s="22">
         <f t="shared" si="10"/>
-        <v>97.51</v>
+        <v>97.01</v>
       </c>
       <c r="M198" s="41"/>
       <c r="N198" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="195">
-    <mergeCell ref="M195:N195"/>
-    <mergeCell ref="M196:N196"/>
-    <mergeCell ref="M197:N197"/>
-    <mergeCell ref="M198:N198"/>
-    <mergeCell ref="M190:N190"/>
-    <mergeCell ref="M191:N191"/>
-    <mergeCell ref="M192:N192"/>
-    <mergeCell ref="M193:N193"/>
-    <mergeCell ref="M194:N194"/>
-    <mergeCell ref="M185:N185"/>
-    <mergeCell ref="M186:N186"/>
-    <mergeCell ref="M187:N187"/>
-    <mergeCell ref="M188:N188"/>
-    <mergeCell ref="M189:N189"/>
-    <mergeCell ref="M180:N180"/>
-    <mergeCell ref="M181:N181"/>
-    <mergeCell ref="M182:N182"/>
-    <mergeCell ref="M183:N183"/>
-    <mergeCell ref="M184:N184"/>
-    <mergeCell ref="M175:N175"/>
-    <mergeCell ref="M176:N176"/>
-    <mergeCell ref="M177:N177"/>
-    <mergeCell ref="M178:N178"/>
-    <mergeCell ref="M179:N179"/>
-    <mergeCell ref="M170:N170"/>
-    <mergeCell ref="M171:N171"/>
-    <mergeCell ref="M172:N172"/>
-    <mergeCell ref="M173:N173"/>
-    <mergeCell ref="M174:N174"/>
-    <mergeCell ref="M165:N165"/>
-    <mergeCell ref="M166:N166"/>
-    <mergeCell ref="M167:N167"/>
-    <mergeCell ref="M168:N168"/>
-    <mergeCell ref="M169:N169"/>
-    <mergeCell ref="M160:N160"/>
-    <mergeCell ref="M161:N161"/>
-    <mergeCell ref="M162:N162"/>
-    <mergeCell ref="M163:N163"/>
-    <mergeCell ref="M164:N164"/>
-    <mergeCell ref="M155:N155"/>
-    <mergeCell ref="M156:N156"/>
-    <mergeCell ref="M157:N157"/>
-    <mergeCell ref="M158:N158"/>
-    <mergeCell ref="M159:N159"/>
-    <mergeCell ref="M150:N150"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="M152:N152"/>
-    <mergeCell ref="M153:N153"/>
-    <mergeCell ref="M154:N154"/>
-    <mergeCell ref="M145:N145"/>
-    <mergeCell ref="M146:N146"/>
-    <mergeCell ref="M147:N147"/>
-    <mergeCell ref="M148:N148"/>
-    <mergeCell ref="M149:N149"/>
-    <mergeCell ref="M140:N140"/>
-    <mergeCell ref="M141:N141"/>
-    <mergeCell ref="M142:N142"/>
-    <mergeCell ref="M143:N143"/>
-    <mergeCell ref="M144:N144"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="M136:N136"/>
-    <mergeCell ref="M137:N137"/>
-    <mergeCell ref="M138:N138"/>
-    <mergeCell ref="M139:N139"/>
-    <mergeCell ref="M130:N130"/>
-    <mergeCell ref="M131:N131"/>
-    <mergeCell ref="M132:N132"/>
-    <mergeCell ref="M133:N133"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="M125:N125"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="M127:N127"/>
-    <mergeCell ref="M128:N128"/>
-    <mergeCell ref="M129:N129"/>
-    <mergeCell ref="M120:N120"/>
-    <mergeCell ref="M121:N121"/>
-    <mergeCell ref="M122:N122"/>
-    <mergeCell ref="M123:N123"/>
-    <mergeCell ref="M124:N124"/>
-    <mergeCell ref="M115:N115"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="M117:N117"/>
-    <mergeCell ref="M118:N118"/>
-    <mergeCell ref="M119:N119"/>
-    <mergeCell ref="M110:N110"/>
-    <mergeCell ref="M111:N111"/>
-    <mergeCell ref="M112:N112"/>
-    <mergeCell ref="M113:N113"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="M109:N109"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="M102:N102"/>
-    <mergeCell ref="M103:N103"/>
-    <mergeCell ref="M104:N104"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="M88:N88"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="M76:N76"/>
-    <mergeCell ref="M77:N77"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D2:I3"/>
+    <mergeCell ref="K2:N3"/>
     <mergeCell ref="M35:N35"/>
     <mergeCell ref="M36:N36"/>
     <mergeCell ref="M37:N37"/>
@@ -6797,18 +6694,165 @@
     <mergeCell ref="M33:N33"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D2:I3"/>
-    <mergeCell ref="K2:N3"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="M109:N109"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="M102:N102"/>
+    <mergeCell ref="M103:N103"/>
+    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="M119:N119"/>
+    <mergeCell ref="M110:N110"/>
+    <mergeCell ref="M111:N111"/>
+    <mergeCell ref="M112:N112"/>
+    <mergeCell ref="M113:N113"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="M125:N125"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="M127:N127"/>
+    <mergeCell ref="M128:N128"/>
+    <mergeCell ref="M129:N129"/>
+    <mergeCell ref="M120:N120"/>
+    <mergeCell ref="M121:N121"/>
+    <mergeCell ref="M122:N122"/>
+    <mergeCell ref="M123:N123"/>
+    <mergeCell ref="M124:N124"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="M136:N136"/>
+    <mergeCell ref="M137:N137"/>
+    <mergeCell ref="M138:N138"/>
+    <mergeCell ref="M139:N139"/>
+    <mergeCell ref="M130:N130"/>
+    <mergeCell ref="M131:N131"/>
+    <mergeCell ref="M132:N132"/>
+    <mergeCell ref="M133:N133"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="M145:N145"/>
+    <mergeCell ref="M146:N146"/>
+    <mergeCell ref="M147:N147"/>
+    <mergeCell ref="M148:N148"/>
+    <mergeCell ref="M149:N149"/>
+    <mergeCell ref="M140:N140"/>
+    <mergeCell ref="M141:N141"/>
+    <mergeCell ref="M142:N142"/>
+    <mergeCell ref="M143:N143"/>
+    <mergeCell ref="M144:N144"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="M156:N156"/>
+    <mergeCell ref="M157:N157"/>
+    <mergeCell ref="M158:N158"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="M150:N150"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="M152:N152"/>
+    <mergeCell ref="M153:N153"/>
+    <mergeCell ref="M154:N154"/>
+    <mergeCell ref="M165:N165"/>
+    <mergeCell ref="M166:N166"/>
+    <mergeCell ref="M167:N167"/>
+    <mergeCell ref="M168:N168"/>
+    <mergeCell ref="M169:N169"/>
+    <mergeCell ref="M160:N160"/>
+    <mergeCell ref="M161:N161"/>
+    <mergeCell ref="M162:N162"/>
+    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="M164:N164"/>
+    <mergeCell ref="M175:N175"/>
+    <mergeCell ref="M176:N176"/>
+    <mergeCell ref="M177:N177"/>
+    <mergeCell ref="M178:N178"/>
+    <mergeCell ref="M179:N179"/>
+    <mergeCell ref="M170:N170"/>
+    <mergeCell ref="M171:N171"/>
+    <mergeCell ref="M172:N172"/>
+    <mergeCell ref="M173:N173"/>
+    <mergeCell ref="M174:N174"/>
+    <mergeCell ref="M185:N185"/>
+    <mergeCell ref="M186:N186"/>
+    <mergeCell ref="M187:N187"/>
+    <mergeCell ref="M188:N188"/>
+    <mergeCell ref="M189:N189"/>
+    <mergeCell ref="M180:N180"/>
+    <mergeCell ref="M181:N181"/>
+    <mergeCell ref="M182:N182"/>
+    <mergeCell ref="M183:N183"/>
+    <mergeCell ref="M184:N184"/>
+    <mergeCell ref="M195:N195"/>
+    <mergeCell ref="M196:N196"/>
+    <mergeCell ref="M197:N197"/>
+    <mergeCell ref="M198:N198"/>
+    <mergeCell ref="M190:N190"/>
+    <mergeCell ref="M191:N191"/>
+    <mergeCell ref="M192:N192"/>
+    <mergeCell ref="M193:N193"/>
+    <mergeCell ref="M194:N194"/>
   </mergeCells>
   <conditionalFormatting sqref="J11:J198">
     <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="V">
@@ -6862,14 +6906,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="4" customWidth="1"/>
@@ -6883,7 +6927,7 @@
     <col min="14" max="14" width="11.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -6891,47 +6935,47 @@
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickTop="1">
-      <c r="B2" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="43" t="s">
+    <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="44"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="54"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="44"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="54"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="64"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="46"/>
-    </row>
-    <row r="4" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
-      <c r="B4" s="47" t="s">
+      <c r="K3" s="55"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="56"/>
+    </row>
+    <row r="4" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
@@ -6963,11 +7007,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="20.25" thickTop="1" thickBot="1">
-      <c r="B5" s="49" t="s">
+    <row r="5" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="50"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="33">
         <v>98.61</v>
       </c>
@@ -7008,41 +7052,41 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickTop="1"/>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1"/>
-    <row r="8" spans="1:14" ht="15.75" thickTop="1">
-      <c r="B8" s="56" t="s">
+    <row r="6" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="58"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B9" s="59"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="61"/>
-    </row>
-    <row r="10" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="45"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="48"/>
+    </row>
+    <row r="10" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
         <v>1</v>
       </c>
@@ -7076,12 +7120,12 @@
       <c r="L10" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="62" t="s">
+      <c r="M10" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="63"/>
-    </row>
-    <row r="11" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
+      <c r="N10" s="50"/>
+    </row>
+    <row r="11" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
         <v>26</v>
       </c>
@@ -7109,10 +7153,10 @@
         <f>D5+K11</f>
         <v>98.61</v>
       </c>
-      <c r="M11" s="64"/>
-      <c r="N11" s="65"/>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" thickTop="1">
+      <c r="M11" s="51"/>
+      <c r="N11" s="52"/>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B12" s="34"/>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
@@ -7138,7 +7182,7 @@
       <c r="M12" s="41"/>
       <c r="N12" s="42"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75">
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="34"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
@@ -7164,7 +7208,7 @@
       <c r="M13" s="41"/>
       <c r="N13" s="42"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75">
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="35"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
@@ -7190,7 +7234,7 @@
       <c r="M14" s="41"/>
       <c r="N14" s="42"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75">
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="34"/>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
@@ -7216,7 +7260,7 @@
       <c r="M15" s="41"/>
       <c r="N15" s="42"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75">
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="34"/>
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
@@ -7242,7 +7286,7 @@
       <c r="M16" s="41"/>
       <c r="N16" s="42"/>
     </row>
-    <row r="17" spans="1:14" ht="16.5" thickBot="1">
+    <row r="17" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="34"/>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
@@ -7268,7 +7312,7 @@
       <c r="M17" s="41"/>
       <c r="N17" s="42"/>
     </row>
-    <row r="18" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
+    <row r="18" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>27</v>
       </c>
@@ -7297,7 +7341,7 @@
       <c r="M18" s="41"/>
       <c r="N18" s="42"/>
     </row>
-    <row r="19" spans="1:14" ht="16.5" thickTop="1">
+    <row r="19" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B19" s="34"/>
       <c r="C19" s="26"/>
       <c r="D19" s="28"/>
@@ -7323,7 +7367,7 @@
       <c r="M19" s="41"/>
       <c r="N19" s="42"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75">
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="34"/>
       <c r="C20" s="26"/>
       <c r="D20" s="28"/>
@@ -7349,7 +7393,7 @@
       <c r="M20" s="41"/>
       <c r="N20" s="42"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75">
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="34"/>
       <c r="C21" s="26"/>
       <c r="D21" s="28"/>
@@ -7375,7 +7419,7 @@
       <c r="M21" s="41"/>
       <c r="N21" s="42"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75">
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="34"/>
       <c r="C22" s="26"/>
       <c r="D22" s="28"/>
@@ -7401,7 +7445,7 @@
       <c r="M22" s="41"/>
       <c r="N22" s="42"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75">
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="34"/>
       <c r="C23" s="26"/>
       <c r="D23" s="28"/>
@@ -7427,7 +7471,7 @@
       <c r="M23" s="41"/>
       <c r="N23" s="42"/>
     </row>
-    <row r="24" spans="1:14" ht="16.5" thickBot="1">
+    <row r="24" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="34"/>
       <c r="C24" s="26"/>
       <c r="D24" s="28"/>
@@ -7453,7 +7497,7 @@
       <c r="M24" s="41"/>
       <c r="N24" s="42"/>
     </row>
-    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
+    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
         <v>28</v>
       </c>
@@ -7482,7 +7526,7 @@
       <c r="M25" s="41"/>
       <c r="N25" s="42"/>
     </row>
-    <row r="26" spans="1:14" ht="16.5" thickTop="1">
+    <row r="26" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B26" s="36"/>
       <c r="C26" s="26"/>
       <c r="D26" s="28"/>
@@ -7508,7 +7552,7 @@
       <c r="M26" s="41"/>
       <c r="N26" s="42"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75">
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="34"/>
       <c r="C27" s="26"/>
       <c r="D27" s="28"/>
@@ -7534,7 +7578,7 @@
       <c r="M27" s="41"/>
       <c r="N27" s="42"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75">
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="34"/>
       <c r="C28" s="26"/>
       <c r="D28" s="28"/>
@@ -7560,7 +7604,7 @@
       <c r="M28" s="41"/>
       <c r="N28" s="42"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75">
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="34"/>
       <c r="C29" s="26"/>
       <c r="D29" s="28"/>
@@ -7586,7 +7630,7 @@
       <c r="M29" s="41"/>
       <c r="N29" s="42"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75">
+    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="34"/>
       <c r="C30" s="26"/>
       <c r="D30" s="28"/>
@@ -7612,7 +7656,7 @@
       <c r="M30" s="41"/>
       <c r="N30" s="42"/>
     </row>
-    <row r="31" spans="1:14" ht="16.5" thickBot="1">
+    <row r="31" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="34"/>
       <c r="C31" s="26"/>
       <c r="D31" s="28"/>
@@ -7638,7 +7682,7 @@
       <c r="M31" s="41"/>
       <c r="N31" s="42"/>
     </row>
-    <row r="32" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
+    <row r="32" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
         <v>29</v>
       </c>
@@ -7667,7 +7711,7 @@
       <c r="M32" s="41"/>
       <c r="N32" s="42"/>
     </row>
-    <row r="33" spans="2:14" ht="16.5" thickTop="1">
+    <row r="33" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B33" s="34"/>
       <c r="C33" s="26"/>
       <c r="D33" s="28"/>
@@ -7693,7 +7737,7 @@
       <c r="M33" s="41"/>
       <c r="N33" s="42"/>
     </row>
-    <row r="34" spans="2:14" ht="15.75">
+    <row r="34" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="34"/>
       <c r="C34" s="26"/>
       <c r="D34" s="28"/>
@@ -7719,7 +7763,7 @@
       <c r="M34" s="41"/>
       <c r="N34" s="42"/>
     </row>
-    <row r="35" spans="2:14" ht="15.75">
+    <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="34"/>
       <c r="C35" s="26"/>
       <c r="D35" s="28"/>
@@ -7745,7 +7789,7 @@
       <c r="M35" s="41"/>
       <c r="N35" s="42"/>
     </row>
-    <row r="36" spans="2:14" ht="15.75">
+    <row r="36" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="34"/>
       <c r="C36" s="26"/>
       <c r="D36" s="28"/>
@@ -7771,7 +7815,7 @@
       <c r="M36" s="41"/>
       <c r="N36" s="42"/>
     </row>
-    <row r="37" spans="2:14" ht="15.75">
+    <row r="37" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="34"/>
       <c r="C37" s="26"/>
       <c r="D37" s="28"/>
@@ -7797,7 +7841,7 @@
       <c r="M37" s="41"/>
       <c r="N37" s="42"/>
     </row>
-    <row r="38" spans="2:14" ht="15.75">
+    <row r="38" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="34"/>
       <c r="C38" s="26"/>
       <c r="D38" s="28"/>
@@ -7823,7 +7867,7 @@
       <c r="M38" s="41"/>
       <c r="N38" s="42"/>
     </row>
-    <row r="39" spans="2:14" ht="15.75">
+    <row r="39" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="34"/>
       <c r="C39" s="26"/>
       <c r="D39" s="28"/>
@@ -7849,7 +7893,7 @@
       <c r="M39" s="41"/>
       <c r="N39" s="42"/>
     </row>
-    <row r="40" spans="2:14" ht="15.75">
+    <row r="40" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="34"/>
       <c r="C40" s="26"/>
       <c r="D40" s="28"/>
@@ -7875,7 +7919,7 @@
       <c r="M40" s="41"/>
       <c r="N40" s="42"/>
     </row>
-    <row r="41" spans="2:14" ht="15.75">
+    <row r="41" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="34"/>
       <c r="C41" s="26"/>
       <c r="D41" s="28"/>
@@ -7901,7 +7945,7 @@
       <c r="M41" s="41"/>
       <c r="N41" s="42"/>
     </row>
-    <row r="42" spans="2:14" ht="15.75">
+    <row r="42" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="34"/>
       <c r="C42" s="26"/>
       <c r="D42" s="28"/>
@@ -7927,7 +7971,7 @@
       <c r="M42" s="41"/>
       <c r="N42" s="42"/>
     </row>
-    <row r="43" spans="2:14" ht="15.75">
+    <row r="43" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="34"/>
       <c r="C43" s="26"/>
       <c r="D43" s="28"/>
@@ -7953,7 +7997,7 @@
       <c r="M43" s="41"/>
       <c r="N43" s="42"/>
     </row>
-    <row r="44" spans="2:14" ht="15.75">
+    <row r="44" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="34"/>
       <c r="C44" s="26"/>
       <c r="D44" s="28"/>
@@ -7979,7 +8023,7 @@
       <c r="M44" s="41"/>
       <c r="N44" s="42"/>
     </row>
-    <row r="45" spans="2:14" ht="15.75">
+    <row r="45" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="34"/>
       <c r="C45" s="26"/>
       <c r="D45" s="28"/>
@@ -8005,7 +8049,7 @@
       <c r="M45" s="41"/>
       <c r="N45" s="42"/>
     </row>
-    <row r="46" spans="2:14" ht="15.75">
+    <row r="46" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="34"/>
       <c r="C46" s="26"/>
       <c r="D46" s="28"/>
@@ -8031,7 +8075,7 @@
       <c r="M46" s="41"/>
       <c r="N46" s="42"/>
     </row>
-    <row r="47" spans="2:14" ht="15.75">
+    <row r="47" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="34"/>
       <c r="C47" s="26"/>
       <c r="D47" s="28"/>
@@ -8057,7 +8101,7 @@
       <c r="M47" s="41"/>
       <c r="N47" s="42"/>
     </row>
-    <row r="48" spans="2:14" ht="15.75">
+    <row r="48" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="34"/>
       <c r="C48" s="26"/>
       <c r="D48" s="28"/>
@@ -8083,7 +8127,7 @@
       <c r="M48" s="41"/>
       <c r="N48" s="42"/>
     </row>
-    <row r="49" spans="2:14" ht="15.75">
+    <row r="49" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="34"/>
       <c r="C49" s="26"/>
       <c r="D49" s="28"/>
@@ -8109,7 +8153,7 @@
       <c r="M49" s="41"/>
       <c r="N49" s="42"/>
     </row>
-    <row r="50" spans="2:14" ht="15.75">
+    <row r="50" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="34"/>
       <c r="C50" s="26"/>
       <c r="D50" s="28"/>
@@ -8135,7 +8179,7 @@
       <c r="M50" s="41"/>
       <c r="N50" s="42"/>
     </row>
-    <row r="51" spans="2:14" ht="15.75">
+    <row r="51" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="34"/>
       <c r="C51" s="26"/>
       <c r="D51" s="28"/>
@@ -8161,7 +8205,7 @@
       <c r="M51" s="41"/>
       <c r="N51" s="42"/>
     </row>
-    <row r="52" spans="2:14" ht="15.75">
+    <row r="52" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="34"/>
       <c r="C52" s="26"/>
       <c r="D52" s="28"/>
@@ -8187,7 +8231,7 @@
       <c r="M52" s="41"/>
       <c r="N52" s="42"/>
     </row>
-    <row r="53" spans="2:14" ht="15.75">
+    <row r="53" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="34"/>
       <c r="C53" s="26"/>
       <c r="D53" s="28"/>
@@ -8213,7 +8257,7 @@
       <c r="M53" s="41"/>
       <c r="N53" s="42"/>
     </row>
-    <row r="54" spans="2:14" ht="15.75">
+    <row r="54" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="34"/>
       <c r="C54" s="26"/>
       <c r="D54" s="28"/>
@@ -8239,7 +8283,7 @@
       <c r="M54" s="41"/>
       <c r="N54" s="42"/>
     </row>
-    <row r="55" spans="2:14" ht="15.75">
+    <row r="55" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="34"/>
       <c r="C55" s="26"/>
       <c r="D55" s="28"/>
@@ -8265,7 +8309,7 @@
       <c r="M55" s="41"/>
       <c r="N55" s="42"/>
     </row>
-    <row r="56" spans="2:14" ht="15.75">
+    <row r="56" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="34"/>
       <c r="C56" s="26"/>
       <c r="D56" s="28"/>
@@ -8291,7 +8335,7 @@
       <c r="M56" s="41"/>
       <c r="N56" s="42"/>
     </row>
-    <row r="57" spans="2:14" ht="15.75">
+    <row r="57" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="34"/>
       <c r="C57" s="26"/>
       <c r="D57" s="28"/>
@@ -8317,7 +8361,7 @@
       <c r="M57" s="41"/>
       <c r="N57" s="42"/>
     </row>
-    <row r="58" spans="2:14" ht="15.75">
+    <row r="58" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="34"/>
       <c r="C58" s="26"/>
       <c r="D58" s="28"/>
@@ -8343,7 +8387,7 @@
       <c r="M58" s="41"/>
       <c r="N58" s="42"/>
     </row>
-    <row r="59" spans="2:14" ht="15.75">
+    <row r="59" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="34"/>
       <c r="C59" s="26"/>
       <c r="D59" s="28"/>
@@ -8369,7 +8413,7 @@
       <c r="M59" s="41"/>
       <c r="N59" s="42"/>
     </row>
-    <row r="60" spans="2:14" ht="15.75">
+    <row r="60" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="34"/>
       <c r="C60" s="26"/>
       <c r="D60" s="28"/>
@@ -8395,7 +8439,7 @@
       <c r="M60" s="41"/>
       <c r="N60" s="42"/>
     </row>
-    <row r="61" spans="2:14" ht="15.75">
+    <row r="61" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="34"/>
       <c r="C61" s="26"/>
       <c r="D61" s="28"/>
@@ -8421,7 +8465,7 @@
       <c r="M61" s="41"/>
       <c r="N61" s="42"/>
     </row>
-    <row r="62" spans="2:14" ht="15.75">
+    <row r="62" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="34"/>
       <c r="C62" s="26"/>
       <c r="D62" s="28"/>
@@ -8447,7 +8491,7 @@
       <c r="M62" s="41"/>
       <c r="N62" s="42"/>
     </row>
-    <row r="63" spans="2:14" ht="15.75">
+    <row r="63" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="34"/>
       <c r="C63" s="26"/>
       <c r="D63" s="28"/>
@@ -8473,7 +8517,7 @@
       <c r="M63" s="41"/>
       <c r="N63" s="42"/>
     </row>
-    <row r="64" spans="2:14" ht="15.75">
+    <row r="64" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="34"/>
       <c r="C64" s="26"/>
       <c r="D64" s="28"/>
@@ -8499,7 +8543,7 @@
       <c r="M64" s="41"/>
       <c r="N64" s="42"/>
     </row>
-    <row r="65" spans="2:14" ht="15.75">
+    <row r="65" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="34"/>
       <c r="C65" s="26"/>
       <c r="D65" s="28"/>
@@ -8525,7 +8569,7 @@
       <c r="M65" s="41"/>
       <c r="N65" s="42"/>
     </row>
-    <row r="66" spans="2:14" ht="15.75">
+    <row r="66" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="34"/>
       <c r="C66" s="26"/>
       <c r="D66" s="28"/>
@@ -8551,7 +8595,7 @@
       <c r="M66" s="41"/>
       <c r="N66" s="42"/>
     </row>
-    <row r="67" spans="2:14" ht="15.75">
+    <row r="67" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="34"/>
       <c r="C67" s="26"/>
       <c r="D67" s="28"/>
@@ -8577,7 +8621,7 @@
       <c r="M67" s="41"/>
       <c r="N67" s="42"/>
     </row>
-    <row r="68" spans="2:14" ht="15.75">
+    <row r="68" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="34"/>
       <c r="C68" s="26"/>
       <c r="D68" s="28"/>
@@ -8603,7 +8647,7 @@
       <c r="M68" s="41"/>
       <c r="N68" s="42"/>
     </row>
-    <row r="69" spans="2:14" ht="15.75">
+    <row r="69" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="34"/>
       <c r="C69" s="26"/>
       <c r="D69" s="28"/>
@@ -8629,7 +8673,7 @@
       <c r="M69" s="41"/>
       <c r="N69" s="42"/>
     </row>
-    <row r="70" spans="2:14" ht="15.75">
+    <row r="70" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="34"/>
       <c r="C70" s="26"/>
       <c r="D70" s="28"/>
@@ -8655,7 +8699,7 @@
       <c r="M70" s="41"/>
       <c r="N70" s="42"/>
     </row>
-    <row r="71" spans="2:14" ht="15.75">
+    <row r="71" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B71" s="34"/>
       <c r="C71" s="26"/>
       <c r="D71" s="28"/>
@@ -8681,7 +8725,7 @@
       <c r="M71" s="41"/>
       <c r="N71" s="42"/>
     </row>
-    <row r="72" spans="2:14" ht="15.75">
+    <row r="72" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B72" s="34"/>
       <c r="C72" s="26"/>
       <c r="D72" s="28"/>
@@ -8707,7 +8751,7 @@
       <c r="M72" s="41"/>
       <c r="N72" s="42"/>
     </row>
-    <row r="73" spans="2:14" ht="15.75">
+    <row r="73" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B73" s="34"/>
       <c r="C73" s="26"/>
       <c r="D73" s="28"/>
@@ -8733,7 +8777,7 @@
       <c r="M73" s="41"/>
       <c r="N73" s="42"/>
     </row>
-    <row r="74" spans="2:14" ht="15.75">
+    <row r="74" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B74" s="34"/>
       <c r="C74" s="26"/>
       <c r="D74" s="28"/>
@@ -8759,7 +8803,7 @@
       <c r="M74" s="41"/>
       <c r="N74" s="42"/>
     </row>
-    <row r="75" spans="2:14" ht="15.75">
+    <row r="75" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B75" s="34"/>
       <c r="C75" s="26"/>
       <c r="D75" s="28"/>
@@ -8785,7 +8829,7 @@
       <c r="M75" s="41"/>
       <c r="N75" s="42"/>
     </row>
-    <row r="76" spans="2:14" ht="15.75">
+    <row r="76" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B76" s="34"/>
       <c r="C76" s="26"/>
       <c r="D76" s="28"/>
@@ -8811,7 +8855,7 @@
       <c r="M76" s="41"/>
       <c r="N76" s="42"/>
     </row>
-    <row r="77" spans="2:14" ht="15.75">
+    <row r="77" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B77" s="34"/>
       <c r="C77" s="26"/>
       <c r="D77" s="28"/>
@@ -8837,7 +8881,7 @@
       <c r="M77" s="41"/>
       <c r="N77" s="42"/>
     </row>
-    <row r="78" spans="2:14" ht="15.75">
+    <row r="78" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B78" s="34"/>
       <c r="C78" s="26"/>
       <c r="D78" s="28"/>
@@ -8863,7 +8907,7 @@
       <c r="M78" s="41"/>
       <c r="N78" s="42"/>
     </row>
-    <row r="79" spans="2:14" ht="15.75">
+    <row r="79" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B79" s="34"/>
       <c r="C79" s="26"/>
       <c r="D79" s="28"/>
@@ -8889,7 +8933,7 @@
       <c r="M79" s="41"/>
       <c r="N79" s="42"/>
     </row>
-    <row r="80" spans="2:14" ht="15.75">
+    <row r="80" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B80" s="34"/>
       <c r="C80" s="26"/>
       <c r="D80" s="28"/>
@@ -8915,7 +8959,7 @@
       <c r="M80" s="41"/>
       <c r="N80" s="42"/>
     </row>
-    <row r="81" spans="2:14" ht="15.75">
+    <row r="81" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B81" s="34"/>
       <c r="C81" s="26"/>
       <c r="D81" s="28"/>
@@ -8941,7 +8985,7 @@
       <c r="M81" s="41"/>
       <c r="N81" s="42"/>
     </row>
-    <row r="82" spans="2:14" ht="15.75">
+    <row r="82" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B82" s="34"/>
       <c r="C82" s="26"/>
       <c r="D82" s="28"/>
@@ -8967,7 +9011,7 @@
       <c r="M82" s="41"/>
       <c r="N82" s="42"/>
     </row>
-    <row r="83" spans="2:14" ht="15.75">
+    <row r="83" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B83" s="34"/>
       <c r="C83" s="26"/>
       <c r="D83" s="28"/>
@@ -8993,7 +9037,7 @@
       <c r="M83" s="41"/>
       <c r="N83" s="42"/>
     </row>
-    <row r="84" spans="2:14" ht="15.75">
+    <row r="84" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B84" s="34"/>
       <c r="C84" s="26"/>
       <c r="D84" s="28"/>
@@ -9019,7 +9063,7 @@
       <c r="M84" s="41"/>
       <c r="N84" s="42"/>
     </row>
-    <row r="85" spans="2:14" ht="15.75">
+    <row r="85" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B85" s="34"/>
       <c r="C85" s="26"/>
       <c r="D85" s="28"/>
@@ -9045,7 +9089,7 @@
       <c r="M85" s="41"/>
       <c r="N85" s="42"/>
     </row>
-    <row r="86" spans="2:14" ht="15.75">
+    <row r="86" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B86" s="34"/>
       <c r="C86" s="26"/>
       <c r="D86" s="28"/>
@@ -9071,7 +9115,7 @@
       <c r="M86" s="41"/>
       <c r="N86" s="42"/>
     </row>
-    <row r="87" spans="2:14" ht="15.75">
+    <row r="87" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B87" s="34"/>
       <c r="C87" s="26"/>
       <c r="D87" s="28"/>
@@ -9097,7 +9141,7 @@
       <c r="M87" s="41"/>
       <c r="N87" s="42"/>
     </row>
-    <row r="88" spans="2:14" ht="15.75">
+    <row r="88" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B88" s="34"/>
       <c r="C88" s="26"/>
       <c r="D88" s="28"/>
@@ -9123,7 +9167,7 @@
       <c r="M88" s="41"/>
       <c r="N88" s="42"/>
     </row>
-    <row r="89" spans="2:14" ht="15.75">
+    <row r="89" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B89" s="34"/>
       <c r="C89" s="26"/>
       <c r="D89" s="28"/>
@@ -9149,7 +9193,7 @@
       <c r="M89" s="41"/>
       <c r="N89" s="42"/>
     </row>
-    <row r="90" spans="2:14" ht="15.75">
+    <row r="90" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B90" s="34"/>
       <c r="C90" s="26"/>
       <c r="D90" s="28"/>
@@ -9175,7 +9219,7 @@
       <c r="M90" s="41"/>
       <c r="N90" s="42"/>
     </row>
-    <row r="91" spans="2:14" ht="15.75">
+    <row r="91" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B91" s="34"/>
       <c r="C91" s="26"/>
       <c r="D91" s="28"/>
@@ -9201,7 +9245,7 @@
       <c r="M91" s="41"/>
       <c r="N91" s="42"/>
     </row>
-    <row r="92" spans="2:14" ht="15.75">
+    <row r="92" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B92" s="34"/>
       <c r="C92" s="26"/>
       <c r="D92" s="28"/>
@@ -9227,7 +9271,7 @@
       <c r="M92" s="41"/>
       <c r="N92" s="42"/>
     </row>
-    <row r="93" spans="2:14" ht="15.75">
+    <row r="93" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B93" s="34"/>
       <c r="C93" s="26"/>
       <c r="D93" s="28"/>
@@ -9253,7 +9297,7 @@
       <c r="M93" s="41"/>
       <c r="N93" s="42"/>
     </row>
-    <row r="94" spans="2:14" ht="15.75">
+    <row r="94" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B94" s="34"/>
       <c r="C94" s="26"/>
       <c r="D94" s="28"/>
@@ -9279,7 +9323,7 @@
       <c r="M94" s="41"/>
       <c r="N94" s="42"/>
     </row>
-    <row r="95" spans="2:14" ht="15.75">
+    <row r="95" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B95" s="34"/>
       <c r="C95" s="26"/>
       <c r="D95" s="28"/>
@@ -9305,7 +9349,7 @@
       <c r="M95" s="41"/>
       <c r="N95" s="42"/>
     </row>
-    <row r="96" spans="2:14" ht="15.75">
+    <row r="96" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B96" s="34"/>
       <c r="C96" s="26"/>
       <c r="D96" s="28"/>
@@ -9331,7 +9375,7 @@
       <c r="M96" s="41"/>
       <c r="N96" s="42"/>
     </row>
-    <row r="97" spans="2:14" ht="15.75">
+    <row r="97" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B97" s="34"/>
       <c r="C97" s="26"/>
       <c r="D97" s="28"/>
@@ -9357,7 +9401,7 @@
       <c r="M97" s="41"/>
       <c r="N97" s="42"/>
     </row>
-    <row r="98" spans="2:14" ht="15.75">
+    <row r="98" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B98" s="34"/>
       <c r="C98" s="26"/>
       <c r="D98" s="28"/>
@@ -9383,7 +9427,7 @@
       <c r="M98" s="41"/>
       <c r="N98" s="42"/>
     </row>
-    <row r="99" spans="2:14" ht="15.75">
+    <row r="99" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B99" s="34"/>
       <c r="C99" s="26"/>
       <c r="D99" s="28"/>
@@ -9409,7 +9453,7 @@
       <c r="M99" s="41"/>
       <c r="N99" s="42"/>
     </row>
-    <row r="100" spans="2:14" ht="15.75">
+    <row r="100" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B100" s="34"/>
       <c r="C100" s="26"/>
       <c r="D100" s="28"/>
@@ -9435,7 +9479,7 @@
       <c r="M100" s="41"/>
       <c r="N100" s="42"/>
     </row>
-    <row r="101" spans="2:14" ht="15.75">
+    <row r="101" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B101" s="34"/>
       <c r="C101" s="26"/>
       <c r="D101" s="28"/>
@@ -9461,7 +9505,7 @@
       <c r="M101" s="41"/>
       <c r="N101" s="42"/>
     </row>
-    <row r="102" spans="2:14" ht="15.75">
+    <row r="102" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B102" s="34"/>
       <c r="C102" s="26"/>
       <c r="D102" s="28"/>
@@ -9487,7 +9531,7 @@
       <c r="M102" s="41"/>
       <c r="N102" s="42"/>
     </row>
-    <row r="103" spans="2:14" ht="15.75">
+    <row r="103" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B103" s="34"/>
       <c r="C103" s="26"/>
       <c r="D103" s="28"/>
@@ -9513,7 +9557,7 @@
       <c r="M103" s="41"/>
       <c r="N103" s="42"/>
     </row>
-    <row r="104" spans="2:14" ht="15.75">
+    <row r="104" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B104" s="34"/>
       <c r="C104" s="26"/>
       <c r="D104" s="28"/>
@@ -9539,7 +9583,7 @@
       <c r="M104" s="41"/>
       <c r="N104" s="42"/>
     </row>
-    <row r="105" spans="2:14" ht="15.75">
+    <row r="105" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B105" s="34"/>
       <c r="C105" s="26"/>
       <c r="D105" s="28"/>
@@ -9565,7 +9609,7 @@
       <c r="M105" s="41"/>
       <c r="N105" s="42"/>
     </row>
-    <row r="106" spans="2:14" ht="15.75">
+    <row r="106" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B106" s="34"/>
       <c r="C106" s="26"/>
       <c r="D106" s="28"/>
@@ -9591,7 +9635,7 @@
       <c r="M106" s="41"/>
       <c r="N106" s="42"/>
     </row>
-    <row r="107" spans="2:14" ht="15.75">
+    <row r="107" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="34"/>
       <c r="C107" s="26"/>
       <c r="D107" s="28"/>
@@ -9617,7 +9661,7 @@
       <c r="M107" s="41"/>
       <c r="N107" s="42"/>
     </row>
-    <row r="108" spans="2:14" ht="15.75">
+    <row r="108" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="34"/>
       <c r="C108" s="26"/>
       <c r="D108" s="28"/>
@@ -9643,7 +9687,7 @@
       <c r="M108" s="41"/>
       <c r="N108" s="42"/>
     </row>
-    <row r="109" spans="2:14" ht="15.75">
+    <row r="109" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B109" s="34"/>
       <c r="C109" s="26"/>
       <c r="D109" s="28"/>
@@ -9669,7 +9713,7 @@
       <c r="M109" s="41"/>
       <c r="N109" s="42"/>
     </row>
-    <row r="110" spans="2:14" ht="15.75">
+    <row r="110" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B110" s="34"/>
       <c r="C110" s="26"/>
       <c r="D110" s="28"/>
@@ -9695,7 +9739,7 @@
       <c r="M110" s="41"/>
       <c r="N110" s="42"/>
     </row>
-    <row r="111" spans="2:14" ht="15.75">
+    <row r="111" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B111" s="34"/>
       <c r="C111" s="26"/>
       <c r="D111" s="28"/>
@@ -9721,7 +9765,7 @@
       <c r="M111" s="41"/>
       <c r="N111" s="42"/>
     </row>
-    <row r="112" spans="2:14" ht="15.75">
+    <row r="112" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B112" s="34"/>
       <c r="C112" s="26"/>
       <c r="D112" s="28"/>
@@ -9747,7 +9791,7 @@
       <c r="M112" s="41"/>
       <c r="N112" s="42"/>
     </row>
-    <row r="113" spans="2:14" ht="15.75">
+    <row r="113" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B113" s="34"/>
       <c r="C113" s="26"/>
       <c r="D113" s="28"/>
@@ -9773,7 +9817,7 @@
       <c r="M113" s="41"/>
       <c r="N113" s="42"/>
     </row>
-    <row r="114" spans="2:14" ht="15.75">
+    <row r="114" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B114" s="34"/>
       <c r="C114" s="26"/>
       <c r="D114" s="28"/>
@@ -9799,7 +9843,7 @@
       <c r="M114" s="41"/>
       <c r="N114" s="42"/>
     </row>
-    <row r="115" spans="2:14" ht="15.75">
+    <row r="115" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B115" s="34"/>
       <c r="C115" s="26"/>
       <c r="D115" s="28"/>
@@ -9825,7 +9869,7 @@
       <c r="M115" s="41"/>
       <c r="N115" s="42"/>
     </row>
-    <row r="116" spans="2:14" ht="15.75">
+    <row r="116" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B116" s="34"/>
       <c r="C116" s="26"/>
       <c r="D116" s="28"/>
@@ -9851,7 +9895,7 @@
       <c r="M116" s="41"/>
       <c r="N116" s="42"/>
     </row>
-    <row r="117" spans="2:14" ht="15.75">
+    <row r="117" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B117" s="34"/>
       <c r="C117" s="26"/>
       <c r="D117" s="28"/>
@@ -9877,7 +9921,7 @@
       <c r="M117" s="41"/>
       <c r="N117" s="42"/>
     </row>
-    <row r="118" spans="2:14" ht="15.75">
+    <row r="118" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B118" s="34"/>
       <c r="C118" s="26"/>
       <c r="D118" s="28"/>
@@ -9903,7 +9947,7 @@
       <c r="M118" s="41"/>
       <c r="N118" s="42"/>
     </row>
-    <row r="119" spans="2:14" ht="15.75">
+    <row r="119" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B119" s="34"/>
       <c r="C119" s="26"/>
       <c r="D119" s="28"/>
@@ -9929,7 +9973,7 @@
       <c r="M119" s="41"/>
       <c r="N119" s="42"/>
     </row>
-    <row r="120" spans="2:14" ht="15.75">
+    <row r="120" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B120" s="34"/>
       <c r="C120" s="26"/>
       <c r="D120" s="28"/>
@@ -9955,7 +9999,7 @@
       <c r="M120" s="41"/>
       <c r="N120" s="42"/>
     </row>
-    <row r="121" spans="2:14" ht="15.75">
+    <row r="121" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B121" s="34"/>
       <c r="C121" s="26"/>
       <c r="D121" s="28"/>
@@ -9981,7 +10025,7 @@
       <c r="M121" s="41"/>
       <c r="N121" s="42"/>
     </row>
-    <row r="122" spans="2:14" ht="15.75">
+    <row r="122" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B122" s="34"/>
       <c r="C122" s="26"/>
       <c r="D122" s="28"/>
@@ -10007,7 +10051,7 @@
       <c r="M122" s="41"/>
       <c r="N122" s="42"/>
     </row>
-    <row r="123" spans="2:14" ht="15.75">
+    <row r="123" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B123" s="34"/>
       <c r="C123" s="26"/>
       <c r="D123" s="28"/>
@@ -10033,7 +10077,7 @@
       <c r="M123" s="41"/>
       <c r="N123" s="42"/>
     </row>
-    <row r="124" spans="2:14" ht="15.75">
+    <row r="124" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B124" s="34"/>
       <c r="C124" s="26"/>
       <c r="D124" s="28"/>
@@ -10059,7 +10103,7 @@
       <c r="M124" s="41"/>
       <c r="N124" s="42"/>
     </row>
-    <row r="125" spans="2:14" ht="15.75">
+    <row r="125" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B125" s="34"/>
       <c r="C125" s="26"/>
       <c r="D125" s="28"/>
@@ -10085,7 +10129,7 @@
       <c r="M125" s="41"/>
       <c r="N125" s="42"/>
     </row>
-    <row r="126" spans="2:14" ht="15.75">
+    <row r="126" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B126" s="34"/>
       <c r="C126" s="26"/>
       <c r="D126" s="28"/>
@@ -10111,7 +10155,7 @@
       <c r="M126" s="41"/>
       <c r="N126" s="42"/>
     </row>
-    <row r="127" spans="2:14" ht="15.75">
+    <row r="127" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B127" s="34"/>
       <c r="C127" s="26"/>
       <c r="D127" s="28"/>
@@ -10137,7 +10181,7 @@
       <c r="M127" s="41"/>
       <c r="N127" s="42"/>
     </row>
-    <row r="128" spans="2:14" ht="15.75">
+    <row r="128" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B128" s="34"/>
       <c r="C128" s="26"/>
       <c r="D128" s="28"/>
@@ -10163,7 +10207,7 @@
       <c r="M128" s="41"/>
       <c r="N128" s="42"/>
     </row>
-    <row r="129" spans="2:14" ht="15.75">
+    <row r="129" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B129" s="34"/>
       <c r="C129" s="26"/>
       <c r="D129" s="28"/>
@@ -10189,7 +10233,7 @@
       <c r="M129" s="41"/>
       <c r="N129" s="42"/>
     </row>
-    <row r="130" spans="2:14" ht="15.75">
+    <row r="130" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B130" s="34"/>
       <c r="C130" s="26"/>
       <c r="D130" s="28"/>
@@ -10215,7 +10259,7 @@
       <c r="M130" s="41"/>
       <c r="N130" s="42"/>
     </row>
-    <row r="131" spans="2:14" ht="15.75">
+    <row r="131" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B131" s="34"/>
       <c r="C131" s="26"/>
       <c r="D131" s="28"/>
@@ -10241,7 +10285,7 @@
       <c r="M131" s="41"/>
       <c r="N131" s="42"/>
     </row>
-    <row r="132" spans="2:14" ht="15.75">
+    <row r="132" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B132" s="34"/>
       <c r="C132" s="26"/>
       <c r="D132" s="28"/>
@@ -10267,7 +10311,7 @@
       <c r="M132" s="41"/>
       <c r="N132" s="42"/>
     </row>
-    <row r="133" spans="2:14" ht="15.75">
+    <row r="133" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B133" s="34"/>
       <c r="C133" s="26"/>
       <c r="D133" s="28"/>
@@ -10293,7 +10337,7 @@
       <c r="M133" s="41"/>
       <c r="N133" s="42"/>
     </row>
-    <row r="134" spans="2:14" ht="15.75">
+    <row r="134" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B134" s="34"/>
       <c r="C134" s="26"/>
       <c r="D134" s="28"/>
@@ -10319,7 +10363,7 @@
       <c r="M134" s="41"/>
       <c r="N134" s="42"/>
     </row>
-    <row r="135" spans="2:14" ht="15.75">
+    <row r="135" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B135" s="34"/>
       <c r="C135" s="26"/>
       <c r="D135" s="28"/>
@@ -10345,7 +10389,7 @@
       <c r="M135" s="41"/>
       <c r="N135" s="42"/>
     </row>
-    <row r="136" spans="2:14" ht="15.75">
+    <row r="136" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B136" s="34"/>
       <c r="C136" s="26"/>
       <c r="D136" s="28"/>
@@ -10371,7 +10415,7 @@
       <c r="M136" s="41"/>
       <c r="N136" s="42"/>
     </row>
-    <row r="137" spans="2:14" ht="15.75">
+    <row r="137" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B137" s="34"/>
       <c r="C137" s="26"/>
       <c r="D137" s="28"/>
@@ -10397,7 +10441,7 @@
       <c r="M137" s="41"/>
       <c r="N137" s="42"/>
     </row>
-    <row r="138" spans="2:14" ht="15.75">
+    <row r="138" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B138" s="34"/>
       <c r="C138" s="26"/>
       <c r="D138" s="28"/>
@@ -10423,7 +10467,7 @@
       <c r="M138" s="41"/>
       <c r="N138" s="42"/>
     </row>
-    <row r="139" spans="2:14" ht="15.75">
+    <row r="139" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B139" s="34"/>
       <c r="C139" s="26"/>
       <c r="D139" s="28"/>
@@ -10449,7 +10493,7 @@
       <c r="M139" s="41"/>
       <c r="N139" s="42"/>
     </row>
-    <row r="140" spans="2:14" ht="15.75">
+    <row r="140" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B140" s="34"/>
       <c r="C140" s="26"/>
       <c r="D140" s="28"/>
@@ -10475,7 +10519,7 @@
       <c r="M140" s="41"/>
       <c r="N140" s="42"/>
     </row>
-    <row r="141" spans="2:14" ht="15.75">
+    <row r="141" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B141" s="34"/>
       <c r="C141" s="26"/>
       <c r="D141" s="28"/>
@@ -10501,7 +10545,7 @@
       <c r="M141" s="41"/>
       <c r="N141" s="42"/>
     </row>
-    <row r="142" spans="2:14" ht="15.75">
+    <row r="142" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B142" s="34"/>
       <c r="C142" s="26"/>
       <c r="D142" s="28"/>
@@ -10527,7 +10571,7 @@
       <c r="M142" s="41"/>
       <c r="N142" s="42"/>
     </row>
-    <row r="143" spans="2:14" ht="15.75">
+    <row r="143" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B143" s="34"/>
       <c r="C143" s="26"/>
       <c r="D143" s="28"/>
@@ -10553,7 +10597,7 @@
       <c r="M143" s="41"/>
       <c r="N143" s="42"/>
     </row>
-    <row r="144" spans="2:14" ht="15.75">
+    <row r="144" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B144" s="34"/>
       <c r="C144" s="26"/>
       <c r="D144" s="28"/>
@@ -10579,7 +10623,7 @@
       <c r="M144" s="41"/>
       <c r="N144" s="42"/>
     </row>
-    <row r="145" spans="2:14" ht="15.75">
+    <row r="145" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B145" s="34"/>
       <c r="C145" s="26"/>
       <c r="D145" s="28"/>
@@ -10605,7 +10649,7 @@
       <c r="M145" s="41"/>
       <c r="N145" s="42"/>
     </row>
-    <row r="146" spans="2:14" ht="15.75">
+    <row r="146" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B146" s="34"/>
       <c r="C146" s="26"/>
       <c r="D146" s="28"/>
@@ -10631,7 +10675,7 @@
       <c r="M146" s="41"/>
       <c r="N146" s="42"/>
     </row>
-    <row r="147" spans="2:14" ht="15.75">
+    <row r="147" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B147" s="34"/>
       <c r="C147" s="26"/>
       <c r="D147" s="28"/>
@@ -10657,7 +10701,7 @@
       <c r="M147" s="41"/>
       <c r="N147" s="42"/>
     </row>
-    <row r="148" spans="2:14" ht="15.75">
+    <row r="148" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B148" s="34"/>
       <c r="C148" s="26"/>
       <c r="D148" s="28"/>
@@ -10683,7 +10727,7 @@
       <c r="M148" s="41"/>
       <c r="N148" s="42"/>
     </row>
-    <row r="149" spans="2:14" ht="15.75">
+    <row r="149" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B149" s="34"/>
       <c r="C149" s="26"/>
       <c r="D149" s="28"/>
@@ -10709,7 +10753,7 @@
       <c r="M149" s="41"/>
       <c r="N149" s="42"/>
     </row>
-    <row r="150" spans="2:14" ht="15.75">
+    <row r="150" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B150" s="34"/>
       <c r="C150" s="26"/>
       <c r="D150" s="28"/>
@@ -10735,7 +10779,7 @@
       <c r="M150" s="41"/>
       <c r="N150" s="42"/>
     </row>
-    <row r="151" spans="2:14" ht="15.75">
+    <row r="151" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B151" s="34"/>
       <c r="C151" s="26"/>
       <c r="D151" s="28"/>
@@ -10761,7 +10805,7 @@
       <c r="M151" s="41"/>
       <c r="N151" s="42"/>
     </row>
-    <row r="152" spans="2:14" ht="15.75">
+    <row r="152" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B152" s="34"/>
       <c r="C152" s="26"/>
       <c r="D152" s="28"/>
@@ -10787,7 +10831,7 @@
       <c r="M152" s="41"/>
       <c r="N152" s="42"/>
     </row>
-    <row r="153" spans="2:14" ht="15.75">
+    <row r="153" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B153" s="34"/>
       <c r="C153" s="26"/>
       <c r="D153" s="28"/>
@@ -10813,7 +10857,7 @@
       <c r="M153" s="41"/>
       <c r="N153" s="42"/>
     </row>
-    <row r="154" spans="2:14" ht="15.75">
+    <row r="154" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B154" s="34"/>
       <c r="C154" s="26"/>
       <c r="D154" s="28"/>
@@ -10839,7 +10883,7 @@
       <c r="M154" s="41"/>
       <c r="N154" s="42"/>
     </row>
-    <row r="155" spans="2:14" ht="15.75">
+    <row r="155" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B155" s="34"/>
       <c r="C155" s="26"/>
       <c r="D155" s="28"/>
@@ -10865,7 +10909,7 @@
       <c r="M155" s="41"/>
       <c r="N155" s="42"/>
     </row>
-    <row r="156" spans="2:14" ht="15.75">
+    <row r="156" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B156" s="34"/>
       <c r="C156" s="26"/>
       <c r="D156" s="28"/>
@@ -10891,7 +10935,7 @@
       <c r="M156" s="41"/>
       <c r="N156" s="42"/>
     </row>
-    <row r="157" spans="2:14" ht="15.75">
+    <row r="157" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B157" s="34"/>
       <c r="C157" s="26"/>
       <c r="D157" s="28"/>
@@ -10917,7 +10961,7 @@
       <c r="M157" s="41"/>
       <c r="N157" s="42"/>
     </row>
-    <row r="158" spans="2:14" ht="15.75">
+    <row r="158" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B158" s="34"/>
       <c r="C158" s="26"/>
       <c r="D158" s="28"/>
@@ -10943,7 +10987,7 @@
       <c r="M158" s="41"/>
       <c r="N158" s="42"/>
     </row>
-    <row r="159" spans="2:14" ht="15.75">
+    <row r="159" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B159" s="34"/>
       <c r="C159" s="26"/>
       <c r="D159" s="28"/>
@@ -10969,7 +11013,7 @@
       <c r="M159" s="41"/>
       <c r="N159" s="42"/>
     </row>
-    <row r="160" spans="2:14" ht="15.75">
+    <row r="160" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B160" s="34"/>
       <c r="C160" s="26"/>
       <c r="D160" s="28"/>
@@ -10995,7 +11039,7 @@
       <c r="M160" s="41"/>
       <c r="N160" s="42"/>
     </row>
-    <row r="161" spans="2:14" ht="15.75">
+    <row r="161" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B161" s="34"/>
       <c r="C161" s="26"/>
       <c r="D161" s="28"/>
@@ -11021,7 +11065,7 @@
       <c r="M161" s="41"/>
       <c r="N161" s="42"/>
     </row>
-    <row r="162" spans="2:14" ht="15.75">
+    <row r="162" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B162" s="34"/>
       <c r="C162" s="26"/>
       <c r="D162" s="28"/>
@@ -11047,7 +11091,7 @@
       <c r="M162" s="41"/>
       <c r="N162" s="42"/>
     </row>
-    <row r="163" spans="2:14" ht="15.75">
+    <row r="163" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B163" s="34"/>
       <c r="C163" s="26"/>
       <c r="D163" s="28"/>
@@ -11073,7 +11117,7 @@
       <c r="M163" s="41"/>
       <c r="N163" s="42"/>
     </row>
-    <row r="164" spans="2:14" ht="15.75">
+    <row r="164" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B164" s="34"/>
       <c r="C164" s="26"/>
       <c r="D164" s="28"/>
@@ -11099,7 +11143,7 @@
       <c r="M164" s="41"/>
       <c r="N164" s="42"/>
     </row>
-    <row r="165" spans="2:14" ht="15.75">
+    <row r="165" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B165" s="34"/>
       <c r="C165" s="26"/>
       <c r="D165" s="28"/>
@@ -11125,7 +11169,7 @@
       <c r="M165" s="41"/>
       <c r="N165" s="42"/>
     </row>
-    <row r="166" spans="2:14" ht="15.75">
+    <row r="166" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B166" s="34"/>
       <c r="C166" s="26"/>
       <c r="D166" s="28"/>
@@ -11151,7 +11195,7 @@
       <c r="M166" s="41"/>
       <c r="N166" s="42"/>
     </row>
-    <row r="167" spans="2:14" ht="15.75">
+    <row r="167" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B167" s="34"/>
       <c r="C167" s="26"/>
       <c r="D167" s="28"/>
@@ -11177,7 +11221,7 @@
       <c r="M167" s="41"/>
       <c r="N167" s="42"/>
     </row>
-    <row r="168" spans="2:14" ht="15.75">
+    <row r="168" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B168" s="34"/>
       <c r="C168" s="26"/>
       <c r="D168" s="28"/>
@@ -11203,7 +11247,7 @@
       <c r="M168" s="41"/>
       <c r="N168" s="42"/>
     </row>
-    <row r="169" spans="2:14" ht="15.75">
+    <row r="169" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B169" s="34"/>
       <c r="C169" s="26"/>
       <c r="D169" s="28"/>
@@ -11229,7 +11273,7 @@
       <c r="M169" s="41"/>
       <c r="N169" s="42"/>
     </row>
-    <row r="170" spans="2:14" ht="15.75">
+    <row r="170" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B170" s="34"/>
       <c r="C170" s="26"/>
       <c r="D170" s="28"/>
@@ -11255,7 +11299,7 @@
       <c r="M170" s="41"/>
       <c r="N170" s="42"/>
     </row>
-    <row r="171" spans="2:14" ht="15.75">
+    <row r="171" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B171" s="34"/>
       <c r="C171" s="26"/>
       <c r="D171" s="28"/>
@@ -11281,7 +11325,7 @@
       <c r="M171" s="41"/>
       <c r="N171" s="42"/>
     </row>
-    <row r="172" spans="2:14" ht="15.75">
+    <row r="172" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B172" s="34"/>
       <c r="C172" s="26"/>
       <c r="D172" s="28"/>
@@ -11307,7 +11351,7 @@
       <c r="M172" s="41"/>
       <c r="N172" s="42"/>
     </row>
-    <row r="173" spans="2:14" ht="15.75">
+    <row r="173" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B173" s="34"/>
       <c r="C173" s="26"/>
       <c r="D173" s="28"/>
@@ -11333,7 +11377,7 @@
       <c r="M173" s="41"/>
       <c r="N173" s="42"/>
     </row>
-    <row r="174" spans="2:14" ht="15.75">
+    <row r="174" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B174" s="34"/>
       <c r="C174" s="26"/>
       <c r="D174" s="28"/>
@@ -11359,7 +11403,7 @@
       <c r="M174" s="41"/>
       <c r="N174" s="42"/>
     </row>
-    <row r="175" spans="2:14" ht="15.75">
+    <row r="175" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B175" s="34"/>
       <c r="C175" s="26"/>
       <c r="D175" s="28"/>
@@ -11385,7 +11429,7 @@
       <c r="M175" s="41"/>
       <c r="N175" s="42"/>
     </row>
-    <row r="176" spans="2:14" ht="15.75">
+    <row r="176" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B176" s="34"/>
       <c r="C176" s="26"/>
       <c r="D176" s="28"/>
@@ -11411,7 +11455,7 @@
       <c r="M176" s="41"/>
       <c r="N176" s="42"/>
     </row>
-    <row r="177" spans="2:14" ht="15.75">
+    <row r="177" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B177" s="34"/>
       <c r="C177" s="26"/>
       <c r="D177" s="28"/>
@@ -11437,7 +11481,7 @@
       <c r="M177" s="41"/>
       <c r="N177" s="42"/>
     </row>
-    <row r="178" spans="2:14" ht="15.75">
+    <row r="178" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B178" s="34"/>
       <c r="C178" s="26"/>
       <c r="D178" s="28"/>
@@ -11463,7 +11507,7 @@
       <c r="M178" s="41"/>
       <c r="N178" s="42"/>
     </row>
-    <row r="179" spans="2:14" ht="15.75">
+    <row r="179" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B179" s="34"/>
       <c r="C179" s="26"/>
       <c r="D179" s="28"/>
@@ -11489,7 +11533,7 @@
       <c r="M179" s="41"/>
       <c r="N179" s="42"/>
     </row>
-    <row r="180" spans="2:14" ht="15.75">
+    <row r="180" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B180" s="34"/>
       <c r="C180" s="26"/>
       <c r="D180" s="28"/>
@@ -11515,7 +11559,7 @@
       <c r="M180" s="41"/>
       <c r="N180" s="42"/>
     </row>
-    <row r="181" spans="2:14" ht="15.75">
+    <row r="181" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B181" s="34"/>
       <c r="C181" s="26"/>
       <c r="D181" s="28"/>
@@ -11541,7 +11585,7 @@
       <c r="M181" s="41"/>
       <c r="N181" s="42"/>
     </row>
-    <row r="182" spans="2:14" ht="15.75">
+    <row r="182" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B182" s="34"/>
       <c r="C182" s="26"/>
       <c r="D182" s="28"/>
@@ -11567,7 +11611,7 @@
       <c r="M182" s="41"/>
       <c r="N182" s="42"/>
     </row>
-    <row r="183" spans="2:14" ht="15.75">
+    <row r="183" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B183" s="34"/>
       <c r="C183" s="26"/>
       <c r="D183" s="28"/>
@@ -11593,7 +11637,7 @@
       <c r="M183" s="41"/>
       <c r="N183" s="42"/>
     </row>
-    <row r="184" spans="2:14" ht="15.75">
+    <row r="184" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B184" s="34"/>
       <c r="C184" s="26"/>
       <c r="D184" s="28"/>
@@ -11619,7 +11663,7 @@
       <c r="M184" s="41"/>
       <c r="N184" s="42"/>
     </row>
-    <row r="185" spans="2:14" ht="15.75">
+    <row r="185" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B185" s="34"/>
       <c r="C185" s="26"/>
       <c r="D185" s="28"/>
@@ -11645,7 +11689,7 @@
       <c r="M185" s="41"/>
       <c r="N185" s="42"/>
     </row>
-    <row r="186" spans="2:14" ht="15.75">
+    <row r="186" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B186" s="34"/>
       <c r="C186" s="26"/>
       <c r="D186" s="28"/>
@@ -11671,7 +11715,7 @@
       <c r="M186" s="41"/>
       <c r="N186" s="42"/>
     </row>
-    <row r="187" spans="2:14" ht="15.75">
+    <row r="187" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B187" s="34"/>
       <c r="C187" s="26"/>
       <c r="D187" s="28"/>
@@ -11697,7 +11741,7 @@
       <c r="M187" s="41"/>
       <c r="N187" s="42"/>
     </row>
-    <row r="188" spans="2:14" ht="15.75">
+    <row r="188" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B188" s="34"/>
       <c r="C188" s="26"/>
       <c r="D188" s="28"/>
@@ -11723,7 +11767,7 @@
       <c r="M188" s="41"/>
       <c r="N188" s="42"/>
     </row>
-    <row r="189" spans="2:14" ht="15.75">
+    <row r="189" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B189" s="34"/>
       <c r="C189" s="26"/>
       <c r="D189" s="28"/>
@@ -11749,7 +11793,7 @@
       <c r="M189" s="41"/>
       <c r="N189" s="42"/>
     </row>
-    <row r="190" spans="2:14" ht="15.75">
+    <row r="190" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B190" s="34"/>
       <c r="C190" s="26"/>
       <c r="D190" s="28"/>
@@ -11775,7 +11819,7 @@
       <c r="M190" s="41"/>
       <c r="N190" s="42"/>
     </row>
-    <row r="191" spans="2:14" ht="15.75">
+    <row r="191" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B191" s="34"/>
       <c r="C191" s="26"/>
       <c r="D191" s="28"/>
@@ -11801,7 +11845,7 @@
       <c r="M191" s="41"/>
       <c r="N191" s="42"/>
     </row>
-    <row r="192" spans="2:14" ht="15.75">
+    <row r="192" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B192" s="34"/>
       <c r="C192" s="26"/>
       <c r="D192" s="28"/>
@@ -11827,7 +11871,7 @@
       <c r="M192" s="41"/>
       <c r="N192" s="42"/>
     </row>
-    <row r="193" spans="2:14" ht="15.75">
+    <row r="193" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B193" s="34"/>
       <c r="C193" s="26"/>
       <c r="D193" s="28"/>
@@ -11853,7 +11897,7 @@
       <c r="M193" s="41"/>
       <c r="N193" s="42"/>
     </row>
-    <row r="194" spans="2:14" ht="15.75">
+    <row r="194" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B194" s="34"/>
       <c r="C194" s="26"/>
       <c r="D194" s="28"/>
@@ -11879,7 +11923,7 @@
       <c r="M194" s="41"/>
       <c r="N194" s="42"/>
     </row>
-    <row r="195" spans="2:14" ht="15.75">
+    <row r="195" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B195" s="34"/>
       <c r="C195" s="26"/>
       <c r="D195" s="28"/>
@@ -11905,7 +11949,7 @@
       <c r="M195" s="41"/>
       <c r="N195" s="42"/>
     </row>
-    <row r="196" spans="2:14" ht="15.75">
+    <row r="196" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B196" s="34"/>
       <c r="C196" s="26"/>
       <c r="D196" s="28"/>
@@ -11931,7 +11975,7 @@
       <c r="M196" s="41"/>
       <c r="N196" s="42"/>
     </row>
-    <row r="197" spans="2:14" ht="15.75">
+    <row r="197" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B197" s="34"/>
       <c r="C197" s="26"/>
       <c r="D197" s="28"/>
@@ -11957,7 +12001,7 @@
       <c r="M197" s="41"/>
       <c r="N197" s="42"/>
     </row>
-    <row r="198" spans="2:14" ht="15.75">
+    <row r="198" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B198" s="34"/>
       <c r="C198" s="26"/>
       <c r="D198" s="28"/>
@@ -11985,15 +12029,180 @@
     </row>
   </sheetData>
   <mergeCells count="195">
-    <mergeCell ref="M196:N196"/>
-    <mergeCell ref="M197:N197"/>
-    <mergeCell ref="M198:N198"/>
-    <mergeCell ref="M190:N190"/>
-    <mergeCell ref="M191:N191"/>
-    <mergeCell ref="M192:N192"/>
-    <mergeCell ref="M193:N193"/>
-    <mergeCell ref="M194:N194"/>
-    <mergeCell ref="M195:N195"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:I3"/>
+    <mergeCell ref="K2:N3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B8:N9"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="M102:N102"/>
+    <mergeCell ref="M103:N103"/>
+    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="M112:N112"/>
+    <mergeCell ref="M113:N113"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="M109:N109"/>
+    <mergeCell ref="M110:N110"/>
+    <mergeCell ref="M111:N111"/>
+    <mergeCell ref="M124:N124"/>
+    <mergeCell ref="M125:N125"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="M127:N127"/>
+    <mergeCell ref="M128:N128"/>
+    <mergeCell ref="M129:N129"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="M119:N119"/>
+    <mergeCell ref="M120:N120"/>
+    <mergeCell ref="M121:N121"/>
+    <mergeCell ref="M122:N122"/>
+    <mergeCell ref="M123:N123"/>
+    <mergeCell ref="M136:N136"/>
+    <mergeCell ref="M137:N137"/>
+    <mergeCell ref="M138:N138"/>
+    <mergeCell ref="M139:N139"/>
+    <mergeCell ref="M140:N140"/>
+    <mergeCell ref="M141:N141"/>
+    <mergeCell ref="M130:N130"/>
+    <mergeCell ref="M131:N131"/>
+    <mergeCell ref="M132:N132"/>
+    <mergeCell ref="M133:N133"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="M148:N148"/>
+    <mergeCell ref="M149:N149"/>
+    <mergeCell ref="M150:N150"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="M152:N152"/>
+    <mergeCell ref="M153:N153"/>
+    <mergeCell ref="M142:N142"/>
+    <mergeCell ref="M143:N143"/>
+    <mergeCell ref="M144:N144"/>
+    <mergeCell ref="M145:N145"/>
+    <mergeCell ref="M146:N146"/>
+    <mergeCell ref="M147:N147"/>
+    <mergeCell ref="M160:N160"/>
+    <mergeCell ref="M161:N161"/>
+    <mergeCell ref="M162:N162"/>
+    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="M164:N164"/>
+    <mergeCell ref="M165:N165"/>
+    <mergeCell ref="M154:N154"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="M156:N156"/>
+    <mergeCell ref="M157:N157"/>
+    <mergeCell ref="M158:N158"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="M172:N172"/>
+    <mergeCell ref="M173:N173"/>
+    <mergeCell ref="M174:N174"/>
+    <mergeCell ref="M175:N175"/>
+    <mergeCell ref="M176:N176"/>
+    <mergeCell ref="M177:N177"/>
+    <mergeCell ref="M166:N166"/>
+    <mergeCell ref="M167:N167"/>
+    <mergeCell ref="M168:N168"/>
+    <mergeCell ref="M169:N169"/>
+    <mergeCell ref="M170:N170"/>
+    <mergeCell ref="M171:N171"/>
     <mergeCell ref="M184:N184"/>
     <mergeCell ref="M185:N185"/>
     <mergeCell ref="M186:N186"/>
@@ -12006,180 +12215,15 @@
     <mergeCell ref="M181:N181"/>
     <mergeCell ref="M182:N182"/>
     <mergeCell ref="M183:N183"/>
-    <mergeCell ref="M172:N172"/>
-    <mergeCell ref="M173:N173"/>
-    <mergeCell ref="M174:N174"/>
-    <mergeCell ref="M175:N175"/>
-    <mergeCell ref="M176:N176"/>
-    <mergeCell ref="M177:N177"/>
-    <mergeCell ref="M166:N166"/>
-    <mergeCell ref="M167:N167"/>
-    <mergeCell ref="M168:N168"/>
-    <mergeCell ref="M169:N169"/>
-    <mergeCell ref="M170:N170"/>
-    <mergeCell ref="M171:N171"/>
-    <mergeCell ref="M160:N160"/>
-    <mergeCell ref="M161:N161"/>
-    <mergeCell ref="M162:N162"/>
-    <mergeCell ref="M163:N163"/>
-    <mergeCell ref="M164:N164"/>
-    <mergeCell ref="M165:N165"/>
-    <mergeCell ref="M154:N154"/>
-    <mergeCell ref="M155:N155"/>
-    <mergeCell ref="M156:N156"/>
-    <mergeCell ref="M157:N157"/>
-    <mergeCell ref="M158:N158"/>
-    <mergeCell ref="M159:N159"/>
-    <mergeCell ref="M148:N148"/>
-    <mergeCell ref="M149:N149"/>
-    <mergeCell ref="M150:N150"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="M152:N152"/>
-    <mergeCell ref="M153:N153"/>
-    <mergeCell ref="M142:N142"/>
-    <mergeCell ref="M143:N143"/>
-    <mergeCell ref="M144:N144"/>
-    <mergeCell ref="M145:N145"/>
-    <mergeCell ref="M146:N146"/>
-    <mergeCell ref="M147:N147"/>
-    <mergeCell ref="M136:N136"/>
-    <mergeCell ref="M137:N137"/>
-    <mergeCell ref="M138:N138"/>
-    <mergeCell ref="M139:N139"/>
-    <mergeCell ref="M140:N140"/>
-    <mergeCell ref="M141:N141"/>
-    <mergeCell ref="M130:N130"/>
-    <mergeCell ref="M131:N131"/>
-    <mergeCell ref="M132:N132"/>
-    <mergeCell ref="M133:N133"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="M124:N124"/>
-    <mergeCell ref="M125:N125"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="M127:N127"/>
-    <mergeCell ref="M128:N128"/>
-    <mergeCell ref="M129:N129"/>
-    <mergeCell ref="M118:N118"/>
-    <mergeCell ref="M119:N119"/>
-    <mergeCell ref="M120:N120"/>
-    <mergeCell ref="M121:N121"/>
-    <mergeCell ref="M122:N122"/>
-    <mergeCell ref="M123:N123"/>
-    <mergeCell ref="M112:N112"/>
-    <mergeCell ref="M113:N113"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="M115:N115"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="M117:N117"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="M109:N109"/>
-    <mergeCell ref="M110:N110"/>
-    <mergeCell ref="M111:N111"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="M102:N102"/>
-    <mergeCell ref="M103:N103"/>
-    <mergeCell ref="M104:N104"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="M88:N88"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="M76:N76"/>
-    <mergeCell ref="M77:N77"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:I3"/>
-    <mergeCell ref="K2:N3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B8:N9"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M196:N196"/>
+    <mergeCell ref="M197:N197"/>
+    <mergeCell ref="M198:N198"/>
+    <mergeCell ref="M190:N190"/>
+    <mergeCell ref="M191:N191"/>
+    <mergeCell ref="M192:N192"/>
+    <mergeCell ref="M193:N193"/>
+    <mergeCell ref="M194:N194"/>
+    <mergeCell ref="M195:N195"/>
   </mergeCells>
   <conditionalFormatting sqref="J11:J198">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="V">
